--- a/data/hotels_by_city/Houston/Houston_shard_515.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_515.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d247107-Reviews-or80-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Inn-Suites-IAH-Bush-Airport-East.h876708.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531445811611&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=008faaf4-e8c5-4d1b-98b3-190bbe21877d&amp;mctc=9&amp;exp_dp=67.2&amp;exp_ts=1531445812299&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1674 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r560738889-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>247107</t>
+  </si>
+  <si>
+    <t>560738889</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>To start off the guy at the front desk was very nice,friendly, and talkative, his name was Chris. I had a slight issue with my TV and Chris came as soon as I hung up the phone and was very helpful!! The hotel over all was very nice, clean, new looking, and had a very generous amount of breakfast. I would come back here again.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r557350295-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>557350295</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Chris the guy at the front desk was nice</t>
+  </si>
+  <si>
+    <t>I flew in from N.Y. and after checking out some other hotels I came to this one and the lady the first night was so sweet and very helpful. The room was beautiful.. newly renovated and the beds are amazingly comfortable.. I will definitely be coming back when I visit Houston.. Chris the guy at the front desk was very helpful and was really nice.. I would recommend this hotel to anyone looking for a nice place to stay !!!!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r557079283-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>557079283</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>QUALITY INN &amp;SUITS IS VERY NICE AND COMFORTABLE ROOMS</t>
+  </si>
+  <si>
+    <t>Quality inn &amp; suits is very nice and clean rooms  comfortable bed and breakfast food  is very nice and very healthy  staff is very helpful person his name is krish he is very talkative person n kind man and this is perfect hotel</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r524806506-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>524806506</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Park, fly, stay is a joke</t>
+  </si>
+  <si>
+    <t>They don’t have a shuttle driver as advertised, so I had to pay for a taxi to get to the airport, which defeats part of the purpose of park, fly, stay.Rooms were nice and large.  They are in the middle of remodeling so there seems to be a “damp” smell about the place, but the room was clean and comfortable.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r495112434-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>495112434</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>First off the room and everything in was out dated and smelled like mildew through out the room...The next thing was they wanted to charge us $250 for a bottle in the trash with ashes that was taken out the car n thrown away on the inside because there was no trash at the back door.....And BC of that I   will never stay at another Holiday InnMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>First off the room and everything in was out dated and smelled like mildew through out the room...The next thing was they wanted to charge us $250 for a bottle in the trash with ashes that was taken out the car n thrown away on the inside because there was no trash at the back door.....And BC of that I   will never stay at another Holiday InnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r484783507-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>484783507</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Consistency is key with most Holiday Inn Express Hotels.  Pleasant staff, clean room and comfy bed.  We had to be at the airport early so did not get breakfast.  The room was fine, but could really stand some updating.  Nothing major, just trim and a few things seemed old.  Awesome shuttle service. Nearby convenience store, but no restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Consistency is key with most Holiday Inn Express Hotels.  Pleasant staff, clean room and comfy bed.  We had to be at the airport early so did not get breakfast.  The room was fine, but could really stand some updating.  Nothing major, just trim and a few things seemed old.  Awesome shuttle service. Nearby convenience store, but no restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r440954680-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>440954680</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Close to the airport</t>
+  </si>
+  <si>
+    <t>Nice Holiday Inn Express.  Got upgraded to a mini suite.  Its what you would expect from this IHG property. Staff very nice and accommodating.   Quick pickup from airport.  Micro and frig in room.  Recommend.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Nice Holiday Inn Express.  Got upgraded to a mini suite.  Its what you would expect from this IHG property. Staff very nice and accommodating.   Quick pickup from airport.  Micro and frig in room.  Recommend.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r439095526-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>439095526</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>we stayed here for a night while traveling to Orlando, shuttle was very convenient and hot breakfast was small but very good as in any Holiday Inn we've been.  Shuttle drivers were both very nice and made our trip better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>we stayed here for a night while traveling to Orlando, shuttle was very convenient and hot breakfast was small but very good as in any Holiday Inn we've been.  Shuttle drivers were both very nice and made our trip better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r438159835-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>438159835</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Rooms need work, breakfast dissapointing</t>
+  </si>
+  <si>
+    <t>My business colleague and I stayed here on a recent business visit to Houston. The rooms are a little dated and they upgraded us due to our status, but the only thing that made it an upgrade was a jacuzzi tub (who takes a bath). The breakfast was disappointing as there was no sausage for the biscuits &amp; gravy. Not sure I can recommend this HIE!MoreShow less</t>
+  </si>
+  <si>
+    <t>My business colleague and I stayed here on a recent business visit to Houston. The rooms are a little dated and they upgraded us due to our status, but the only thing that made it an upgrade was a jacuzzi tub (who takes a bath). The breakfast was disappointing as there was no sausage for the biscuits &amp; gravy. Not sure I can recommend this HIE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r390415663-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>390415663</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Great place to lay your head after a stressfull day of travel.</t>
+  </si>
+  <si>
+    <t>We were not supposed to be staying overnight in Houston...but the Airline had not given us enough time between flights ( Houston airport is enormous )..hence we missed our connecting flight..We were put up in the Holiday Inn Express by the Airport..The front desk staff could not have been any more accommodating..they were wonderful..I was in need of a w/c....they had one there for me..Room clean &amp; bed so very comfortable..Do not remember the room number..we were too tired &amp; hungry..Do not even remember the name of the restaurant in the Hotel...But the staff there as well incredible..food very good..a extensive menu to choose from..Even thought this was an unplanned stay..it was very much appreciated..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>We were not supposed to be staying overnight in Houston...but the Airline had not given us enough time between flights ( Houston airport is enormous )..hence we missed our connecting flight..We were put up in the Holiday Inn Express by the Airport..The front desk staff could not have been any more accommodating..they were wonderful..I was in need of a w/c....they had one there for me..Room clean &amp; bed so very comfortable..Do not remember the room number..we were too tired &amp; hungry..Do not even remember the name of the restaurant in the Hotel...But the staff there as well incredible..food very good..a extensive menu to choose from..Even thought this was an unplanned stay..it was very much appreciated..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r383173944-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>383173944</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Its going downhill....</t>
+  </si>
+  <si>
+    <t>First off took forever to check in, I appreciate its busy but the guy on reception was too busy complaining about his sugar levels.Secondly, he didn't give me my extra points or water for being a platinum IHG member.Thirdly, the rooms haven't changed in over 3 years, they're looking very dated, the room I was in had a bit of an odd odour, not unpleasant just odd.Fourthly, the air conditioning in my room was the old thermostat type and didn't work very well.This used to be my first choice when in the area, i will rethink that now.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>First off took forever to check in, I appreciate its busy but the guy on reception was too busy complaining about his sugar levels.Secondly, he didn't give me my extra points or water for being a platinum IHG member.Thirdly, the rooms haven't changed in over 3 years, they're looking very dated, the room I was in had a bit of an odd odour, not unpleasant just odd.Fourthly, the air conditioning in my room was the old thermostat type and didn't work very well.This used to be my first choice when in the area, i will rethink that now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r381668405-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>381668405</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>One of the worst hotels I have stayed at</t>
+  </si>
+  <si>
+    <t>I had an unexpected overnight at IAH due to a delayed flight and was booked at the Holiday Inn Express near IAH.  The shuttle arrived quickly to get to the hotel and check in was easy.  The room was kind of dirty and the sheets were scratchy and uncomfortable to sleep in.  I had a 530a flight leaving IAH the next morning and inquired about a hotel shuttle and was informed that it does not start running until 5am.  I was okay with this so I asked the person at the front desk to book me a cab for 4am.  I received a call to my room at 330am informing me the cab was there and wouldn't wait for me and they were unable to boom another cab.  When I got in the cab, and already driving to the airport, I noticed the driver was not using the meter and asked him "why?". He informed me that it is a $20 flat fee, as they don't meter so early in the morning and the hotel should have told me, which they did not and it was only 5 min drive which should not have been more than $10. After I got out of the cab I took the license plate number and called the city of Houston and the city of Humble (where the hotel is) and was told that car was not a registered taxi in those cities.  This...I had an unexpected overnight at IAH due to a delayed flight and was booked at the Holiday Inn Express near IAH.  The shuttle arrived quickly to get to the hotel and check in was easy.  The room was kind of dirty and the sheets were scratchy and uncomfortable to sleep in.  I had a 530a flight leaving IAH the next morning and inquired about a hotel shuttle and was informed that it does not start running until 5am.  I was okay with this so I asked the person at the front desk to book me a cab for 4am.  I received a call to my room at 330am informing me the cab was there and wouldn't wait for me and they were unable to boom another cab.  When I got in the cab, and already driving to the airport, I noticed the driver was not using the meter and asked him "why?". He informed me that it is a $20 flat fee, as they don't meter so early in the morning and the hotel should have told me, which they did not and it was only 5 min drive which should not have been more than $10. After I got out of the cab I took the license plate number and called the city of Houston and the city of Humble (where the hotel is) and was told that car was not a registered taxi in those cities.  This is why I am giving this hotel a 1 star review, it would have been 3 if not for this taxi incident.  I expect a hotel to book a taxi company that is registered and uses a meter.  When a hotel books me an unlicensed taxi that takes advantage of me by overcharging me and not metering (which is a violation of the law) I will never stay at this hotel again and don't think anyone else should either.  I am not normally one to give a 1 star review but because of the shady taxi company they booked me I will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>I had an unexpected overnight at IAH due to a delayed flight and was booked at the Holiday Inn Express near IAH.  The shuttle arrived quickly to get to the hotel and check in was easy.  The room was kind of dirty and the sheets were scratchy and uncomfortable to sleep in.  I had a 530a flight leaving IAH the next morning and inquired about a hotel shuttle and was informed that it does not start running until 5am.  I was okay with this so I asked the person at the front desk to book me a cab for 4am.  I received a call to my room at 330am informing me the cab was there and wouldn't wait for me and they were unable to boom another cab.  When I got in the cab, and already driving to the airport, I noticed the driver was not using the meter and asked him "why?". He informed me that it is a $20 flat fee, as they don't meter so early in the morning and the hotel should have told me, which they did not and it was only 5 min drive which should not have been more than $10. After I got out of the cab I took the license plate number and called the city of Houston and the city of Humble (where the hotel is) and was told that car was not a registered taxi in those cities.  This...I had an unexpected overnight at IAH due to a delayed flight and was booked at the Holiday Inn Express near IAH.  The shuttle arrived quickly to get to the hotel and check in was easy.  The room was kind of dirty and the sheets were scratchy and uncomfortable to sleep in.  I had a 530a flight leaving IAH the next morning and inquired about a hotel shuttle and was informed that it does not start running until 5am.  I was okay with this so I asked the person at the front desk to book me a cab for 4am.  I received a call to my room at 330am informing me the cab was there and wouldn't wait for me and they were unable to boom another cab.  When I got in the cab, and already driving to the airport, I noticed the driver was not using the meter and asked him "why?". He informed me that it is a $20 flat fee, as they don't meter so early in the morning and the hotel should have told me, which they did not and it was only 5 min drive which should not have been more than $10. After I got out of the cab I took the license plate number and called the city of Houston and the city of Humble (where the hotel is) and was told that car was not a registered taxi in those cities.  This is why I am giving this hotel a 1 star review, it would have been 3 if not for this taxi incident.  I expect a hotel to book a taxi company that is registered and uses a meter.  When a hotel books me an unlicensed taxi that takes advantage of me by overcharging me and not metering (which is a violation of the law) I will never stay at this hotel again and don't think anyone else should either.  I am not normally one to give a 1 star review but because of the shady taxi company they booked me I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r365229669-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>365229669</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Front desk service to be desired</t>
+  </si>
+  <si>
+    <t>If you are looking for poor customer service at the front desk - this is the hotel for you. This is an example of bad hotel service when booking through a third party. As for the hotel room - old and tired. Not worth what you pay for. The couch in the room looked like something you'd find at the side of the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>If you are looking for poor customer service at the front desk - this is the hotel for you. This is an example of bad hotel service when booking through a third party. As for the hotel room - old and tired. Not worth what you pay for. The couch in the room looked like something you'd find at the side of the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r350141562-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>350141562</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Close to Hospital for unexpected stay</t>
+  </si>
+  <si>
+    <t>Clean room, great service, breakfast included and great variety, very kind staff. We had a medical emergency and found this hotel within walking distance to the Hospital. Great shuttle service thanks Aaron and Chi friendly and kind. Jackie at reception was very caring, and entire staff friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Clean room, great service, breakfast included and great variety, very kind staff. We had a medical emergency and found this hotel within walking distance to the Hospital. Great shuttle service thanks Aaron and Chi friendly and kind. Jackie at reception was very caring, and entire staff friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r348594558-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>348594558</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Below average. 🙁</t>
+  </si>
+  <si>
+    <t>First I was left to wait an hour at the airport waiting for their shuttle bus to show up.  I realize I am not the only person but Hilton, Marriott and Hyatt hell even best western shuttle buses passed by 4 time in the hour I waited for Holiday Inn to show up so should have stayed at Hilton with their bus passing every 15 minutes.  Tread mills in the fitness center are really old and some super cheap version. The hotel is old and dirty I wouldn't even sit on the sofa or chair in my room it looked like grandmas old worn out furniture that had been in the basement for the dogs to sleep on for years.  I would not recommend this hotel it is very unprofessional and dirty in my opinion. MoreShow less</t>
+  </si>
+  <si>
+    <t>First I was left to wait an hour at the airport waiting for their shuttle bus to show up.  I realize I am not the only person but Hilton, Marriott and Hyatt hell even best western shuttle buses passed by 4 time in the hour I waited for Holiday Inn to show up so should have stayed at Hilton with their bus passing every 15 minutes.  Tread mills in the fitness center are really old and some super cheap version. The hotel is old and dirty I wouldn't even sit on the sofa or chair in my room it looked like grandmas old worn out furniture that had been in the basement for the dogs to sleep on for years.  I would not recommend this hotel it is very unprofessional and dirty in my opinion. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r323480586-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>323480586</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Great airport location, clean rooms</t>
+  </si>
+  <si>
+    <t>I checked in later here last night to be close to the airport for an early morning flight. All of my keys and documents were ready when I arrived and I was shown to my room immediately. The room was very clean, though the air freshener was a little overwhelming. The room had a nice sitting area separate of the bedroom, and had a tv in both areas. Would recommend this for anyone wishing to stay close to Bush International Airport. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>I checked in later here last night to be close to the airport for an early morning flight. All of my keys and documents were ready when I arrived and I was shown to my room immediately. The room was very clean, though the air freshener was a little overwhelming. The room had a nice sitting area separate of the bedroom, and had a tv in both areas. Would recommend this for anyone wishing to stay close to Bush International Airport. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r316970128-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>316970128</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Nothing bad, nothing great</t>
+  </si>
+  <si>
+    <t>Had a 24hr layover in Houston and stayed here. Pretty average hotel, no real problems and nothing that stood out as being amazing. Free shuttle to and from airport which was nice. Free wifi but not free breakfast. Shuttle will take you to a near by Walmart which we didn't know until the morning we left.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sagar P, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Had a 24hr layover in Houston and stayed here. Pretty average hotel, no real problems and nothing that stood out as being amazing. Free shuttle to and from airport which was nice. Free wifi but not free breakfast. Shuttle will take you to a near by Walmart which we didn't know until the morning we left.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r307184358-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>307184358</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Cozy hotel</t>
+  </si>
+  <si>
+    <t>Near IAH, fair room rate &amp; good &amp; warm service. Clean environment &amp; family style decoration! I addition, it's suite! Hot water 24 hours! And so on...by the way, in lath lobby, refreshment food available for sale, good for midnight moment!Pick up service quickly provided when you made a call!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Near IAH, fair room rate &amp; good &amp; warm service. Clean environment &amp; family style decoration! I addition, it's suite! Hot water 24 hours! And so on...by the way, in lath lobby, refreshment food available for sale, good for midnight moment!Pick up service quickly provided when you made a call!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r287178236-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>287178236</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>worse than most Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I generally really like Holiday Inn Express, but this one needs a lot of help.  It is undergoing construction, which is desperately needed given its run down appearance.  Still, they should warn you of this when booking.A hotel really only needs to do two things for me: 1) check me in efficiently after arriving on a long flight, and 2) give me a comfortable room to sleep in.  This hotel failed on both fronts.  We arrived after midnight, but I was still shocked to hear that "their computers are down for maintenance every evening" so they couldn't access my club number or reservation details.  They proceeded to check us into a room with two double beds, despite specifically reserving a king bed.  The room was grubby.  Overall, not a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded July 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2015</t>
+  </si>
+  <si>
+    <t>I generally really like Holiday Inn Express, but this one needs a lot of help.  It is undergoing construction, which is desperately needed given its run down appearance.  Still, they should warn you of this when booking.A hotel really only needs to do two things for me: 1) check me in efficiently after arriving on a long flight, and 2) give me a comfortable room to sleep in.  This hotel failed on both fronts.  We arrived after midnight, but I was still shocked to hear that "their computers are down for maintenance every evening" so they couldn't access my club number or reservation details.  They proceeded to check us into a room with two double beds, despite specifically reserving a king bed.  The room was grubby.  Overall, not a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r267705791-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>267705791</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Best place with the BEST PEOPLE</t>
+  </si>
+  <si>
+    <t>Due to business, my schedule was changed and I was left scrambling to change flights, cars and somehow forgot to find a Hotel!!! The holiday Inn Express by IAH not only found me a room but did so with EXCELLENT customer service and grace. the next morning the ladies at the desk greeted me with the warmest and kindest words. so, if you are looking for a Hotel that makes you feel valued and welcome and appreciated. Stay at the Holiday Inn Express by George Bush International Airport - you will not be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Due to business, my schedule was changed and I was left scrambling to change flights, cars and somehow forgot to find a Hotel!!! The holiday Inn Express by IAH not only found me a room but did so with EXCELLENT customer service and grace. the next morning the ladies at the desk greeted me with the warmest and kindest words. so, if you are looking for a Hotel that makes you feel valued and welcome and appreciated. Stay at the Holiday Inn Express by George Bush International Airport - you will not be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r266670645-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>266670645</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Super staff, super shuttle, very reliable</t>
+  </si>
+  <si>
+    <t>This place has the basics covered very well. Friendly helpful staff, quiet rooms with separate sleeping area and TV area. Goog shower and very prompt and friendly shuttle to the airport. A comfortable place in a wacky city.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place has the basics covered very well. Friendly helpful staff, quiet rooms with separate sleeping area and TV area. Goog shower and very prompt and friendly shuttle to the airport. A comfortable place in a wacky city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r261363284-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>261363284</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Did the trick, close to airport</t>
+  </si>
+  <si>
+    <t>First of all the night manager Oscar was truly a pro. He handle our group with professionalism and efficiency. The room was a great suite to get a short nights sleep before onward travel. Clean and quiet with amenities near by. If you need to bed down for a lay over this is the place MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>First of all the night manager Oscar was truly a pro. He handle our group with professionalism and efficiency. The room was a great suite to get a short nights sleep before onward travel. Clean and quiet with amenities near by. If you need to bed down for a lay over this is the place More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r260753257-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>260753257</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Worst staff ruined the Hotel</t>
+  </si>
+  <si>
+    <t>Flight was delayed two hours more than expected.   Hotel was reserved in advance via IHG official website.   Arrived to Houston – Terminal C, used the hotels advertising booth to call to hotel for picking up service.  A  MPV and a friendly driver came to pick us up within ten minutes times.  Arrived to hotel around 23:15hrs.  Met a male receptionist, OSCAR, check-in smoothly and went to our room.  As late arrival and catch early flight need to back to airport at 05:30hrs so no dining outside and just bought some snacks as late supper at Hotel kiosk.   A mini-cup of noodle at USD3.00 and a chocolate cookie cake with ice-cream of USD3.00.   
+Checked with OSCAR early shuttle bus will depart from hotel in half hour service basis so booked at 05:30hrs.   OSCAR said he will simply prepared two breakfast bags for us to bring to airport, his words is much appreciated and helpful for us.
+We went down to lobby to meet OSCAR; he said the shuttle bus was driven away.   Watched the CCTV screen, there was a time was marked there, it was 05:29:xxhrs.  It was really not our fault, how he order the driver drove away the shuttle???     Then he called the driver back.   In the meantime, a local female guest walk-in to hotel for room, USD169.99 was quoted and accepted.   I am waiting at lobby till he completion his job as I want to get my two...Flight was delayed two hours more than expected.   Hotel was reserved in advance via IHG official website.   Arrived to Houston – Terminal C, used the hotels advertising booth to call to hotel for picking up service.  A  MPV and a friendly driver came to pick us up within ten minutes times.  Arrived to hotel around 23:15hrs.  Met a male receptionist, OSCAR, check-in smoothly and went to our room.  As late arrival and catch early flight need to back to airport at 05:30hrs so no dining outside and just bought some snacks as late supper at Hotel kiosk.   A mini-cup of noodle at USD3.00 and a chocolate cookie cake with ice-cream of USD3.00.   Checked with OSCAR early shuttle bus will depart from hotel in half hour service basis so booked at 05:30hrs.   OSCAR said he will simply prepared two breakfast bags for us to bring to airport, his words is much appreciated and helpful for us.We went down to lobby to meet OSCAR; he said the shuttle bus was driven away.   Watched the CCTV screen, there was a time was marked there, it was 05:29:xxhrs.  It was really not our fault, how he order the driver drove away the shuttle???     Then he called the driver back.   In the meantime, a local female guest walk-in to hotel for room, USD169.99 was quoted and accepted.   I am waiting at lobby till he completion his job as I want to get my two breakfast bags to airport prior our departure.   Approached, OSCAR to get the bags, told that he was busy not and the bags had not been prepared.   Tried went to dining area, the coffee / tea pots (total 4) were empty so back to lobby and the driver was came then we left.It should not be happened at IHG group hotel !!   It was word of promise to customers from staff.   His firstly kindness ruin the reputation of IHG Hotel.   We arrived from 23:15hrs till 05:30hrs, there was enough time for prepared those if HE really to keep his words to customers.   Just a cup of coffee / tea bag with hot water or can of orange juice, boiled eggs, two cups of yogurt from lobby fridge, apple/banana or muffin, it was highly remarkable but he DID NOT.   USD170 for him was much importance than us, he might got commission or award for the additional booking granted to hotel.Back to hotel facilities, room is clean and tidy. Room with microwave and fridge set up but no culinary there.   No shaver, no tooth brush/paste, slippers were provided.   Business center is well equipped with two computers and printer there, next to hallway reception area.  Internet connection is in order.  Super 8 Inn &amp; Baymount Suite are nearby, lot of choice in that area.  Stayed at Baymount inn before 2013, outside dining selection is better and convenience than this property.    Please really think about the price and service for selection in future!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded April 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2015</t>
+  </si>
+  <si>
+    <t>Flight was delayed two hours more than expected.   Hotel was reserved in advance via IHG official website.   Arrived to Houston – Terminal C, used the hotels advertising booth to call to hotel for picking up service.  A  MPV and a friendly driver came to pick us up within ten minutes times.  Arrived to hotel around 23:15hrs.  Met a male receptionist, OSCAR, check-in smoothly and went to our room.  As late arrival and catch early flight need to back to airport at 05:30hrs so no dining outside and just bought some snacks as late supper at Hotel kiosk.   A mini-cup of noodle at USD3.00 and a chocolate cookie cake with ice-cream of USD3.00.   
+Checked with OSCAR early shuttle bus will depart from hotel in half hour service basis so booked at 05:30hrs.   OSCAR said he will simply prepared two breakfast bags for us to bring to airport, his words is much appreciated and helpful for us.
+We went down to lobby to meet OSCAR; he said the shuttle bus was driven away.   Watched the CCTV screen, there was a time was marked there, it was 05:29:xxhrs.  It was really not our fault, how he order the driver drove away the shuttle???     Then he called the driver back.   In the meantime, a local female guest walk-in to hotel for room, USD169.99 was quoted and accepted.   I am waiting at lobby till he completion his job as I want to get my two...Flight was delayed two hours more than expected.   Hotel was reserved in advance via IHG official website.   Arrived to Houston – Terminal C, used the hotels advertising booth to call to hotel for picking up service.  A  MPV and a friendly driver came to pick us up within ten minutes times.  Arrived to hotel around 23:15hrs.  Met a male receptionist, OSCAR, check-in smoothly and went to our room.  As late arrival and catch early flight need to back to airport at 05:30hrs so no dining outside and just bought some snacks as late supper at Hotel kiosk.   A mini-cup of noodle at USD3.00 and a chocolate cookie cake with ice-cream of USD3.00.   Checked with OSCAR early shuttle bus will depart from hotel in half hour service basis so booked at 05:30hrs.   OSCAR said he will simply prepared two breakfast bags for us to bring to airport, his words is much appreciated and helpful for us.We went down to lobby to meet OSCAR; he said the shuttle bus was driven away.   Watched the CCTV screen, there was a time was marked there, it was 05:29:xxhrs.  It was really not our fault, how he order the driver drove away the shuttle???     Then he called the driver back.   In the meantime, a local female guest walk-in to hotel for room, USD169.99 was quoted and accepted.   I am waiting at lobby till he completion his job as I want to get my two breakfast bags to airport prior our departure.   Approached, OSCAR to get the bags, told that he was busy not and the bags had not been prepared.   Tried went to dining area, the coffee / tea pots (total 4) were empty so back to lobby and the driver was came then we left.It should not be happened at IHG group hotel !!   It was word of promise to customers from staff.   His firstly kindness ruin the reputation of IHG Hotel.   We arrived from 23:15hrs till 05:30hrs, there was enough time for prepared those if HE really to keep his words to customers.   Just a cup of coffee / tea bag with hot water or can of orange juice, boiled eggs, two cups of yogurt from lobby fridge, apple/banana or muffin, it was highly remarkable but he DID NOT.   USD170 for him was much importance than us, he might got commission or award for the additional booking granted to hotel.Back to hotel facilities, room is clean and tidy. Room with microwave and fridge set up but no culinary there.   No shaver, no tooth brush/paste, slippers were provided.   Business center is well equipped with two computers and printer there, next to hallway reception area.  Internet connection is in order.  Super 8 Inn &amp; Baymount Suite are nearby, lot of choice in that area.  Stayed at Baymount inn before 2013, outside dining selection is better and convenience than this property.    Please really think about the price and service for selection in future!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r257379528-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>257379528</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Great staff ... Very outdated</t>
+  </si>
+  <si>
+    <t>The staff were friendly, quick to help, and almost make up for the poor accommodations. Shuttle was quick and convenient. Room is VERY outdated and though not outright dirty just felt a little gross. Invest in your hotel and you have a winner!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>The staff were friendly, quick to help, and almost make up for the poor accommodations. Shuttle was quick and convenient. Room is VERY outdated and though not outright dirty just felt a little gross. Invest in your hotel and you have a winner!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r251330184-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>251330184</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>My wife and I were on a flight back home when the flight attendant announced that the plane was over weight and requested 9 of us to unload and take another flight tomorrow. We are not in any hurry so off we went on another adventure. The airline put us up for the night and we were to go to this Holiday Inn. The local shuttle that was to pick us up never came so after waiting 30 minutes we called the hotel and Crystal answered the phone and said she would send the hotels personal shuttle and the driver Arron would be about 10 minutes. He showed up right on time and was a gem of a person. He took us to the hotel and Crystal checked us in and made us feel right at home. We needed a cocktail by now so Crystal had Arron take us to the store at no charge, for supplies. Our flight did not leave until 6PM the next day so Crystal gave us an extended check out at 2PM so we did not have to sit at the airport all day. I cannot say enough good things about this hotel and the staff. Thank You again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My wife and I were on a flight back home when the flight attendant announced that the plane was over weight and requested 9 of us to unload and take another flight tomorrow. We are not in any hurry so off we went on another adventure. The airline put us up for the night and we were to go to this Holiday Inn. The local shuttle that was to pick us up never came so after waiting 30 minutes we called the hotel and Crystal answered the phone and said she would send the hotels personal shuttle and the driver Arron would be about 10 minutes. He showed up right on time and was a gem of a person. He took us to the hotel and Crystal checked us in and made us feel right at home. We needed a cocktail by now so Crystal had Arron take us to the store at no charge, for supplies. Our flight did not leave until 6PM the next day so Crystal gave us an extended check out at 2PM so we did not have to sit at the airport all day. I cannot say enough good things about this hotel and the staff. Thank You again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r248833383-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>248833383</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Needs up dating/repairs but great staff</t>
+  </si>
+  <si>
+    <t>The owner is a not so good fix it man. Any upkeep looks like it was done by a rookie with notice in his work. Having said that the room was spotless.  We were picked up at the airport with their shuttle driven by Aaron and he is a great asset to the hotel. He offered to drive us out for dinner and pick us up later. This offer blew us away. Crystal at the front desk was warm and welcoming and couldn't do enough for us.  The bed was comfortable and the room quiet and very spacious with a separate sleeping area. We were very comfortable. My suggestion is overlook the physical conditional of the building and keep in mind you will get a clean comfortable room and have the nicest people to speak with.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>The owner is a not so good fix it man. Any upkeep looks like it was done by a rookie with notice in his work. Having said that the room was spotless.  We were picked up at the airport with their shuttle driven by Aaron and he is a great asset to the hotel. He offered to drive us out for dinner and pick us up later. This offer blew us away. Crystal at the front desk was warm and welcoming and couldn't do enough for us.  The bed was comfortable and the room quiet and very spacious with a separate sleeping area. We were very comfortable. My suggestion is overlook the physical conditional of the building and keep in mind you will get a clean comfortable room and have the nicest people to speak with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r248463238-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>248463238</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>In need of updating and repair</t>
+  </si>
+  <si>
+    <t>I stayed at this location while waiting for an early morning flight out of Houston in January 2015. I've stayed at many IHG (Holiday Inn chain) hotels over the past few years and this one ranks near the bottom. The room we had was very outdated with old flooring, older furniture and bathroom fixtures that were literally falling apart. There are better choices near Houston Intercontinental Airport to stay at. I wouldn't recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded January 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this location while waiting for an early morning flight out of Houston in January 2015. I've stayed at many IHG (Holiday Inn chain) hotels over the past few years and this one ranks near the bottom. The room we had was very outdated with old flooring, older furniture and bathroom fixtures that were literally falling apart. There are better choices near Houston Intercontinental Airport to stay at. I wouldn't recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r241894314-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>241894314</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>Great value for a night or two!</t>
+  </si>
+  <si>
+    <t>We always stay in this hotel when we do a stop-over in Houston.  This is our second time to stay in this hotel.It is a very good value.  Good clean rooms and friendly staff.  Shuttle service is prompt and courteous.  Close to restaurants and IAH airport.Bathroom fixtures do need some repair work. Otherwise, this is a very good value for a short stay.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r239067095-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>239067095</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>Service by heart</t>
+  </si>
+  <si>
+    <t>I just rejected by the other Holliday Inn hotel and this hotel, due to have no reservation who made before. I help by Maira, Front Desk Officer. She handle my with patient. She knows that I am confused. She called all resources to ensure my reservation. Finally, it's misunderstood. I have been booked at Holliday Inn near by Hobby airport. Then, I cancel the previous one and stay here.Maira handled me with excellent services. I called service by heart.Thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r238302004-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>238302004</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Consistent excellent service and property</t>
+  </si>
+  <si>
+    <t>Located 10 mins drive from the airport. We booked this hotel an hour before on website as missed our flight. The hotel shuttle arrived within 10mins as promised at the airport and the driver was v helpful and friendly. The hotel as always maintains its standard, very clean property, front desk staff friendly as expected and complimentary tea/coffee is provided in the lobby area with nice seating overlooking outdoor pool. The hotel provides complimentary breakfast and parking for the guests. It feels safe to go out for a short walk and there is couple of restaurants and a gas station next door, the hotel also sells basic snacks at a reasonable cost inc ice cream.The room was clean and hygienic with a lounge and tea/coffee facilities. The bathroom has basic amenities and a powerful shower. The mattress could be a bit better as we felt we were rolling in the middle due to a dip in the middle of the mattress.HIE is our first priority and we would recommend this company.MoreShow less</t>
+  </si>
+  <si>
+    <t>Located 10 mins drive from the airport. We booked this hotel an hour before on website as missed our flight. The hotel shuttle arrived within 10mins as promised at the airport and the driver was v helpful and friendly. The hotel as always maintains its standard, very clean property, front desk staff friendly as expected and complimentary tea/coffee is provided in the lobby area with nice seating overlooking outdoor pool. The hotel provides complimentary breakfast and parking for the guests. It feels safe to go out for a short walk and there is couple of restaurants and a gas station next door, the hotel also sells basic snacks at a reasonable cost inc ice cream.The room was clean and hygienic with a lounge and tea/coffee facilities. The bathroom has basic amenities and a powerful shower. The mattress could be a bit better as we felt we were rolling in the middle due to a dip in the middle of the mattress.HIE is our first priority and we would recommend this company.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r232477319-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>232477319</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Staff was really nice. I appreciated the $1.00 washer and dryers!! Airport shuttle was partnership with local Rocket Parking company and worked great. I would definitely stay here again as the close proximity to IAH makes early flights manageable.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r230633632-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>230633632</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly welcoming staff.  Shuttle was prompt and driver helpful and courteous. Room was large clean and well maintained. Bed was a welcomed comfort after two weeks in Europe. Great place for an overnight when traveling with an overnight layover. </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r230071444-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>230071444</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Hotel nor IHG resolving a 1 night overcharge after booking error!!!</t>
+  </si>
+  <si>
+    <t>Be warned - l arrived at this hotel to stay nights 04Aug &amp; 05Aug on two separate reservations as I didn't know what flight I'd be on. On arrival Reception staff could only find my first night and not the second in their reservation system, despite me having an IHG confirmation number for both nights! They modified my first reservation to include the second night with no problem but when I get back to the UK I find I've been charged for the two night stay AND for no showing on the reservation they couldn't find!!!!!!!!!!!!!!!!!!!!
+Getting anyone to understand this when you get back from your vacation is a nightmare : Have emailed ALL documents to support my complaint to the hotel directly using the email address on their web page (and verified by IHG Customer Care Team) and received bounce backs as it doesn't exist!!!!!! IHG Customer Care Team are also very poor as when they finally came back to me they told me I no showed and any further communication on the subject should be directed to the hotel directly --- is that what you call customer care???? (I'm only a poor rewards member!).
+Basically I'm £88 pounds out of pocket for an IHG/hotel error and I'M told to phone the hotel directly to take up my issue -- UK calls to the US when I'm the customer(!!!!!!) by the time I've explained the issue, I'll be...Be warned - l arrived at this hotel to stay nights 04Aug &amp; 05Aug on two separate reservations as I didn't know what flight I'd be on. On arrival Reception staff could only find my first night and not the second in their reservation system, despite me having an IHG confirmation number for both nights! They modified my first reservation to include the second night with no problem but when I get back to the UK I find I've been charged for the two night stay AND for no showing on the reservation they couldn't find!!!!!!!!!!!!!!!!!!!!Getting anyone to understand this when you get back from your vacation is a nightmare : Have emailed ALL documents to support my complaint to the hotel directly using the email address on their web page (and verified by IHG Customer Care Team) and received bounce backs as it doesn't exist!!!!!! IHG Customer Care Team are also very poor as when they finally came back to me they told me I no showed and any further communication on the subject should be directed to the hotel directly --- is that what you call customer care???? (I'm only a poor rewards member!).Basically I'm £88 pounds out of pocket for an IHG/hotel error and I'M told to phone the hotel directly to take up my issue -- UK calls to the US when I'm the customer(!!!!!!) by the time I've explained the issue, I'll be even more money out of pocket. I WORK IN THE TRAVEL INDUSTRY AND I'll BE SURE TO TELL EVERYONE ABOUT MY HIEXP INTERCONTINENTAL HUMBLE TX/IHG EXPERIENCE!Unless of course the hotel management would like to contact me or PROVIDE AN EMAIL ADDRESS THAT WORKS!!!!!For travel experience in 2014 - VERY POOR.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Richard V, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Be warned - l arrived at this hotel to stay nights 04Aug &amp; 05Aug on two separate reservations as I didn't know what flight I'd be on. On arrival Reception staff could only find my first night and not the second in their reservation system, despite me having an IHG confirmation number for both nights! They modified my first reservation to include the second night with no problem but when I get back to the UK I find I've been charged for the two night stay AND for no showing on the reservation they couldn't find!!!!!!!!!!!!!!!!!!!!
+Getting anyone to understand this when you get back from your vacation is a nightmare : Have emailed ALL documents to support my complaint to the hotel directly using the email address on their web page (and verified by IHG Customer Care Team) and received bounce backs as it doesn't exist!!!!!! IHG Customer Care Team are also very poor as when they finally came back to me they told me I no showed and any further communication on the subject should be directed to the hotel directly --- is that what you call customer care???? (I'm only a poor rewards member!).
+Basically I'm £88 pounds out of pocket for an IHG/hotel error and I'M told to phone the hotel directly to take up my issue -- UK calls to the US when I'm the customer(!!!!!!) by the time I've explained the issue, I'll be...Be warned - l arrived at this hotel to stay nights 04Aug &amp; 05Aug on two separate reservations as I didn't know what flight I'd be on. On arrival Reception staff could only find my first night and not the second in their reservation system, despite me having an IHG confirmation number for both nights! They modified my first reservation to include the second night with no problem but when I get back to the UK I find I've been charged for the two night stay AND for no showing on the reservation they couldn't find!!!!!!!!!!!!!!!!!!!!Getting anyone to understand this when you get back from your vacation is a nightmare : Have emailed ALL documents to support my complaint to the hotel directly using the email address on their web page (and verified by IHG Customer Care Team) and received bounce backs as it doesn't exist!!!!!! IHG Customer Care Team are also very poor as when they finally came back to me they told me I no showed and any further communication on the subject should be directed to the hotel directly --- is that what you call customer care???? (I'm only a poor rewards member!).Basically I'm £88 pounds out of pocket for an IHG/hotel error and I'M told to phone the hotel directly to take up my issue -- UK calls to the US when I'm the customer(!!!!!!) by the time I've explained the issue, I'll be even more money out of pocket. I WORK IN THE TRAVEL INDUSTRY AND I'll BE SURE TO TELL EVERYONE ABOUT MY HIEXP INTERCONTINENTAL HUMBLE TX/IHG EXPERIENCE!Unless of course the hotel management would like to contact me or PROVIDE AN EMAIL ADDRESS THAT WORKS!!!!!For travel experience in 2014 - VERY POOR.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r228180861-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>228180861</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Amazing Staff!!!</t>
+  </si>
+  <si>
+    <t>I just spent five nights at the Holiday Inn Express and I must say that I was impressed.  I was working those five days at IAH and having shuttle service was imperative.  I chose the hotel as it was recommended by one of my coworkers.  The room was spotless, the bed comfy, the breakfast offered selections from healthy to comfort food and it was quiet so I could concentrate on work.  But it was the STAFF that rocked my working world.  Mayra helped before my arrival with assuring that my packages were there.  Chris checked me in quickly so I could get back to the airport.  Eric picked me up every night with his sweet personality and shame on me for not remembering the lovely girls' name that hosted breakfast.  I actually started referring to this place as home!  They accommodated my every need with speed, patience and a smile.  I also met the owner during my stay and I wish to send him a special thank you.  Not only for your thoughtfulness but because no hotel has a wonderful staff without the guidance of a conscientious owner.  See you the next time!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I just spent five nights at the Holiday Inn Express and I must say that I was impressed.  I was working those five days at IAH and having shuttle service was imperative.  I chose the hotel as it was recommended by one of my coworkers.  The room was spotless, the bed comfy, the breakfast offered selections from healthy to comfort food and it was quiet so I could concentrate on work.  But it was the STAFF that rocked my working world.  Mayra helped before my arrival with assuring that my packages were there.  Chris checked me in quickly so I could get back to the airport.  Eric picked me up every night with his sweet personality and shame on me for not remembering the lovely girls' name that hosted breakfast.  I actually started referring to this place as home!  They accommodated my every need with speed, patience and a smile.  I also met the owner during my stay and I wish to send him a special thank you.  Not only for your thoughtfulness but because no hotel has a wonderful staff without the guidance of a conscientious owner.  See you the next time!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r223385899-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>223385899</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I travel approximately 50 percent of the time and stay exclusively at IHG hotels.  First, let me say that when I am paying 160+ per night for a room, I expect a few things:  It is clean, there are bathroom supplies for my hair/soap/etc, and there is coffee downstairs in the morning.  I am currently on my Day 2 here with no hair conditioner, unvacuumed floor in my room, dirty coffee table and counters, no lids for coffee cups and today...at 8am...no coffee.  I finally spoke with the manager this morning, and he is addressing the issues, but when I am paying this kind of money to stay in Houston Texas (and I can stay at Crowne Plaza in Boston for $89!), I DO NOT expect to have ANY of these concerns.  I will not return to this hotel in the future.  I will go to the JFK Blvd location....I stayed there previously with no issues.The people here are nice... But I am paying for a quality place all around... if the place is dirty or lacking in quality, you won't find me there again.   MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>I travel approximately 50 percent of the time and stay exclusively at IHG hotels.  First, let me say that when I am paying 160+ per night for a room, I expect a few things:  It is clean, there are bathroom supplies for my hair/soap/etc, and there is coffee downstairs in the morning.  I am currently on my Day 2 here with no hair conditioner, unvacuumed floor in my room, dirty coffee table and counters, no lids for coffee cups and today...at 8am...no coffee.  I finally spoke with the manager this morning, and he is addressing the issues, but when I am paying this kind of money to stay in Houston Texas (and I can stay at Crowne Plaza in Boston for $89!), I DO NOT expect to have ANY of these concerns.  I will not return to this hotel in the future.  I will go to the JFK Blvd location....I stayed there previously with no issues.The people here are nice... But I am paying for a quality place all around... if the place is dirty or lacking in quality, you won't find me there again.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r221217577-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>221217577</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Terrible! Dirty dirty room!!</t>
+  </si>
+  <si>
+    <t>Avoid this hotel at all. My room was old, but that's not the issue, it was disgusting. The top on the kitchen had old food dryed and crusted, the sheets where yellowish and stained, when I moved the bedroom curtain to close it I found an old key envelope, there was hair in the bathroom, dust in most things bust the worst thing was the carpet. I found: a bead and worst of all A TOE NAIL! I swear I wasn't looking for this stuff, it was lying in the middle of the room. Yuc! Also to disguise the fact that the bed most have sticking springs it has on top a lousy and nasty yellow foam top simulating a "pillow top".  I had a terrible night, there was loud music on near by and the noise came through the window as it wasn't one and the light from the totem sign from the hotel iluminated the room because the courtains didn't close properly. Didn't expect luxury at all but cleanliness should be standard no matter if it's a value price. Expected more given it's a Holiday Inn Express and payed $159 for the night!!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Avoid this hotel at all. My room was old, but that's not the issue, it was disgusting. The top on the kitchen had old food dryed and crusted, the sheets where yellowish and stained, when I moved the bedroom curtain to close it I found an old key envelope, there was hair in the bathroom, dust in most things bust the worst thing was the carpet. I found: a bead and worst of all A TOE NAIL! I swear I wasn't looking for this stuff, it was lying in the middle of the room. Yuc! Also to disguise the fact that the bed most have sticking springs it has on top a lousy and nasty yellow foam top simulating a "pillow top".  I had a terrible night, there was loud music on near by and the noise came through the window as it wasn't one and the light from the totem sign from the hotel iluminated the room because the courtains didn't close properly. Didn't expect luxury at all but cleanliness should be standard no matter if it's a value price. Expected more given it's a Holiday Inn Express and payed $159 for the night!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r219154265-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>219154265</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Not up to par</t>
+  </si>
+  <si>
+    <t>Stayed here for convenience of location. Wasn't the worst place to stay but by no means under the usual standards of Holiday Inn! Carpeting in room were worn and stains on bed spreads.  The worst was the electrical plugs were hanging out of wall without a cover - luckily my kids are old enough for it not to be an issue.  Like it said - stayed for convenience but if I have to be in area again... WILL NOT stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for convenience of location. Wasn't the worst place to stay but by no means under the usual standards of Holiday Inn! Carpeting in room were worn and stains on bed spreads.  The worst was the electrical plugs were hanging out of wall without a cover - luckily my kids are old enough for it not to be an issue.  Like it said - stayed for convenience but if I have to be in area again... WILL NOT stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r218365052-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>218365052</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Perfectly convenient, super friendly staff, very clean &amp; adequate.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for just one night as a lay over on our holiday.  It was close, convenient, very clean, newer and fresh environment and was perfectly adequate for our purposes.  The staff was really nice and friendly. We felt welcomed in a genuine way.The house keeping staff left notes in our room that the duvet covers were freshly cleaned for our stay and I've never experienced this.  It was a nice touch and very thoughtful.  They had a nice hot breakfast included (although we didn't have time to enjoy it) it had enough variety to satisfy a breakfast meal.  Transportation to the airport was included.Bed was comfy, pillows were comfy, my sons cott was very cozy &amp; comfy.  Our quick layover was easy and enjoyable.There was also an outdoor pool and it was opened until 10 pm and several people were using it so I assume it was warm enough and enjoyed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for just one night as a lay over on our holiday.  It was close, convenient, very clean, newer and fresh environment and was perfectly adequate for our purposes.  The staff was really nice and friendly. We felt welcomed in a genuine way.The house keeping staff left notes in our room that the duvet covers were freshly cleaned for our stay and I've never experienced this.  It was a nice touch and very thoughtful.  They had a nice hot breakfast included (although we didn't have time to enjoy it) it had enough variety to satisfy a breakfast meal.  Transportation to the airport was included.Bed was comfy, pillows were comfy, my sons cott was very cozy &amp; comfy.  Our quick layover was easy and enjoyable.There was also an outdoor pool and it was opened until 10 pm and several people were using it so I assume it was warm enough and enjoyed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r217891593-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>217891593</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Efficient, clean, new , good breakfast</t>
+  </si>
+  <si>
+    <t>Stayed one night while in town for the Jr Track Olympics..close to airport, ample parking...friendly helpful staff especially Porsha who was there when we arrived and when we left in the morning.New hotel, clean, well lit ..we arrived late and got up early, filled our ice duffle, fueled up w oatmeal and eggs..coffee and hit the Humble track very close by. Hotel snack shop has the right amount of drinks, snacks and toiletries for sale..staff made it easy for us to add to room. our room and bath were new and clean and really well appointed. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Stayed one night while in town for the Jr Track Olympics..close to airport, ample parking...friendly helpful staff especially Porsha who was there when we arrived and when we left in the morning.New hotel, clean, well lit ..we arrived late and got up early, filled our ice duffle, fueled up w oatmeal and eggs..coffee and hit the Humble track very close by. Hotel snack shop has the right amount of drinks, snacks and toiletries for sale..staff made it easy for us to add to room. our room and bath were new and clean and really well appointed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r210818763-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>210818763</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>OK experience</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 days on business.  Hotel is starting to show its age, but is clean overall.  Rooms were nice, a little dated but comfortable.  Rooms facing Will Clayton Pkwy have some traffic noise. Did not provide mouthwash or conditioner like most other HIE's do.  Breakfast seemed to be restricted as no more than 10 pieces of bacon were out at a time and 1 banana if you were lucky. It appeared they were in "saving" mode no matter what time you showed up.  Juice machine was broken for 2 days.  Overall, not a terrible place. Just a little lower on the scale of what I'd consider a standard HIE experience.  Would I stay here again?  I suppose, as it is convenient to BUSH AP, although may try others north of here that are closer to a better selection of dining options.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Richard V, Front Desk at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 days on business.  Hotel is starting to show its age, but is clean overall.  Rooms were nice, a little dated but comfortable.  Rooms facing Will Clayton Pkwy have some traffic noise. Did not provide mouthwash or conditioner like most other HIE's do.  Breakfast seemed to be restricted as no more than 10 pieces of bacon were out at a time and 1 banana if you were lucky. It appeared they were in "saving" mode no matter what time you showed up.  Juice machine was broken for 2 days.  Overall, not a terrible place. Just a little lower on the scale of what I'd consider a standard HIE experience.  Would I stay here again?  I suppose, as it is convenient to BUSH AP, although may try others north of here that are closer to a better selection of dining options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r205961523-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>205961523</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay for 5 days. Breakfast is good enough for an Express. Wasn't acknowledged as a Platinum Member. Rooms fine but noisy above pool. Very handy for airport 10 mins or $15 taxi away. Towel rail leaning off wall. Key failed 3 times to room 306MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Richard V, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay for 5 days. Breakfast is good enough for an Express. Wasn't acknowledged as a Platinum Member. Rooms fine but noisy above pool. Very handy for airport 10 mins or $15 taxi away. Towel rail leaning off wall. Key failed 3 times to room 306More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r201658824-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>201658824</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Great Airport Hotel</t>
+  </si>
+  <si>
+    <t>Real friendly staff, minutes from airport and great freeway access. Local eateries only but shuttle bus will take you within a few miles. Pool and fitness suite are good and its great to watch the intercontinental aircraft as they head into the skyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Richard V, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Real friendly staff, minutes from airport and great freeway access. Local eateries only but shuttle bus will take you within a few miles. Pool and fitness suite are good and its great to watch the intercontinental aircraft as they head into the skyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r196219582-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>196219582</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>After a horrible day of Travel this was a welcome location</t>
+  </si>
+  <si>
+    <t>Having flown in to Houston-Bush International airport for Mexico I find out that my flight to east coast had been canceled. It was late and my wife and were just looking for a hot shower and a clean, comfortable bed and we found what were looking for at this location. The front desk staff could not have been nicer. They went out of their way to get us in our room as quick as possible. The room was very clean and comfortable. A very welcome site after a very bad day of air travel. The next morning this site had a shuttle that dropped us off right at the door of the airport. This was a convenient location and an overall great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Having flown in to Houston-Bush International airport for Mexico I find out that my flight to east coast had been canceled. It was late and my wife and were just looking for a hot shower and a clean, comfortable bed and we found what were looking for at this location. The front desk staff could not have been nicer. They went out of their way to get us in our room as quick as possible. The room was very clean and comfortable. A very welcome site after a very bad day of air travel. The next morning this site had a shuttle that dropped us off right at the door of the airport. This was a convenient location and an overall great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r196110077-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>196110077</t>
+  </si>
+  <si>
+    <t>Quiet, comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here on our way to Roatan. Arrived in Huston late, made a phone call while on our way to pick up our luggage and the hotel shuttle was there within minutes. The driver Arron(sp?) was a fun, conversive guy and took good care of us.Although an older facility the hotel is well maintained with clean rooms and comfortable beds. We slept well and were taken back to the airport exactly when we needed to be.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r195943932-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>195943932</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>We stay here most times when we fly into Houston.  Very upscale like most of the "Name Brands" for a lot less money.  Treated like family by Kirston &amp; Bobby.  They overheard that my wife was having a birthday and they made a greeting poster for her.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r193562110-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>193562110</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Filthy dirty hole in sheet.</t>
+  </si>
+  <si>
+    <t>This Hotel needs help it is far below the quality I any Holiday inn I have stayed.  I had I hole in my sheet that just made me feel disgusted because it also did not smell fresh. One of the plugs behind the night stand looked like a fire hazard. I could not get my charger to stayed plugged in it would fall out. The shower rod was broken and the curtain kept falling to the center. The buttons on the elevator even needed cleaning…etcMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>This Hotel needs help it is far below the quality I any Holiday inn I have stayed.  I had I hole in my sheet that just made me feel disgusted because it also did not smell fresh. One of the plugs behind the night stand looked like a fire hazard. I could not get my charger to stayed plugged in it would fall out. The shower rod was broken and the curtain kept falling to the center. The buttons on the elevator even needed cleaning…etcMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r192349794-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>192349794</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Ruby, at the front desk was superior in every way!!   She was smiling and joking, such a joy to be around. Thank you Holiday Inn for hiring such an incredible person like Ruby!Blessings, (Robbie) Casey Jones</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r189950591-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>189950591</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>emergency stay turned sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thank you bobby &amp; stefanie for: giving us the last suitesending over your shuttle to a different hotel because United overbooked the La Quinta we were supposed to stay in somehow making the voucher united gave us work to pay for the roomfinding us the only place in Houston that still delivereddealing with my flustered, tired self on the phone, dealing with a day of delayed, canceled planes on the first day of my honeymoon. service is all about what you do for people when they are in a crisis. Definitely hate United, love the service at this hotel! Thank you! And now it's time to sleep. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r171524805-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>171524805</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Near the airport</t>
+  </si>
+  <si>
+    <t>For a one nighter near the airport for an early morning departure, this is a good hotel. I've also stayed here when arriving late so I can start fresh in the morning. Beds are good, the free interweb works and the free breakfast in the morning is not bad..... none of these have good coffee though.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>For a one nighter near the airport for an early morning departure, this is a good hotel. I've also stayed here when arriving late so I can start fresh in the morning. Beds are good, the free interweb works and the free breakfast in the morning is not bad..... none of these have good coffee though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r171115926-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>171115926</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Gaga</t>
+  </si>
+  <si>
+    <t>First time in Humble and we stayed at this Holiday Inn. Was great! Very Nice staff, very clean, nice pool. Grandson LOVED that he could lay in bed watching the planes go by. Loved how it was set up also Had a TV area, hall way then bedrooms. Would and will stay here again. Loved the free popcorn too nothing beats a smile on a grandson's face for a grandmother and we felt VERY safe here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2013</t>
+  </si>
+  <si>
+    <t>First time in Humble and we stayed at this Holiday Inn. Was great! Very Nice staff, very clean, nice pool. Grandson LOVED that he could lay in bed watching the planes go by. Loved how it was set up also Had a TV area, hall way then bedrooms. Would and will stay here again. Loved the free popcorn too nothing beats a smile on a grandson's face for a grandmother and we felt VERY safe here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r165820044-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>165820044</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>When stranded in Houston...</t>
+  </si>
+  <si>
+    <t>Flight delayed.  Forced to stay overnight in Houston and rebooked for an early morning flight next day.  Small dollar voucher provided by airline not sufficient to stay at a "nice hotel" and for the 12 hours I'd be there, wasn't going to spring for a better hotel. It is what it is-a Holiday Inn Express.  No bells and whistles.  Comfortable bed But halls smelled a little of cigarette smoke.   And side of building I Was on had a bright light coming through window that was hard to block out .  A least coffee at 5:30 AM in lobby was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded July 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2013</t>
+  </si>
+  <si>
+    <t>Flight delayed.  Forced to stay overnight in Houston and rebooked for an early morning flight next day.  Small dollar voucher provided by airline not sufficient to stay at a "nice hotel" and for the 12 hours I'd be there, wasn't going to spring for a better hotel. It is what it is-a Holiday Inn Express.  No bells and whistles.  Comfortable bed But halls smelled a little of cigarette smoke.   And side of building I Was on had a bright light coming through window that was hard to block out .  A least coffee at 5:30 AM in lobby was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r164396175-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>164396175</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Not an option for me</t>
+  </si>
+  <si>
+    <t>it is easy for an airport hotel. was not comfortable there. the rooms were not impressive, even though they had a microwave, and small fridge.  The paint was peeling in my room, and it was clear that the older motif was just painted over... you can actually see the old ceiling boarder wall paper, under the coat of paint. not the best in being clean... I would rather drive through houston traffic vs stay at that location again...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>it is easy for an airport hotel. was not comfortable there. the rooms were not impressive, even though they had a microwave, and small fridge.  The paint was peeling in my room, and it was clear that the older motif was just painted over... you can actually see the old ceiling boarder wall paper, under the coat of paint. not the best in being clean... I would rather drive through houston traffic vs stay at that location again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r163906969-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>163906969</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t>This is the second time i have stayed here within a month.  I obviously love it as there are many choices around the airport.  The rooms are huge and very well maintained.  The front desk staff is always willing to help.  Cookies, popcorn and a cold bottle of water await you when you arrive.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2013</t>
+  </si>
+  <si>
+    <t>This is the second time i have stayed here within a month.  I obviously love it as there are many choices around the airport.  The rooms are huge and very well maintained.  The front desk staff is always willing to help.  Cookies, popcorn and a cold bottle of water await you when you arrive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r161767384-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>161767384</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, some of these reviewers talk about a different hotel</t>
+  </si>
+  <si>
+    <t>I stayed 1 night at this hotel which has the most beautiful decor of any HIX I have ever seen around the world. Lovely lobby area, nice paintings- not the typical HIX art work, spotless carpets and walls in the hallway and room. This hotel is either new or newly renovated with mega dollars spent. Breakfast area was beautiful as well and clean, breakfast options typical for HIX. Some of the reviewers have the wrong hotel: there are only 3 floors, there is no row of restaurants nearby, there is no restaurant in the hotel.The woman at the desk in the evening was super helpful and friendly, the hotel van driver likewise.Only negatives I saw were a sofa with a broken leg in my room and a neglected fitness room (equipment needed repair).I wish other hotels in this price range were this beautiful!  If you have to stay a night at the IAH airport, this is the place. I was disgruntled upon arrival due to airline issues, this place cheered me up.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded May 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2013</t>
+  </si>
+  <si>
+    <t>I stayed 1 night at this hotel which has the most beautiful decor of any HIX I have ever seen around the world. Lovely lobby area, nice paintings- not the typical HIX art work, spotless carpets and walls in the hallway and room. This hotel is either new or newly renovated with mega dollars spent. Breakfast area was beautiful as well and clean, breakfast options typical for HIX. Some of the reviewers have the wrong hotel: there are only 3 floors, there is no row of restaurants nearby, there is no restaurant in the hotel.The woman at the desk in the evening was super helpful and friendly, the hotel van driver likewise.Only negatives I saw were a sofa with a broken leg in my room and a neglected fitness room (equipment needed repair).I wish other hotels in this price range were this beautiful!  If you have to stay a night at the IAH airport, this is the place. I was disgruntled upon arrival due to airline issues, this place cheered me up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r149724497-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>149724497</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Not my first choice by the airport</t>
+  </si>
+  <si>
+    <t>Room quality is the main issue here.  It's never a good start when you discover dirty sheets (thankfully, there were two beds), and countless little things in the room that made you feel like the place was worn down. There were small holes in the wallpaper (redecorating gone incomplete?), a refrigerator that looked as if a baseball bat was taken to it, the shower rod was coming out of the wall at both ends, and a nominally working toilet (worse in two other rooms reported by others). Also, the hotel is about 20 minutes from the airport and the small shuttle bus couldn't keep up with demand (get on the early one). The saving grace was the staff who truly seemed to care about the guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Room quality is the main issue here.  It's never a good start when you discover dirty sheets (thankfully, there were two beds), and countless little things in the room that made you feel like the place was worn down. There were small holes in the wallpaper (redecorating gone incomplete?), a refrigerator that looked as if a baseball bat was taken to it, the shower rod was coming out of the wall at both ends, and a nominally working toilet (worse in two other rooms reported by others). Also, the hotel is about 20 minutes from the airport and the small shuttle bus couldn't keep up with demand (get on the early one). The saving grace was the staff who truly seemed to care about the guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r147463458-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>147463458</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>Great Service!!!</t>
+  </si>
+  <si>
+    <t>Front desk staff very very friendly and proffesional, treated every one equally, nothing like the service I received at the other Holiday Inn, I will definately be back to this location!!! Clean rooms, good breakfast, everything was GREAT!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r146976851-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>146976851</t>
+  </si>
+  <si>
+    <t>12/07/2012</t>
+  </si>
+  <si>
+    <t>Do not let United put you in this hotel!!</t>
+  </si>
+  <si>
+    <t>After almost 8 hours waiting for a two weeks old Boeing 787 not to be fixed in George Bush International Airport, United Airlines sent us to the Holiday Inn Express.The rooms are huge, but the smell is not good and the shower dropped the entire night.We ordered a wakeup call at 5am but they forget to make it (fortunately I wake up myself due to jet lag).</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r140275749-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>140275749</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>Meeting space and lobby beautiful</t>
+  </si>
+  <si>
+    <t>Staff is friendly, and the Meeting Space and Lobby are sophisticated and modern looking.Great for a corporate training, or any other small meeting.  I would recommend it to anyone in North Houston, as it is one of the nicer properties, and the staff seems to authentically care about your well being.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>tonelocke, Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Staff is friendly, and the Meeting Space and Lobby are sophisticated and modern looking.Great for a corporate training, or any other small meeting.  I would recommend it to anyone in North Houston, as it is one of the nicer properties, and the staff seems to authentically care about your well being.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r131929094-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>131929094</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>customer service? Uh, no!</t>
+  </si>
+  <si>
+    <t>I was traveling recently and due to weather was told by the airline that when I left FL I would not make my connection in Houston.  I would have to spend the night in Houston.  So I got online to book a room.  Well, as it turned out, I wasn't able to make it out of FL until the next morning and the Holiday Inn Express said that I could NOT cancel my reservation because it was after the 6:00 pm deadline.  My credit card was still charged for an overnight stay that I was unable to make due to circumstances completely out of my control.  I have contacted the manager and still was told that my card would be charged.  I now have to contact corporate headquarters to see if they can help me.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>tonelocke, Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2012</t>
+  </si>
+  <si>
+    <t>I was traveling recently and due to weather was told by the airline that when I left FL I would not make my connection in Houston.  I would have to spend the night in Houston.  So I got online to book a room.  Well, as it turned out, I wasn't able to make it out of FL until the next morning and the Holiday Inn Express said that I could NOT cancel my reservation because it was after the 6:00 pm deadline.  My credit card was still charged for an overnight stay that I was unable to make due to circumstances completely out of my control.  I have contacted the manager and still was told that my card would be charged.  I now have to contact corporate headquarters to see if they can help me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r131904461-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>131904461</t>
+  </si>
+  <si>
+    <t>Stayed twice in two weeks</t>
+  </si>
+  <si>
+    <t>This is where we usually pick to stay when we fly out of IAH.  It's close to the airport, close to parking facilities and we've always had great service.  We stayed here the night before our flight and the night we returned because it was so late.  The rooms are always clean, and we've never had a problem here.  There are some maintenance issues, but nothing major.  We always sleep well here too.  The beds are very comfy!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This is where we usually pick to stay when we fly out of IAH.  It's close to the airport, close to parking facilities and we've always had great service.  We stayed here the night before our flight and the night we returned because it was so late.  The rooms are always clean, and we've never had a problem here.  There are some maintenance issues, but nothing major.  We always sleep well here too.  The beds are very comfy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r126116964-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>126116964</t>
+  </si>
+  <si>
+    <t>03/14/2012</t>
+  </si>
+  <si>
+    <t>Not sure I would stay here again</t>
+  </si>
+  <si>
+    <t>Lobby, elevator, hallways and rooms were not well maintained. I was stuck at the airport and paid $100 for a room that smelled, had broken electrical outlets, broken light switches, and was not clean. The towels were fresh but bed linens were well worn and there was hair and dust all over the room. Breakfast was standard Holiday Inn Express choices and well stocked. Just not a good experience. Believe some of the older more positive reviews are from owners/management. I would call this hotel average at best.MoreShow less</t>
+  </si>
+  <si>
+    <t>tonelocke, Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded April 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2012</t>
+  </si>
+  <si>
+    <t>Lobby, elevator, hallways and rooms were not well maintained. I was stuck at the airport and paid $100 for a room that smelled, had broken electrical outlets, broken light switches, and was not clean. The towels were fresh but bed linens were well worn and there was hair and dust all over the room. Breakfast was standard Holiday Inn Express choices and well stocked. Just not a good experience. Believe some of the older more positive reviews are from owners/management. I would call this hotel average at best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r125895192-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>125895192</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>I was coming home late one night (around 1-2am) and needed to crash somewhere so I didn't fall asleep on the rd. The heavy lady with the tattoo on her chest was extremely rude while I was asking about availability and checking in. The cost was 100 which was more than I wanted to pay but I needed to sleep. The room was nice and clean. The hallway when walking in was littered with old tv's I guess they were getting rid of and replacing w flatscreens. The next day staff was much better. I actually left my watch there and called the the front desk went to find it and held it for me. I would givethem a 5 and the lady a 1 so it averages to a 3 for service. I would not stay here again at this price. I should've used priceline.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was coming home late one night (around 1-2am) and needed to crash somewhere so I didn't fall asleep on the rd. The heavy lady with the tattoo on her chest was extremely rude while I was asking about availability and checking in. The cost was 100 which was more than I wanted to pay but I needed to sleep. The room was nice and clean. The hallway when walking in was littered with old tv's I guess they were getting rid of and replacing w flatscreens. The next day staff was much better. I actually left my watch there and called the the front desk went to find it and held it for me. I would givethem a 5 and the lady a 1 so it averages to a 3 for service. I would not stay here again at this price. I should've used priceline.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r125523036-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>125523036</t>
+  </si>
+  <si>
+    <t>03/02/2012</t>
+  </si>
+  <si>
+    <t>great!</t>
+  </si>
+  <si>
+    <t>i stayed here a a couple of days ago and i found this place to be GREAT!....the housekeeping,front desk,shuttle driver were all very friendly and helpful. another plus is the free breakfast in the morning.i would  recommend this place to all my friends and already booked my next reservation over here!!!!...plus so close to the aiport</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r124980174-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>124980174</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>the other reviews are old.........</t>
+  </si>
+  <si>
+    <t>I stayed at this establishment dispite, them and the experience was memorable....it had living room and bedroom separate...its was clean...the beds were heavenly....the breakfast fabulous....the staff were very friendly and helpful....i thoroughly recommend it...</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r119847769-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>119847769</t>
+  </si>
+  <si>
+    <t>10/28/2011</t>
+  </si>
+  <si>
+    <t>Booked using Priority Points did not check reviews first - big mistake</t>
+  </si>
+  <si>
+    <t>I booked this for one night as we were flying into IAH late and being picked up by friends the next afternoon.  How bad could it be for one night??  Quite bad!  Although the receptionist on the evening and morning shift were helpful and friendly, we were given late check out which helped and free soft drinks and cookies but this did not make up for the lack of sleep after a 18 journey. All I wanted was to check in, have a soak in a bath and go to bed.  We checked in, went to our room which smelt musty and noticed that the toilet cistern was running constantly, we tried to pull the flush again as this can sometimes stop the water running but this did not work (the handle was hanging loose).  I went to reception and told the lady about the problem, she said that she could not move us as they were fully booked that night and that she would have to wait for the driver to return to see if they could fix it.  She asked if it would bother us if it wasn't fixed!  I said it would as I was a light sleeper.  I had asked for a quiet room as I am a light sleeper when booking the room but this was obviously ignored as I booked the room using my points.  When I went back to the room my husband...I booked this for one night as we were flying into IAH late and being picked up by friends the next afternoon.  How bad could it be for one night??  Quite bad!  Although the receptionist on the evening and morning shift were helpful and friendly, we were given late check out which helped and free soft drinks and cookies but this did not make up for the lack of sleep after a 18 journey. All I wanted was to check in, have a soak in a bath and go to bed.  We checked in, went to our room which smelt musty and noticed that the toilet cistern was running constantly, we tried to pull the flush again as this can sometimes stop the water running but this did not work (the handle was hanging loose).  I went to reception and told the lady about the problem, she said that she could not move us as they were fully booked that night and that she would have to wait for the driver to return to see if they could fix it.  She asked if it would bother us if it wasn't fixed!  I said it would as I was a light sleeper.  I had asked for a quiet room as I am a light sleeper when booking the room but this was obviously ignored as I booked the room using my points.  When I went back to the room my husband had just finished repairing the toilet so I went back to report this, I was then offered free soft drinks and snacks, I took some water but refused snacks as we just wanted to sleep.I did have a bath before going to bed, however the room was one with accessible facilities, one of which was a bath seat which was attached to the wall and overhanging the bath, so having a comfortable soak with a bench above my head did not really work; additionally when I filled the bath, fluff appeared on the surface of the water, presumably from the overflow, not sure, but not pleasant.  The bed was comfortable, I think because there was a mattress topper.  Apart from that there was little chance of a decent nights sleep.  Our room was on the ground floor, I could hear people upstairs walking on the creaking floor and slamming doors (it did not appear to be possible to close the bedroom doors without slamming them, we could not easily close ours).  We could not put the air conditioner on in our room because it was so noisy, that obviously did not stop other people from putting theirs on as I could hear units running all night. The windows do not open so it is not possible to let any air into the rooms. Traffic noise went on for most of the night from the busy road outside the hotel, I think it quietened down for around 2 hours and then started up again. Our room overlooked the car park so we also got noise from late arrivals and early departures.Apart from this, as stated by other reviewers this place needs a full revamp, decor is really tired(just as I was when I left this hotel), the furniture and fixings all need replacing/updating.  The rooms are all suites with kitchens which is probably a waste for the majority of clients as I would imagine they are mostly overnight stays pre or post flight so would have no need of this.  Fridge though was great to have, to store cold drinks in.Breakfast was OK we managed to find something to eat from amongst the American food.  Tasty but cold omelettes, they looked awful, preformed possibly frozen, don't know, but flavour good. Bread available for toasting but other food either really sweet or not standard European breakfast fare so didn't attempt it.  Coffee good for hotel coffee and juice out of machine good as well. Guest laundry rooms are handy (well for us as we had late check out probab;y not if you have to check out by 11).Glad we didn't pre book for our return journey next month, I will look for another hotel close to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I booked this for one night as we were flying into IAH late and being picked up by friends the next afternoon.  How bad could it be for one night??  Quite bad!  Although the receptionist on the evening and morning shift were helpful and friendly, we were given late check out which helped and free soft drinks and cookies but this did not make up for the lack of sleep after a 18 journey. All I wanted was to check in, have a soak in a bath and go to bed.  We checked in, went to our room which smelt musty and noticed that the toilet cistern was running constantly, we tried to pull the flush again as this can sometimes stop the water running but this did not work (the handle was hanging loose).  I went to reception and told the lady about the problem, she said that she could not move us as they were fully booked that night and that she would have to wait for the driver to return to see if they could fix it.  She asked if it would bother us if it wasn't fixed!  I said it would as I was a light sleeper.  I had asked for a quiet room as I am a light sleeper when booking the room but this was obviously ignored as I booked the room using my points.  When I went back to the room my husband...I booked this for one night as we were flying into IAH late and being picked up by friends the next afternoon.  How bad could it be for one night??  Quite bad!  Although the receptionist on the evening and morning shift were helpful and friendly, we were given late check out which helped and free soft drinks and cookies but this did not make up for the lack of sleep after a 18 journey. All I wanted was to check in, have a soak in a bath and go to bed.  We checked in, went to our room which smelt musty and noticed that the toilet cistern was running constantly, we tried to pull the flush again as this can sometimes stop the water running but this did not work (the handle was hanging loose).  I went to reception and told the lady about the problem, she said that she could not move us as they were fully booked that night and that she would have to wait for the driver to return to see if they could fix it.  She asked if it would bother us if it wasn't fixed!  I said it would as I was a light sleeper.  I had asked for a quiet room as I am a light sleeper when booking the room but this was obviously ignored as I booked the room using my points.  When I went back to the room my husband had just finished repairing the toilet so I went back to report this, I was then offered free soft drinks and snacks, I took some water but refused snacks as we just wanted to sleep.I did have a bath before going to bed, however the room was one with accessible facilities, one of which was a bath seat which was attached to the wall and overhanging the bath, so having a comfortable soak with a bench above my head did not really work; additionally when I filled the bath, fluff appeared on the surface of the water, presumably from the overflow, not sure, but not pleasant.  The bed was comfortable, I think because there was a mattress topper.  Apart from that there was little chance of a decent nights sleep.  Our room was on the ground floor, I could hear people upstairs walking on the creaking floor and slamming doors (it did not appear to be possible to close the bedroom doors without slamming them, we could not easily close ours).  We could not put the air conditioner on in our room because it was so noisy, that obviously did not stop other people from putting theirs on as I could hear units running all night. The windows do not open so it is not possible to let any air into the rooms. Traffic noise went on for most of the night from the busy road outside the hotel, I think it quietened down for around 2 hours and then started up again. Our room overlooked the car park so we also got noise from late arrivals and early departures.Apart from this, as stated by other reviewers this place needs a full revamp, decor is really tired(just as I was when I left this hotel), the furniture and fixings all need replacing/updating.  The rooms are all suites with kitchens which is probably a waste for the majority of clients as I would imagine they are mostly overnight stays pre or post flight so would have no need of this.  Fridge though was great to have, to store cold drinks in.Breakfast was OK we managed to find something to eat from amongst the American food.  Tasty but cold omelettes, they looked awful, preformed possibly frozen, don't know, but flavour good. Bread available for toasting but other food either really sweet or not standard European breakfast fare so didn't attempt it.  Coffee good for hotel coffee and juice out of machine good as well. Guest laundry rooms are handy (well for us as we had late check out probab;y not if you have to check out by 11).Glad we didn't pre book for our return journey next month, I will look for another hotel close to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r119737746-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>119737746</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>I would rate this place a zero if possible</t>
+  </si>
+  <si>
+    <t>Worst experience both in service and room. Maybe the worst hotel I have ever stayed in.  Teenage girl at desk when I checked in..she was busy gabbing to her friend on the phone and lied to me that she was helping another guest. She was too lazy to try and learn my name so the 18 yo kep calling me honey. The room was nasty; lumpy bed, unclean carpet, tiny bathroom etc. I checked out early to catch a flight. Desk was unattended. I rang bell and woman came out from office...she was all creased from sleeping! Meanwhile front door unlocked :(. She couldnt find my name to check me out..turns out little miss gabby from the nit before had never bothered to check me in. I told her that she should give me night for free...she had the nerve to tell me that I would be charged for a no show.! Problem with this place that it is owned by a person or group of persons and they contract with a management company to run it. The people working there have no supervision or accountability. Avoid this place like the plague.MoreShow less</t>
+  </si>
+  <si>
+    <t>Worst experience both in service and room. Maybe the worst hotel I have ever stayed in.  Teenage girl at desk when I checked in..she was busy gabbing to her friend on the phone and lied to me that she was helping another guest. She was too lazy to try and learn my name so the 18 yo kep calling me honey. The room was nasty; lumpy bed, unclean carpet, tiny bathroom etc. I checked out early to catch a flight. Desk was unattended. I rang bell and woman came out from office...she was all creased from sleeping! Meanwhile front door unlocked :(. She couldnt find my name to check me out..turns out little miss gabby from the nit before had never bothered to check me in. I told her that she should give me night for free...she had the nerve to tell me that I would be charged for a no show.! Problem with this place that it is owned by a person or group of persons and they contract with a management company to run it. The people working there have no supervision or accountability. Avoid this place like the plague.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r116561227-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>116561227</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>one Word Excellent</t>
+  </si>
+  <si>
+    <t>This hotel exceeded expectations and has recently been refurbished and the outcomes were great. The pool is relaxing and breakfast was great. The room was very nice stayed in a 2 queen bed non smoking room was very nice after a 10 hour flight from London.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r116271948-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>116271948</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>NICE PLACE for the price. $86.00 w/out taxes online</t>
+  </si>
+  <si>
+    <t>We were in Houston for an audition for my son. The casting was held there at the hotel, that is why I chose to stay here. The rooms were nice, clean and spacious, the king size bed was comfortable. The breakfast was very good, better than what I had excepted, you had your choice between boiled eggs, scrambled eggs, sausage, biscuits and gravy, cereals, hot pancakes(made fresh), cinammon buns. Three different types of muffins to choose from, toast, bagels, english muffins. Oranges juice, apple juice, cranberry juice, milk, and two differnt types of coffee. I am sure I missed a few things but plenty to choose from. The areas of concern would have to be: the hallways, they were not as clean as they should be, the ice machine on my floor was broke (not a big concern to me since I didn't use it) The pool water didn't smell so good, could have use a little more chlorine. It was nice having a Valero next doors to pick up snacks and drinks, Sonic is within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We were in Houston for an audition for my son. The casting was held there at the hotel, that is why I chose to stay here. The rooms were nice, clean and spacious, the king size bed was comfortable. The breakfast was very good, better than what I had excepted, you had your choice between boiled eggs, scrambled eggs, sausage, biscuits and gravy, cereals, hot pancakes(made fresh), cinammon buns. Three different types of muffins to choose from, toast, bagels, english muffins. Oranges juice, apple juice, cranberry juice, milk, and two differnt types of coffee. I am sure I missed a few things but plenty to choose from. The areas of concern would have to be: the hallways, they were not as clean as they should be, the ice machine on my floor was broke (not a big concern to me since I didn't use it) The pool water didn't smell so good, could have use a little more chlorine. It was nice having a Valero next doors to pick up snacks and drinks, Sonic is within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r115657402-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>115657402</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>Last Minute Booking.  Glad I chose this hotel.</t>
+  </si>
+  <si>
+    <t>Booked this at 12:30am for that night.  Everyone was very cooperative and nice.  In fact, when I walked into the hotel to check in, the staff person handed me the telephone and said "your husband's on the phone".  Just like home.  Left for a flight the next morning and had a great night's sleep.  Can't go wrong with this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r56197298-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56197298</t>
+  </si>
+  <si>
+    <t>02/16/2010</t>
+  </si>
+  <si>
+    <t>Better Than An Airline Lounge</t>
+  </si>
+  <si>
+    <t>I arrived early in the morning after a 15 hour flight from Africa and was looking for a place to shower, go to the gym and check e/amils while waiting for a flight in the mid afternoon.
+I originally called some other hotels that had  a higher Trip Adviser rating but they wanted the full overnight rate even though I was checking out in the afternoon and they could re-rent my room. So I tried the Holiday Inn Express and was glad I did. Not only did the mamanger give me a great rate but they sent the shuttle to pick me up within ten minutes and both Jose and Stephanie, the manager were so helpful.
+I arrived after breakfast was over so can´t comment.
+My room was a suite room with kitchen  opposite the maid´s laundry room but still very quiet. Lots of space with a bedroom area with TV, a living room area with sofas and TV and a cooking area. The bathroom is a bit small with a small shower inside a mini tub. iThe room was a bit old but spotless. Wifi was fast and free. The gym was so so--most of the equipment is old and broken. The pool is tiny and not in use in winter.
+They held my luggage until I returned from my trip a few days later even though I wasn´t staying with them upon my return.
+Next time I need...I arrived early in the morning after a 15 hour flight from Africa and was looking for a place to shower, go to the gym and check e/amils while waiting for a flight in the mid afternoon.I originally called some other hotels that had  a higher Trip Adviser rating but they wanted the full overnight rate even though I was checking out in the afternoon and they could re-rent my room. So I tried the Holiday Inn Express and was glad I did. Not only did the mamanger give me a great rate but they sent the shuttle to pick me up within ten minutes and both Jose and Stephanie, the manager were so helpful.I arrived after breakfast was over so can´t comment.My room was a suite room with kitchen  opposite the maid´s laundry room but still very quiet. Lots of space with a bedroom area with TV, a living room area with sofas and TV and a cooking area. The bathroom is a bit small with a small shower inside a mini tub. iThe room was a bit old but spotless. Wifi was fast and free. The gym was so so--most of the equipment is old and broken. The pool is tiny and not in use in winter.They held my luggage until I returned from my trip a few days later even though I wasn´t staying with them upon my return.Next time I need a few hours rest or an early start for the airport, I´m staying here. This place isn´t fancy, but it is well managed and the staff are kindness itself.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>I arrived early in the morning after a 15 hour flight from Africa and was looking for a place to shower, go to the gym and check e/amils while waiting for a flight in the mid afternoon.
+I originally called some other hotels that had  a higher Trip Adviser rating but they wanted the full overnight rate even though I was checking out in the afternoon and they could re-rent my room. So I tried the Holiday Inn Express and was glad I did. Not only did the mamanger give me a great rate but they sent the shuttle to pick me up within ten minutes and both Jose and Stephanie, the manager were so helpful.
+I arrived after breakfast was over so can´t comment.
+My room was a suite room with kitchen  opposite the maid´s laundry room but still very quiet. Lots of space with a bedroom area with TV, a living room area with sofas and TV and a cooking area. The bathroom is a bit small with a small shower inside a mini tub. iThe room was a bit old but spotless. Wifi was fast and free. The gym was so so--most of the equipment is old and broken. The pool is tiny and not in use in winter.
+They held my luggage until I returned from my trip a few days later even though I wasn´t staying with them upon my return.
+Next time I need...I arrived early in the morning after a 15 hour flight from Africa and was looking for a place to shower, go to the gym and check e/amils while waiting for a flight in the mid afternoon.I originally called some other hotels that had  a higher Trip Adviser rating but they wanted the full overnight rate even though I was checking out in the afternoon and they could re-rent my room. So I tried the Holiday Inn Express and was glad I did. Not only did the mamanger give me a great rate but they sent the shuttle to pick me up within ten minutes and both Jose and Stephanie, the manager were so helpful.I arrived after breakfast was over so can´t comment.My room was a suite room with kitchen  opposite the maid´s laundry room but still very quiet. Lots of space with a bedroom area with TV, a living room area with sofas and TV and a cooking area. The bathroom is a bit small with a small shower inside a mini tub. iThe room was a bit old but spotless. Wifi was fast and free. The gym was so so--most of the equipment is old and broken. The pool is tiny and not in use in winter.They held my luggage until I returned from my trip a few days later even though I wasn´t staying with them upon my return.Next time I need a few hours rest or an early start for the airport, I´m staying here. This place isn´t fancy, but it is well managed and the staff are kindness itself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r55475465-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>55475465</t>
+  </si>
+  <si>
+    <t>02/08/2010</t>
+  </si>
+  <si>
+    <t>A quiet, clean and comfortable Inn</t>
+  </si>
+  <si>
+    <t>We have enjoyed our stays at Holiday Inn Express in various locations, and Humble, TX was no exception. The hotel is less than 10 minutes from the Houston IAH airport, with free and efficient shuttle service. Not only was the shuttle free; the driver took us to a nearby mall to shop and enjoy dinner at nearby restaurants. She also baked the wonderful cookies offered at afternoon “tea”. This was very much appreciated since there was very little within walking distance of the hotel. There was a small business office with computer/Internet access, a small gym and a pool. The hotel was very clean and offered the comfort and conveniences we have come to expect of this brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>We have enjoyed our stays at Holiday Inn Express in various locations, and Humble, TX was no exception. The hotel is less than 10 minutes from the Houston IAH airport, with free and efficient shuttle service. Not only was the shuttle free; the driver took us to a nearby mall to shop and enjoy dinner at nearby restaurants. She also baked the wonderful cookies offered at afternoon “tea”. This was very much appreciated since there was very little within walking distance of the hotel. There was a small business office with computer/Internet access, a small gym and a pool. The hotel was very clean and offered the comfort and conveniences we have come to expect of this brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r42184519-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>42184519</t>
+  </si>
+  <si>
+    <t>09/16/2009</t>
+  </si>
+  <si>
+    <t>More than I expected</t>
+  </si>
+  <si>
+    <t>I had an 8 hour lay over after taking a red eye flight from California. Rather than hanging around in the Houston airport I decided to google the closest hotels to the airport so I could check-in and sleep. The marriott was the closest but they wanted $200.00 for the day. I came accross the Holiday Inn express and was a bit reluctant as the Holiday Inn where I live is pretty shabby. Against my better judgement, I went ahead and gave them a call and they were able to work out a price deal for me and check me in at 6:00am when I arrived from the airport. It's  a really small hotel but the staff is very nice and friendly (shuttle driver &amp; front desk agent Pemi?). The bed was the most comfortable one I had slept in for my entire 2 week vacation. They provide an airport shuttle every 30 minutes, complimentary breakfast, and walmart is a hop and a skip away.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>I had an 8 hour lay over after taking a red eye flight from California. Rather than hanging around in the Houston airport I decided to google the closest hotels to the airport so I could check-in and sleep. The marriott was the closest but they wanted $200.00 for the day. I came accross the Holiday Inn express and was a bit reluctant as the Holiday Inn where I live is pretty shabby. Against my better judgement, I went ahead and gave them a call and they were able to work out a price deal for me and check me in at 6:00am when I arrived from the airport. It's  a really small hotel but the staff is very nice and friendly (shuttle driver &amp; front desk agent Pemi?). The bed was the most comfortable one I had slept in for my entire 2 week vacation. They provide an airport shuttle every 30 minutes, complimentary breakfast, and walmart is a hop and a skip away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r22877506-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>22877506</t>
+  </si>
+  <si>
+    <t>12/20/2008</t>
+  </si>
+  <si>
+    <t>One night stay for an early flight</t>
+  </si>
+  <si>
+    <t>Another stay, alniet a short one at a HIE. This one was just to sleep close nto George Bush International for an early flight, rather than fight the famous Houston traffic. I chose to stay here because of the consistent quality I have found with HIE, especially the ones built as HIE, not those converted from former HIs. They had a free shuttle to pick you up &amp; drive you to terminal C. This enabled me to also drop off my rental the night before, eliminating the hassle of doing that early the next AM.Typical HIE with comfortable beds, clean, spacious (relatively). I left before breakfast, so I can't comment.  Very courteous staff, both the front desk &amp; the shuttle drivers. I felt bad after because I didn't realize you were supposed to tip the shuttle driver (of course, if deserved)....Got the morning driver, but missed the 1st the night before.Overall, if you are staying in the area, a good choice I expect for a good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>Another stay, alniet a short one at a HIE. This one was just to sleep close nto George Bush International for an early flight, rather than fight the famous Houston traffic. I chose to stay here because of the consistent quality I have found with HIE, especially the ones built as HIE, not those converted from former HIs. They had a free shuttle to pick you up &amp; drive you to terminal C. This enabled me to also drop off my rental the night before, eliminating the hassle of doing that early the next AM.Typical HIE with comfortable beds, clean, spacious (relatively). I left before breakfast, so I can't comment.  Very courteous staff, both the front desk &amp; the shuttle drivers. I felt bad after because I didn't realize you were supposed to tip the shuttle driver (of course, if deserved)....Got the morning driver, but missed the 1st the night before.Overall, if you are staying in the area, a good choice I expect for a good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r3369331-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>3369331</t>
+  </si>
+  <si>
+    <t>04/16/2005</t>
+  </si>
+  <si>
+    <t>No hot water; no bill adjustment</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night. They were very accommodating in providing airport shuttle services, however there was no hot water throughout our visit. The desk clerks gave us vague assurances  that they were working on the problem, then that it would be available in "10 minutes" and finally that we just had to let the tap run. (It still didn't work). When we checked out in the morning, the staff made no adjustment to our bill, which I refused to sign. Since we had to leave to catch an early flight, I subsequently contacted the local hotel management via e-mail, outlining our complaint; I have yet to hear back from anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night. They were very accommodating in providing airport shuttle services, however there was no hot water throughout our visit. The desk clerks gave us vague assurances  that they were working on the problem, then that it would be available in "10 minutes" and finally that we just had to let the tap run. (It still didn't work). When we checked out in the morning, the staff made no adjustment to our bill, which I refused to sign. Since we had to leave to catch an early flight, I subsequently contacted the local hotel management via e-mail, outlining our complaint; I have yet to hear back from anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r1235880-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>1235880</t>
+  </si>
+  <si>
+    <t>08/18/2003</t>
+  </si>
+  <si>
+    <t>Owner Rude</t>
+  </si>
+  <si>
+    <t>Owner threw our people out because we questioned a charge to our bill. He refused to change it and decided he didn't want them staying there and told them they could not have a room. Very rude man.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2209,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2241,4868 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>140</v>
+      </c>
+      <c r="X21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>140</v>
+      </c>
+      <c r="X22" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>140</v>
+      </c>
+      <c r="X23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>224</v>
+      </c>
+      <c r="X24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K31" t="s">
+        <v>272</v>
+      </c>
+      <c r="L31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s">
+        <v>279</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>280</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>293</v>
+      </c>
+      <c r="X34" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s">
+        <v>300</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>286</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>307</v>
+      </c>
+      <c r="X36" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s">
+        <v>314</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>315</v>
+      </c>
+      <c r="X37" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>323</v>
+      </c>
+      <c r="X38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>331</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>338</v>
+      </c>
+      <c r="X40" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>347</v>
+      </c>
+      <c r="X41" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>355</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>356</v>
+      </c>
+      <c r="X42" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>360</v>
+      </c>
+      <c r="J43" t="s">
+        <v>361</v>
+      </c>
+      <c r="K43" t="s">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s">
+        <v>363</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>364</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>365</v>
+      </c>
+      <c r="X43" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K44" t="s">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s">
+        <v>372</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>373</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>375</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>376</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+      <c r="K45" t="s">
+        <v>377</v>
+      </c>
+      <c r="L45" t="s">
+        <v>378</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>379</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>373</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>388</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" t="s">
+        <v>139</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>390</v>
+      </c>
+      <c r="X47" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>398</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>398</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>405</v>
+      </c>
+      <c r="J50" t="s">
+        <v>406</v>
+      </c>
+      <c r="K50" t="s">
+        <v>407</v>
+      </c>
+      <c r="L50" t="s">
+        <v>408</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>409</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>410</v>
+      </c>
+      <c r="X50" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>413</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>414</v>
+      </c>
+      <c r="J51" t="s">
+        <v>415</v>
+      </c>
+      <c r="K51" t="s">
+        <v>416</v>
+      </c>
+      <c r="L51" t="s">
+        <v>417</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>418</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>419</v>
+      </c>
+      <c r="X51" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>422</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>423</v>
+      </c>
+      <c r="J52" t="s">
+        <v>424</v>
+      </c>
+      <c r="K52" t="s">
+        <v>425</v>
+      </c>
+      <c r="L52" t="s">
+        <v>426</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>427</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>428</v>
+      </c>
+      <c r="X52" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>436</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>428</v>
+      </c>
+      <c r="X53" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>439</v>
+      </c>
+      <c r="J54" t="s">
+        <v>440</v>
+      </c>
+      <c r="K54" t="s">
+        <v>441</v>
+      </c>
+      <c r="L54" t="s">
+        <v>442</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>427</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>443</v>
+      </c>
+      <c r="X54" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>446</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>447</v>
+      </c>
+      <c r="J55" t="s">
+        <v>448</v>
+      </c>
+      <c r="K55" t="s">
+        <v>449</v>
+      </c>
+      <c r="L55" t="s">
+        <v>450</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>451</v>
+      </c>
+      <c r="X55" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>454</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>455</v>
+      </c>
+      <c r="J56" t="s">
+        <v>456</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+      <c r="L56" t="s">
+        <v>458</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>459</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>460</v>
+      </c>
+      <c r="X56" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>463</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>464</v>
+      </c>
+      <c r="J57" t="s">
+        <v>465</v>
+      </c>
+      <c r="K57" t="s">
+        <v>466</v>
+      </c>
+      <c r="L57" t="s">
+        <v>467</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+      <c r="J58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
+        <v>472</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>473</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>479</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>480</v>
+      </c>
+      <c r="X59" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+      <c r="L60" t="s">
+        <v>487</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>488</v>
+      </c>
+      <c r="O60" t="s">
+        <v>139</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>489</v>
+      </c>
+      <c r="X60" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" t="s">
+        <v>485</v>
+      </c>
+      <c r="K61" t="s">
+        <v>494</v>
+      </c>
+      <c r="L61" t="s">
+        <v>495</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>496</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>480</v>
+      </c>
+      <c r="X61" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>498</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>499</v>
+      </c>
+      <c r="J62" t="s">
+        <v>500</v>
+      </c>
+      <c r="K62" t="s">
+        <v>501</v>
+      </c>
+      <c r="L62" t="s">
+        <v>502</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>503</v>
+      </c>
+      <c r="X62" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K63" t="s">
+        <v>509</v>
+      </c>
+      <c r="L63" t="s">
+        <v>510</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>503</v>
+      </c>
+      <c r="X63" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>512</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>513</v>
+      </c>
+      <c r="J64" t="s">
+        <v>514</v>
+      </c>
+      <c r="K64" t="s">
+        <v>515</v>
+      </c>
+      <c r="L64" t="s">
+        <v>516</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>517</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>518</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>519</v>
+      </c>
+      <c r="J65" t="s">
+        <v>520</v>
+      </c>
+      <c r="K65" t="s">
+        <v>521</v>
+      </c>
+      <c r="L65" t="s">
+        <v>522</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>523</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>524</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>525</v>
+      </c>
+      <c r="J66" t="s">
+        <v>526</v>
+      </c>
+      <c r="K66" t="s">
+        <v>527</v>
+      </c>
+      <c r="L66" t="s">
+        <v>528</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>529</v>
+      </c>
+      <c r="O66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>531</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>532</v>
+      </c>
+      <c r="J67" t="s">
+        <v>533</v>
+      </c>
+      <c r="K67" t="s">
+        <v>534</v>
+      </c>
+      <c r="L67" t="s">
+        <v>535</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>537</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>538</v>
+      </c>
+      <c r="J68" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" t="s">
+        <v>540</v>
+      </c>
+      <c r="L68" t="s">
+        <v>541</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>542</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>543</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>544</v>
+      </c>
+      <c r="J69" t="s">
+        <v>545</v>
+      </c>
+      <c r="K69" t="s">
+        <v>546</v>
+      </c>
+      <c r="L69" t="s">
+        <v>547</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>548</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>550</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>551</v>
+      </c>
+      <c r="J70" t="s">
+        <v>552</v>
+      </c>
+      <c r="K70" t="s">
+        <v>553</v>
+      </c>
+      <c r="L70" t="s">
+        <v>554</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>548</v>
+      </c>
+      <c r="O70" t="s">
+        <v>139</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>555</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>556</v>
+      </c>
+      <c r="J71" t="s">
+        <v>557</v>
+      </c>
+      <c r="K71" t="s">
+        <v>558</v>
+      </c>
+      <c r="L71" t="s">
+        <v>559</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>560</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>562</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>563</v>
+      </c>
+      <c r="J72" t="s">
+        <v>564</v>
+      </c>
+      <c r="K72" t="s">
+        <v>565</v>
+      </c>
+      <c r="L72" t="s">
+        <v>566</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>567</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>569</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>570</v>
+      </c>
+      <c r="J73" t="s">
+        <v>571</v>
+      </c>
+      <c r="K73" t="s">
+        <v>572</v>
+      </c>
+      <c r="L73" t="s">
+        <v>573</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>574</v>
+      </c>
+      <c r="O73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>576</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>577</v>
+      </c>
+      <c r="J74" t="s">
+        <v>578</v>
+      </c>
+      <c r="K74" t="s">
+        <v>579</v>
+      </c>
+      <c r="L74" t="s">
+        <v>580</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>581</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>583</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>584</v>
+      </c>
+      <c r="J75" t="s">
+        <v>585</v>
+      </c>
+      <c r="K75" t="s">
+        <v>586</v>
+      </c>
+      <c r="L75" t="s">
+        <v>587</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>589</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>590</v>
+      </c>
+      <c r="J76" t="s">
+        <v>591</v>
+      </c>
+      <c r="K76" t="s">
+        <v>592</v>
+      </c>
+      <c r="L76" t="s">
+        <v>593</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_515.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="928">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r590041046-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>247107</t>
+  </si>
+  <si>
+    <t>590041046</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Restful before Flight</t>
+  </si>
+  <si>
+    <t>Good solid hotel with comfortable beds and nice facilities.   They have a pool that I saw many kids using bu did not use.  The hotel is one of the closest to the airport and yet only an exit down from every restaurant you can think of.  Great location near the Parking Spot #1, which I recommend.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r588894788-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>588894788</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Feels like Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay at this place 4/5 times a year for a day or two each time.  They recently renovated and I continued to stay through the renovations because of the way they treat you. They always will do whatever you need to make your stay the best possible.  With my work I often have different request like occasionally needing to stay later than normal on check out day.  Chris helped me out today with this request even though I offered to pay for staying late.  The rate is unbelievable fair for how clean convenient new and accommodating this location is.  Thanks Chris. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r560738889-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>247107</t>
-  </si>
-  <si>
     <t>560738889</t>
   </si>
   <si>
@@ -198,9 +234,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r557079283-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -219,6 +252,48 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r548661869-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>548661869</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>I DONT STAY HERE</t>
+  </si>
+  <si>
+    <t>This was a terrible stay the staff was very unprofessional. I made a complaint to the manager and he offered me free breakfast. On the website of the hotel guess what it come with? Free breakfast. I was very disappointed and upset with manager. So, the manager had nothing to offer me for his unprofessional staff and the fact that to hotel was being renovated and the hotel public spaces were dirty and unacceptable in my opinion. I made complaint to choice hotels, customer service reach out to the manager and he DENIED that I ever made complaint till check out! Choice hotel then just wanted was to sign me up for there rewards program to stay with them again. I would not recommend this hotel to anyone! Don’t do it it’s not worth it!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>This was a terrible stay the staff was very unprofessional. I made a complaint to the manager and he offered me free breakfast. On the website of the hotel guess what it come with? Free breakfast. I was very disappointed and upset with manager. So, the manager had nothing to offer me for his unprofessional staff and the fact that to hotel was being renovated and the hotel public spaces were dirty and unacceptable in my opinion. I made complaint to choice hotels, customer service reach out to the manager and he DENIED that I ever made complaint till check out! Choice hotel then just wanted was to sign me up for there rewards program to stay with them again. I would not recommend this hotel to anyone! Don’t do it it’s not worth it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r527529277-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>527529277</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unpleasant </t>
+  </si>
+  <si>
+    <t>I just finish check out at this hotel.   First of all it has various names Holiday Inn and Sleep In.  According to my reservation on Booked.com it was called Airport Suites. My reservation was placed within the last two months and due the to Hurricane that hit the Houston area hotel price have sky rocketed.  So when I did my check in and the hotel personal saw the room rate booked at Booking.com the didn’t want to honor it. After talking with management they finally honor the rate. Price have almost doble due to the hurricane!!!!The room and the entire hotel is a old and needs a good renovation. It’s is not worth even what I payed.  See my room pictures. Couch and room furniture is from the 70’s, bathroom need repair and kitchen cabinets also old.  I will never stayed here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I just finish check out at this hotel.   First of all it has various names Holiday Inn and Sleep In.  According to my reservation on Booked.com it was called Airport Suites. My reservation was placed within the last two months and due the to Hurricane that hit the Houston area hotel price have sky rocketed.  So when I did my check in and the hotel personal saw the room rate booked at Booking.com the didn’t want to honor it. After talking with management they finally honor the rate. Price have almost doble due to the hurricane!!!!The room and the entire hotel is a old and needs a good renovation. It’s is not worth even what I payed.  See my room pictures. Couch and room furniture is from the 70’s, bathroom need repair and kitchen cabinets also old.  I will never stayed here again!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r524806506-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -234,9 +309,6 @@
     <t>They don’t have a shuttle driver as advertised, so I had to pay for a taxi to get to the airport, which defeats part of the purpose of park, fly, stay.Rooms were nice and large.  They are in the middle of remodeling so there seems to be a “damp” smell about the place, but the room was clean and comfortable.</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r495112434-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -297,6 +369,60 @@
     <t>Consistency is key with most Holiday Inn Express Hotels.  Pleasant staff, clean room and comfy bed.  We had to be at the airport early so did not get breakfast.  The room was fine, but could really stand some updating.  Nothing major, just trim and a few things seemed old.  Awesome shuttle service. Nearby convenience store, but no restaurants within walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r465687798-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>465687798</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Convention stay</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay with a nice room, hearty breakfast with several healthy choices, coffee available, and a great happy hour every evening.  Staff was extremely pleasant and went out of their way to make my stay pleasant.  Would recommend this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay with a nice room, hearty breakfast with several healthy choices, coffee available, and a great happy hour every evening.  Staff was extremely pleasant and went out of their way to make my stay pleasant.  Would recommend this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r453213936-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>453213936</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>It was fine</t>
+  </si>
+  <si>
+    <t>United sent us here after they messed up our connecting flights. It was a few hours of sleep amd back to the airport.Holiday Inn Express and it's identical twin offerings from the other Hotel chains has become so generic that i struggle to review them. Overall, it was fine. Service was fine, room was fine. Bed was fine. Check-in and Check out? Again, fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>United sent us here after they messed up our connecting flights. It was a few hours of sleep amd back to the airport.Holiday Inn Express and it's identical twin offerings from the other Hotel chains has become so generic that i struggle to review them. Overall, it was fine. Service was fine, room was fine. Bed was fine. Check-in and Check out? Again, fine.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r440954680-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -366,6 +492,54 @@
     <t>My business colleague and I stayed here on a recent business visit to Houston. The rooms are a little dated and they upgraded us due to our status, but the only thing that made it an upgrade was a jacuzzi tub (who takes a bath). The breakfast was disappointing as there was no sausage for the biscuits &amp; gravy. Not sure I can recommend this HIE!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r413119722-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>413119722</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Unhappy customer</t>
+  </si>
+  <si>
+    <t>My husband travels very frequent for business &amp; occasionally I go along. We also travel frequently for pleasure. This Holiday Inn Express is the WORST we have stayed at. Very run down, horrible beds, air conditioner was awful, never cooked the room down. The whole room had a wet damp feel to it. Sheetrock damage visible in many places. Will not stay here again...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>My husband travels very frequent for business &amp; occasionally I go along. We also travel frequently for pleasure. This Holiday Inn Express is the WORST we have stayed at. Very run down, horrible beds, air conditioner was awful, never cooked the room down. The whole room had a wet damp feel to it. Sheetrock damage visible in many places. Will not stay here again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r403604348-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>403604348</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Great for a quick stay</t>
+  </si>
+  <si>
+    <t>Great suite with mini kitchen. Beds comfortable, pillows fresh. Breakfast is included free and we were surprised to see pancakes and sausage available. Hotel is Not that new but seemed clean enough overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Great suite with mini kitchen. Beds comfortable, pillows fresh. Breakfast is included free and we were surprised to see pancakes and sausage available. Hotel is Not that new but seemed clean enough overall.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r390415663-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -447,6 +621,57 @@
     <t>I had an unexpected overnight at IAH due to a delayed flight and was booked at the Holiday Inn Express near IAH.  The shuttle arrived quickly to get to the hotel and check in was easy.  The room was kind of dirty and the sheets were scratchy and uncomfortable to sleep in.  I had a 530a flight leaving IAH the next morning and inquired about a hotel shuttle and was informed that it does not start running until 5am.  I was okay with this so I asked the person at the front desk to book me a cab for 4am.  I received a call to my room at 330am informing me the cab was there and wouldn't wait for me and they were unable to boom another cab.  When I got in the cab, and already driving to the airport, I noticed the driver was not using the meter and asked him "why?". He informed me that it is a $20 flat fee, as they don't meter so early in the morning and the hotel should have told me, which they did not and it was only 5 min drive which should not have been more than $10. After I got out of the cab I took the license plate number and called the city of Houston and the city of Humble (where the hotel is) and was told that car was not a registered taxi in those cities.  This...I had an unexpected overnight at IAH due to a delayed flight and was booked at the Holiday Inn Express near IAH.  The shuttle arrived quickly to get to the hotel and check in was easy.  The room was kind of dirty and the sheets were scratchy and uncomfortable to sleep in.  I had a 530a flight leaving IAH the next morning and inquired about a hotel shuttle and was informed that it does not start running until 5am.  I was okay with this so I asked the person at the front desk to book me a cab for 4am.  I received a call to my room at 330am informing me the cab was there and wouldn't wait for me and they were unable to boom another cab.  When I got in the cab, and already driving to the airport, I noticed the driver was not using the meter and asked him "why?". He informed me that it is a $20 flat fee, as they don't meter so early in the morning and the hotel should have told me, which they did not and it was only 5 min drive which should not have been more than $10. After I got out of the cab I took the license plate number and called the city of Houston and the city of Humble (where the hotel is) and was told that car was not a registered taxi in those cities.  This is why I am giving this hotel a 1 star review, it would have been 3 if not for this taxi incident.  I expect a hotel to book a taxi company that is registered and uses a meter.  When a hotel books me an unlicensed taxi that takes advantage of me by overcharging me and not metering (which is a violation of the law) I will never stay at this hotel again and don't think anyone else should either.  I am not normally one to give a 1 star review but because of the shady taxi company they booked me I will never stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r377136667-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>377136667</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Tired rooms...</t>
+  </si>
+  <si>
+    <t>This hotel in need of renovation. Rooms really lacking in the Holiday Inn Express theme of modern and fresh. Hotel staff nice.Not in the nicest part of town, for sure, but it is convenient to highway and there are a few decent restaurants nearby and some shopping, also. Please get some reno done. We are loyal to Holiday Inn Express, up to a point. I can't stay here again with conditions as is.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>This hotel in need of renovation. Rooms really lacking in the Holiday Inn Express theme of modern and fresh. Hotel staff nice.Not in the nicest part of town, for sure, but it is convenient to highway and there are a few decent restaurants nearby and some shopping, also. Please get some reno done. We are loyal to Holiday Inn Express, up to a point. I can't stay here again with conditions as is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r376802383-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>376802383</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and not much more</t>
+  </si>
+  <si>
+    <t>Check in, put your head down, check out. That's about it, with one exception. Mande the night manager was extremely nice, helpful and always ready to assist. Trying to find a good restaurant around the a/p, nothing much but, he tried very hard and provided us with transportation to &amp; from. There are no frills at this property. It is a serviceable institution which should be used to overnight under tight timelinesMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Check in, put your head down, check out. That's about it, with one exception. Mande the night manager was extremely nice, helpful and always ready to assist. Trying to find a good restaurant around the a/p, nothing much but, he tried very hard and provided us with transportation to &amp; from. There are no frills at this property. It is a serviceable institution which should be used to overnight under tight timelinesMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r365229669-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -516,6 +741,57 @@
     <t>First I was left to wait an hour at the airport waiting for their shuttle bus to show up.  I realize I am not the only person but Hilton, Marriott and Hyatt hell even best western shuttle buses passed by 4 time in the hour I waited for Holiday Inn to show up so should have stayed at Hilton with their bus passing every 15 minutes.  Tread mills in the fitness center are really old and some super cheap version. The hotel is old and dirty I wouldn't even sit on the sofa or chair in my room it looked like grandmas old worn out furniture that had been in the basement for the dogs to sleep on for years.  I would not recommend this hotel it is very unprofessional and dirty in my opinion. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r328069656-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>328069656</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Nice place for an early flight</t>
+  </si>
+  <si>
+    <t>Had to catch an early flight the next morning from IAH (6:25), so I decided to stay close.  Friendly customer service from the minute I walked in the door.  The first shuttle left for the airport at 5:00am, but I wanted to get to the airport earlier (my choice).  I had asked if cab service was available, and was asked if I would like them to make a reservation for a cab at 4:30.  Within 3 minutes I had a reservation for 4:30am.  Hotel is very clean, and the rooms are nice and big.  Cant ask for anything more. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Had to catch an early flight the next morning from IAH (6:25), so I decided to stay close.  Friendly customer service from the minute I walked in the door.  The first shuttle left for the airport at 5:00am, but I wanted to get to the airport earlier (my choice).  I had asked if cab service was available, and was asked if I would like them to make a reservation for a cab at 4:30.  Within 3 minutes I had a reservation for 4:30am.  Hotel is very clean, and the rooms are nice and big.  Cant ask for anything more. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r324962672-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>324962672</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>I got Houston for one night...</t>
+  </si>
+  <si>
+    <t>These days, thanks to my unbelievable job, I travel a whole bunch. Wyndam hotels usually do a good job of accommodating my needs. As they did tonight, when I asked where I should go. They unselfishly suggested the Holiday Inn Express located just down the street. After considering other places, I decided to try it after hearing the same recommendation many times. While I was disappointed that a street named in honor of our late President John  F. Kennedy was so grossly littered with debris and garbage, nevertheless I continued on to my destination. The menu looked very appealing and appetizers were half price during happy hour. So I tried the buffalo wings  - very good. I am sort of a soup nut. So I asked the excellent and lovely bartender, Linda, if I could possibly sample a couple of the soups and she was more than accommodating. After a cup of their spicey cheese soup, which was also excellent ( let me just say that all three of the soups were very different and delicious) I chose the pot roast dinner with a loaded baked potato. AGAIN EXCELLENT! In the meantime, I met the manager, Ms Ruby Parker. She was fantastic! But so was Linda Rodriguez at the bar! I truly thoroughly enjoyed every minute there. After having worked as a bartender for over 25 years in  premium hotel setting, it was nice to see professionals doing a great...These days, thanks to my unbelievable job, I travel a whole bunch. Wyndam hotels usually do a good job of accommodating my needs. As they did tonight, when I asked where I should go. They unselfishly suggested the Holiday Inn Express located just down the street. After considering other places, I decided to try it after hearing the same recommendation many times. While I was disappointed that a street named in honor of our late President John  F. Kennedy was so grossly littered with debris and garbage, nevertheless I continued on to my destination. The menu looked very appealing and appetizers were half price during happy hour. So I tried the buffalo wings  - very good. I am sort of a soup nut. So I asked the excellent and lovely bartender, Linda, if I could possibly sample a couple of the soups and she was more than accommodating. After a cup of their spicey cheese soup, which was also excellent ( let me just say that all three of the soups were very different and delicious) I chose the pot roast dinner with a loaded baked potato. AGAIN EXCELLENT! In the meantime, I met the manager, Ms Ruby Parker. She was fantastic! But so was Linda Rodriguez at the bar! I truly thoroughly enjoyed every minute there. After having worked as a bartender for over 25 years in  premium hotel setting, it was nice to see professionals doing a great job at a busy hotel restaurant dining room. Then, to top it off, as I was waiting for a ride back, Mr David and Willie said they had time to give me a ride back to my hotel. But that is the last time I will EVER use that term. Because after tonight, if I ever in Houston,  this Holiday Inn Express Intercontinental  Airport location IS MY HOTEL. Super place to stay, drink and eat. Excellent! Loved it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>These days, thanks to my unbelievable job, I travel a whole bunch. Wyndam hotels usually do a good job of accommodating my needs. As they did tonight, when I asked where I should go. They unselfishly suggested the Holiday Inn Express located just down the street. After considering other places, I decided to try it after hearing the same recommendation many times. While I was disappointed that a street named in honor of our late President John  F. Kennedy was so grossly littered with debris and garbage, nevertheless I continued on to my destination. The menu looked very appealing and appetizers were half price during happy hour. So I tried the buffalo wings  - very good. I am sort of a soup nut. So I asked the excellent and lovely bartender, Linda, if I could possibly sample a couple of the soups and she was more than accommodating. After a cup of their spicey cheese soup, which was also excellent ( let me just say that all three of the soups were very different and delicious) I chose the pot roast dinner with a loaded baked potato. AGAIN EXCELLENT! In the meantime, I met the manager, Ms Ruby Parker. She was fantastic! But so was Linda Rodriguez at the bar! I truly thoroughly enjoyed every minute there. After having worked as a bartender for over 25 years in  premium hotel setting, it was nice to see professionals doing a great...These days, thanks to my unbelievable job, I travel a whole bunch. Wyndam hotels usually do a good job of accommodating my needs. As they did tonight, when I asked where I should go. They unselfishly suggested the Holiday Inn Express located just down the street. After considering other places, I decided to try it after hearing the same recommendation many times. While I was disappointed that a street named in honor of our late President John  F. Kennedy was so grossly littered with debris and garbage, nevertheless I continued on to my destination. The menu looked very appealing and appetizers were half price during happy hour. So I tried the buffalo wings  - very good. I am sort of a soup nut. So I asked the excellent and lovely bartender, Linda, if I could possibly sample a couple of the soups and she was more than accommodating. After a cup of their spicey cheese soup, which was also excellent ( let me just say that all three of the soups were very different and delicious) I chose the pot roast dinner with a loaded baked potato. AGAIN EXCELLENT! In the meantime, I met the manager, Ms Ruby Parker. She was fantastic! But so was Linda Rodriguez at the bar! I truly thoroughly enjoyed every minute there. After having worked as a bartender for over 25 years in  premium hotel setting, it was nice to see professionals doing a great job at a busy hotel restaurant dining room. Then, to top it off, as I was waiting for a ride back, Mr David and Willie said they had time to give me a ride back to my hotel. But that is the last time I will EVER use that term. Because after tonight, if I ever in Houston,  this Holiday Inn Express Intercontinental  Airport location IS MY HOTEL. Super place to stay, drink and eat. Excellent! Loved it!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r323480586-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -534,12 +810,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Margarita G, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded November 13, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 13, 2015</t>
-  </si>
-  <si>
     <t>I checked in later here last night to be close to the airport for an early morning flight. All of my keys and documents were ready when I arrived and I was shown to my room immediately. The room was very clean, though the air freshener was a little overwhelming. The room had a nice sitting area separate of the bedroom, and had a tv in both areas. Would recommend this for anyone wishing to stay close to Bush International Airport. More</t>
   </si>
   <si>
@@ -588,6 +858,51 @@
     <t>Near IAH, fair room rate &amp; good &amp; warm service. Clean environment &amp; family style decoration! I addition, it's suite! Hot water 24 hours! And so on...by the way, in lath lobby, refreshment food available for sale, good for midnight moment!Pick up service quickly provided when you made a call!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r302155239-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>302155239</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Great location close to IAH</t>
+  </si>
+  <si>
+    <t>I stay here most of the time when I have an early flight out of IAH.  It is the closest hotel to Terminal C,D or E (United and International Departures).  It is right off of I-69 (Highway 59) on Will Clayton Parkway.  The rooms are clean.  It is not updated or fancy, but solid and good location.  you can also take the shuttle to the airport.  If you are parking in the Parking Spot parking lot, too, it is really close.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I stay here most of the time when I have an early flight out of IAH.  It is the closest hotel to Terminal C,D or E (United and International Departures).  It is right off of I-69 (Highway 59) on Will Clayton Parkway.  The rooms are clean.  It is not updated or fancy, but solid and good location.  you can also take the shuttle to the airport.  If you are parking in the Parking Spot parking lot, too, it is really close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r297287516-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>297287516</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>2 Different Rooms -Same Sad Story</t>
+  </si>
+  <si>
+    <t>I stayed here twice in the same week in different rooms both were in dire need of help. Rooms smelled like smoke, tiles loose and the shower stalls dripped, air-conditioners didn't work overall I would never stay here again. Desk folks were nice, just a dumpy hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here twice in the same week in different rooms both were in dire need of help. Rooms smelled like smoke, tiles loose and the shower stalls dripped, air-conditioners didn't work overall I would never stay here again. Desk folks were nice, just a dumpy hotel. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r287178236-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -652,6 +967,48 @@
   </si>
   <si>
     <t>This place has the basics covered very well. Friendly helpful staff, quiet rooms with separate sleeping area and TV area. Goog shower and very prompt and friendly shuttle to the airport. A comfortable place in a wacky city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r264395058-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>264395058</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Staff great</t>
+  </si>
+  <si>
+    <t>Stayed here for one night on layover for Iah airport.  Great staff at reception and the manageress was wonderful very attentive and dos follow ups to make sure all was ok. The shuttle driver was also excellent and really couldn't have helped anymoreRoom very clean and spacious. Shower a bit dated but functionalGym bit outdated but once again it did the job.  Bit stuck for somewhere to walk to to eat but deer rook mall only couple miles away to spend some time and $ in. You could see that they were up keeping the hotel well and was being refreshed in places.NBOne point for hotel shuttle, you are fine if you get the actual hotel shuttle bus but sometimes they use Rocket.  They were late, no apology.  The van was falling to bits, smelled strongly of gas.No help with luggage.  The young girl  was sullen who drove it and this would genuinely stop me from using the hotel in future if I had to endure that again!!Hotel fine and dandy as were the staff - outside shuttle service very bad!! It's a good hotel and we'll run. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for one night on layover for Iah airport.  Great staff at reception and the manageress was wonderful very attentive and dos follow ups to make sure all was ok. The shuttle driver was also excellent and really couldn't have helped anymoreRoom very clean and spacious. Shower a bit dated but functionalGym bit outdated but once again it did the job.  Bit stuck for somewhere to walk to to eat but deer rook mall only couple miles away to spend some time and $ in. You could see that they were up keeping the hotel well and was being refreshed in places.NBOne point for hotel shuttle, you are fine if you get the actual hotel shuttle bus but sometimes they use Rocket.  They were late, no apology.  The van was falling to bits, smelled strongly of gas.No help with luggage.  The young girl  was sullen who drove it and this would genuinely stop me from using the hotel in future if I had to endure that again!!Hotel fine and dandy as were the staff - outside shuttle service very bad!! It's a good hotel and we'll run. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r263788813-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>263788813</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>I could see through the crack in the door.</t>
+  </si>
+  <si>
+    <t>To be so close to the airport, this is surprisingly quiet. I normally stay at the Holiday Inn just to the south of the airport where the planes are taking off and their engines are roaring. From this Holiday Inn Express, the airport is just to the east, the planes are constantly landing, but they are throttled back, and virtually unnoticeable. The hotel is updated, the staff very courteous. There were a couple of disappointments. In my suite, the bathroom trash can had not been emptied from the last guest, and the bath mat was missing (promptly replaced the following day. In the sitting area the next day, while the lights in the room were dim and the hallway was well lit, I noticed that the door frame appeared to have shifted over time, and there is a noticeable crack along the side of the door, enough that I could see the pattern in the hallway carpet nearly up to the door handle. Quite disturbing, as someone could easily see in, I had not noticed the night before with the lights on in the room. Overall, I would stay here again, very close to several nice restaurants, grocery stores and a nice shopping mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>To be so close to the airport, this is surprisingly quiet. I normally stay at the Holiday Inn just to the south of the airport where the planes are taking off and their engines are roaring. From this Holiday Inn Express, the airport is just to the east, the planes are constantly landing, but they are throttled back, and virtually unnoticeable. The hotel is updated, the staff very courteous. There were a couple of disappointments. In my suite, the bathroom trash can had not been emptied from the last guest, and the bath mat was missing (promptly replaced the following day. In the sitting area the next day, while the lights in the room were dim and the hallway was well lit, I noticed that the door frame appeared to have shifted over time, and there is a noticeable crack along the side of the door, enough that I could see the pattern in the hallway carpet nearly up to the door handle. Quite disturbing, as someone could easily see in, I had not noticed the night before with the lights on in the room. Overall, I would stay here again, very close to several nice restaurants, grocery stores and a nice shopping mall.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r261363284-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
@@ -727,6 +1084,45 @@
     <t>The staff were friendly, quick to help, and almost make up for the poor accommodations. Shuttle was quick and convenient. Room is VERY outdated and though not outright dirty just felt a little gross. Invest in your hotel and you have a winner!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r254364555-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>254364555</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Worth Staying at if you need to be near IAH</t>
+  </si>
+  <si>
+    <t>I booked this hotel as I had an early flight out of IAH the next day. I got the airport shuttle to collect me once I'd dropped my hire car off and was collected by Aaron. Aaron was great, chatty and happy to give advice about what time to leave for my early flight. Once I arrived, I was checked in by Jackie at reception, who had a vague British accent. She too was lovely. Checked in quickly and taxi booked for the next morning. She said that I'd be missing breakfast, but if I wanted coffee or fruit to ask when I was checking out and the receptionist on duty would sort me out.The room itself was a little dated but very clean and fine for an airport hotel. There weren't any damages or anything, just a little older. It was suite style, not too big but a decent size. The bed was comfortable enough and the aircon wasn't too loud. All in, if I ever need to stay near IAH again, I'd happily stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel as I had an early flight out of IAH the next day. I got the airport shuttle to collect me once I'd dropped my hire car off and was collected by Aaron. Aaron was great, chatty and happy to give advice about what time to leave for my early flight. Once I arrived, I was checked in by Jackie at reception, who had a vague British accent. She too was lovely. Checked in quickly and taxi booked for the next morning. She said that I'd be missing breakfast, but if I wanted coffee or fruit to ask when I was checking out and the receptionist on duty would sort me out.The room itself was a little dated but very clean and fine for an airport hotel. There weren't any damages or anything, just a little older. It was suite style, not too big but a decent size. The bed was comfortable enough and the aircon wasn't too loud. All in, if I ever need to stay near IAH again, I'd happily stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r253272859-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>253272859</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Overnight stay prior to early flight in the am</t>
+  </si>
+  <si>
+    <t>I decided to stay at this hotel overnight since I had an early flight in the am.  This is a convenient location to the airport and a hotel that I found to be much better for my needs that the other south of the airport.  They have an evening happy hour with free beer and popcorn.  The only inconvenient thing about the hotel was that when I wanted to get some computer work done I had to unplug the lamp on the desk to plug in my computer.  The other plug went to the tv...MoreShow less</t>
+  </si>
+  <si>
+    <t>I decided to stay at this hotel overnight since I had an early flight in the am.  This is a convenient location to the airport and a hotel that I found to be much better for my needs that the other south of the airport.  They have an evening happy hour with free beer and popcorn.  The only inconvenient thing about the hotel was that when I wanted to get some computer work done I had to unplug the lamp on the desk to plug in my computer.  The other plug went to the tv...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r251330184-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -796,6 +1192,54 @@
     <t>I stayed at this location while waiting for an early morning flight out of Houston in January 2015. I've stayed at many IHG (Holiday Inn chain) hotels over the past few years and this one ranks near the bottom. The room we had was very outdated with old flooring, older furniture and bathroom fixtures that were literally falling apart. There are better choices near Houston Intercontinental Airport to stay at. I wouldn't recommend this property.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r247087795-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>247087795</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Great night's sleep</t>
+  </si>
+  <si>
+    <t>I was hesitant to book this location because of its' proximity to the airport. But I was pleasantly surprised by the quietness and the quality of the bed.  The bed was a very high quality memory foam type.  The front desk staff was also very hospitable and courteous.  I will be staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I was hesitant to book this location because of its' proximity to the airport. But I was pleasantly surprised by the quietness and the quality of the bed.  The bed was a very high quality memory foam type.  The front desk staff was also very hospitable and courteous.  I will be staying here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r243287944-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>243287944</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Outdated  and poor maintained</t>
+  </si>
+  <si>
+    <t>This hotel had its better days.  Staff of the restaurant was friendly with the right customer focus  but staff at the desk was  not very customer oriented.  Room old , stuff broken and lose in the room and the bathroom.One of the elevators was out for the whole week.Compared with the other times I stayed at a Holiday INN  this was my worst experience. The location is good but there is a lot of accomodation in that area.  Next time I try something diffrent.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>This hotel had its better days.  Staff of the restaurant was friendly with the right customer focus  but staff at the desk was  not very customer oriented.  Room old , stuff broken and lose in the room and the bathroom.One of the elevators was out for the whole week.Compared with the other times I stayed at a Holiday INN  this was my worst experience. The location is good but there is a lot of accomodation in that area.  Next time I try something diffrent.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r241894314-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -811,9 +1255,6 @@
     <t>We always stay in this hotel when we do a stop-over in Houston.  This is our second time to stay in this hotel.It is a very good value.  Good clean rooms and friendly staff.  Shuttle service is prompt and courteous.  Close to restaurants and IAH airport.Bathroom fixtures do need some repair work. Otherwise, this is a very good value for a short stay.</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r239067095-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -847,6 +1288,48 @@
     <t>Located 10 mins drive from the airport. We booked this hotel an hour before on website as missed our flight. The hotel shuttle arrived within 10mins as promised at the airport and the driver was v helpful and friendly. The hotel as always maintains its standard, very clean property, front desk staff friendly as expected and complimentary tea/coffee is provided in the lobby area with nice seating overlooking outdoor pool. The hotel provides complimentary breakfast and parking for the guests. It feels safe to go out for a short walk and there is couple of restaurants and a gas station next door, the hotel also sells basic snacks at a reasonable cost inc ice cream.The room was clean and hygienic with a lounge and tea/coffee facilities. The bathroom has basic amenities and a powerful shower. The mattress could be a bit better as we felt we were rolling in the middle due to a dip in the middle of the mattress.HIE is our first priority and we would recommend this company.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r236901490-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>236901490</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>I would stay there again</t>
+  </si>
+  <si>
+    <t>Employees were very friendly and helpful.  And also they were alway available.  They gave me good choices for local places to eat.  It was a good location for getting to get on and off the highway. They bed was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Employees were very friendly and helpful.  And also they were alway available.  They gave me good choices for local places to eat.  It was a good location for getting to get on and off the highway. They bed was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r233111577-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>233111577</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Nice Place &amp; Pleasant Staff.</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in October 2014. Rooms were clean. Staff was very pleasant. Breakfast was adequate. Lobby and the reception area was clean and welcoming.What needs to be corrected/updated.1. Outlets in the rooms are old and don't look secure. When you try to plug or unplug something, the outlets move too much. No convinient outlets for charging your phone and other accessories. Most hotels have this convinience as a part of the table lamp. Other than that, this is a very nice place.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r232477319-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -860,9 +1343,6 @@
   </si>
   <si>
     <t>Staff was really nice. I appreciated the $1.00 washer and dryers!! Airport shuttle was partnership with local Rocket Parking company and worked great. I would definitely stay here again as the close proximity to IAH makes early flights manageable.</t>
-  </si>
-  <si>
-    <t>October 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r230633632-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
@@ -914,6 +1394,45 @@
 Basically I'm £88 pounds out of pocket for an IHG/hotel error and I'M told to phone the hotel directly to take up my issue -- UK calls to the US when I'm the customer(!!!!!!) by the time I've explained the issue, I'll be...Be warned - l arrived at this hotel to stay nights 04Aug &amp; 05Aug on two separate reservations as I didn't know what flight I'd be on. On arrival Reception staff could only find my first night and not the second in their reservation system, despite me having an IHG confirmation number for both nights! They modified my first reservation to include the second night with no problem but when I get back to the UK I find I've been charged for the two night stay AND for no showing on the reservation they couldn't find!!!!!!!!!!!!!!!!!!!!Getting anyone to understand this when you get back from your vacation is a nightmare : Have emailed ALL documents to support my complaint to the hotel directly using the email address on their web page (and verified by IHG Customer Care Team) and received bounce backs as it doesn't exist!!!!!! IHG Customer Care Team are also very poor as when they finally came back to me they told me I no showed and any further communication on the subject should be directed to the hotel directly --- is that what you call customer care???? (I'm only a poor rewards member!).Basically I'm £88 pounds out of pocket for an IHG/hotel error and I'M told to phone the hotel directly to take up my issue -- UK calls to the US when I'm the customer(!!!!!!) by the time I've explained the issue, I'll be even more money out of pocket. I WORK IN THE TRAVEL INDUSTRY AND I'll BE SURE TO TELL EVERYONE ABOUT MY HIEXP INTERCONTINENTAL HUMBLE TX/IHG EXPERIENCE!Unless of course the hotel management would like to contact me or PROVIDE AN EMAIL ADDRESS THAT WORKS!!!!!For travel experience in 2014 - VERY POOR.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r229951943-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>229951943</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Bunti singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service, helpful staff,  convenient location,  very clean and big size rooms, very nice shuttle service, excellent  gym. Breakfast was hot and delicious,  kitchen was cery clean,  employe was very courteous and helpful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r228559446-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>228559446</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Poorly maintained</t>
+  </si>
+  <si>
+    <t>Not the quality of the holidayinn express I know. Convenient on price and near to the airport.  Staff is great and service oriented. Rooms are not too clean and looks very old!  Normally I stay at the IHG hotels, next time will look for a different option.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Not the quality of the holidayinn express I know. Convenient on price and near to the airport.  Staff is great and service oriented. Rooms are not too clean and looks very old!  Normally I stay at the IHG hotels, next time will look for a different option.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r228180861-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1499,39 @@
     <t>Avoid this hotel at all. My room was old, but that's not the issue, it was disgusting. The top on the kitchen had old food dryed and crusted, the sheets where yellowish and stained, when I moved the bedroom curtain to close it I found an old key envelope, there was hair in the bathroom, dust in most things bust the worst thing was the carpet. I found: a bead and worst of all A TOE NAIL! I swear I wasn't looking for this stuff, it was lying in the middle of the room. Yuc! Also to disguise the fact that the bed most have sticking springs it has on top a lousy and nasty yellow foam top simulating a "pillow top".  I had a terrible night, there was loud music on near by and the noise came through the window as it wasn't one and the light from the totem sign from the hotel iluminated the room because the courtains didn't close properly. Didn't expect luxury at all but cleanliness should be standard no matter if it's a value price. Expected more given it's a Holiday Inn Express and payed $159 for the night!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r220621968-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>220621968</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Functional airport hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for 2 nights and found the hotel adequate.  Some of the rooms have been upgraded so try and request one of these. There are small kitchenettes in a number of rooms. The beds are extremely comfortable, the airconditioning works well and my room was well maintained.A buffet breakfast is included and food is topped up regularly. It includes scrambled egg, cereals, bread and cakes.Staff in the hotel are friendly.As an Ambassador Platinium member of The IHG Rewards Club I did not feel my status was recognised. I was handed a packet of peanuts and a small bottle of warm water. Not the best recognition.The airport shuttle is very useful and runs throughout the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for 2 nights and found the hotel adequate.  Some of the rooms have been upgraded so try and request one of these. There are small kitchenettes in a number of rooms. The beds are extremely comfortable, the airconditioning works well and my room was well maintained.A buffet breakfast is included and food is topped up regularly. It includes scrambled egg, cereals, bread and cakes.Staff in the hotel are friendly.As an Ambassador Platinium member of The IHG Rewards Club I did not feel my status was recognised. I was handed a packet of peanuts and a small bottle of warm water. Not the best recognition.The airport shuttle is very useful and runs throughout the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r220474791-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>220474791</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Right at home!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a total of 4 days/3 nights.  We found the staff to be extremely friendly and very accommodating.  You don't see this a lot in traveling these days.  Staff was very professional but made us feel right at home.  The bed was one of the most comfortable we have ever slept on.  The room was super clean and everything worked.  The furniture in the room needs updating.  All in all, we would definitely stay here again!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r219154265-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1601,36 @@
     <t>Stayed one night while in town for the Jr Track Olympics..close to airport, ample parking...friendly helpful staff especially Porsha who was there when we arrived and when we left in the morning.New hotel, clean, well lit ..we arrived late and got up early, filled our ice duffle, fueled up w oatmeal and eggs..coffee and hit the Humble track very close by. Hotel snack shop has the right amount of drinks, snacks and toiletries for sale..staff made it easy for us to add to room. our room and bath were new and clean and really well appointed. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r216047473-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>216047473</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, Clean rooms and friendly staff. Pool &amp; Shuttle service are nice. Nice hot breakfast in the morning makes it good. Close to airport &amp; they offer to pick up and drop you off! Keep up the great work guys!!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r214964346-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>214964346</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>A great Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>We always like to stay at a Holiday Inn Express when we can and this one exceeded out expectations... a suite Holiday Inn Express... amazing. Looks very new.  Good HI EX breakfast. And, we garnered points for future stays.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r210818763-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1064,9 +1646,6 @@
     <t>Stayed here for 4 days on business.  Hotel is starting to show its age, but is clean overall.  Rooms were nice, a little dated but comfortable.  Rooms facing Will Clayton Pkwy have some traffic noise. Did not provide mouthwash or conditioner like most other HIE's do.  Breakfast seemed to be restricted as no more than 10 pieces of bacon were out at a time and 1 banana if you were lucky. It appeared they were in "saving" mode no matter what time you showed up.  Juice machine was broken for 2 days.  Overall, not a terrible place. Just a little lower on the scale of what I'd consider a standard HIE experience.  Would I stay here again?  I suppose, as it is convenient to BUSH AP, although may try others north of here that are closer to a better selection of dining options.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>Richard V, Front Desk at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded June 18, 2014</t>
   </si>
   <si>
@@ -1130,6 +1709,57 @@
     <t>Real friendly staff, minutes from airport and great freeway access. Local eateries only but shuttle bus will take you within a few miles. Pool and fitness suite are good and its great to watch the intercontinental aircraft as they head into the skyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r200497606-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>200497606</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>They Go the Extra Mile!</t>
+  </si>
+  <si>
+    <t>After missing my initial flight and original destination, I was able to get a last minute room at a great rate. I needed to ship some of my luggage to my originally intended location but had an early flight out the next morning. The staff went above and beyond to assist me (providing packing materials and even helping me pack). They assured me my package would be sent after I left for my flight. It was and everything made it safely. Thank you!!!  If I am in the Houston airport area again, I know exactly where I will stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Richard V, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2014</t>
+  </si>
+  <si>
+    <t>After missing my initial flight and original destination, I was able to get a last minute room at a great rate. I needed to ship some of my luggage to my originally intended location but had an early flight out the next morning. The staff went above and beyond to assist me (providing packing materials and even helping me pack). They assured me my package would be sent after I left for my flight. It was and everything made it safely. Thank you!!!  If I am in the Houston airport area again, I know exactly where I will stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r199100006-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>199100006</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Very good room, very well located hotel</t>
+  </si>
+  <si>
+    <t>I missed my flight at the Houston Inter Airport and the airline didn't bother to give us a hotel voucher so I called Holiday Inn Express near the airport. It was only one mile and they have shuttle service. I loved it! Excellent room and very good service!I didnt eat breakfast because I had to leave at 6:00 and breakfast started at 6:30 am, oh wellMoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded April 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2014</t>
+  </si>
+  <si>
+    <t>I missed my flight at the Houston Inter Airport and the airline didn't bother to give us a hotel voucher so I called Holiday Inn Express near the airport. It was only one mile and they have shuttle service. I loved it! Excellent room and very good service!I didnt eat breakfast because I had to leave at 6:00 and breakfast started at 6:30 am, oh wellMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r196219582-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1145,9 +1775,6 @@
     <t>Having flown in to Houston-Bush International airport for Mexico I find out that my flight to east coast had been canceled. It was late and my wife and were just looking for a hot shower and a clean, comfortable bed and we found what were looking for at this location. The front desk staff could not have been nicer. They went out of their way to get us in our room as quick as possible. The room was very clean and comfortable. A very welcome site after a very bad day of air travel. The next morning this site had a shuttle that dropped us off right at the door of the airport. This was a convenient location and an overall great experience!MoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>Having flown in to Houston-Bush International airport for Mexico I find out that my flight to east coast had been canceled. It was late and my wife and were just looking for a hot shower and a clean, comfortable bed and we found what were looking for at this location. The front desk staff could not have been nicer. They went out of their way to get us in our room as quick as possible. The room was very clean and comfortable. A very welcome site after a very bad day of air travel. The next morning this site had a shuttle that dropped us off right at the door of the airport. This was a convenient location and an overall great experience!More</t>
   </si>
   <si>
@@ -1181,6 +1808,48 @@
     <t>We stay here most times when we fly into Houston.  Very upscale like most of the "Name Brands" for a lot less money.  Treated like family by Kirston &amp; Bobby.  They overheard that my wife was having a birthday and they made a greeting poster for her.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r193875593-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>193875593</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Meisterporsche</t>
+  </si>
+  <si>
+    <t>A nice property for a night stay over. They provide a free shuttle bus to/from IAH. During certain hours they will also provide a free shuttle to the local shopping mall. The hotel is located by other hotels but there are no restaurants within walking distance. They do have a full service restaurant in site which was very good, including the morning buffet. They also provided free wifi which is always great. There is a nice gym, and an outdoor pool which unfortunately not heated. Overall a nice property.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r193648955-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>193648955</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Avoid this Property</t>
+  </si>
+  <si>
+    <t>Miserable, sleepless experience beginning with unsmiling, unpleasant check in agent.  Requested room away from elevator and not facing highway.  Assigned room near elevator facing busy highway.  To add insult to injury, he woke me up around midnight to ask who was in room (he had apparently reassigned it after I'd been in there several hours).  Walls were paper thin and plumbing noises were nearly as loud as highway.  Room refrigerator had mold.  I stay in hotels over 150 nights per year all around the country and have ample basis for comparison.  This one ranks in the bottom 5%.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Miserable, sleepless experience beginning with unsmiling, unpleasant check in agent.  Requested room away from elevator and not facing highway.  Assigned room near elevator facing busy highway.  To add insult to injury, he woke me up around midnight to ask who was in room (he had apparently reassigned it after I'd been in there several hours).  Walls were paper thin and plumbing noises were nearly as loud as highway.  Room refrigerator had mold.  I stay in hotels over 150 nights per year all around the country and have ample basis for comparison.  This one ranks in the bottom 5%.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r193562110-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1907,51 @@
     <t xml:space="preserve">thank you bobby &amp; stefanie for: giving us the last suitesending over your shuttle to a different hotel because United overbooked the La Quinta we were supposed to stay in somehow making the voucher united gave us work to pay for the roomfinding us the only place in Houston that still delivereddealing with my flustered, tired self on the phone, dealing with a day of delayed, canceled planes on the first day of my honeymoon. service is all about what you do for people when they are in a crisis. Definitely hate United, love the service at this hotel! Thank you! And now it's time to sleep. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r188254354-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>188254354</t>
+  </si>
+  <si>
+    <t>12/21/2013</t>
+  </si>
+  <si>
+    <t>Bobby employee</t>
+  </si>
+  <si>
+    <t>Bobby is exceptional employee with an astute understanding of customer service.  He and this hotel took great care of our elderly mother when she was suddenly stranded due to weather. This was a FANTASTIC experience, we will be using these guys again soon!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded December 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2013</t>
+  </si>
+  <si>
+    <t>Bobby is exceptional employee with an astute understanding of customer service.  He and this hotel took great care of our elderly mother when she was suddenly stranded due to weather. This was a FANTASTIC experience, we will be using these guys again soon!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r187889356-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>187889356</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>The definition of freindly</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel enroute to Cancun for one night. Shuttle that collected us from the airport was nice and prompt and Erin (sorry if I got that wrong!) the driver was simply amazing, he really seemed to care that we had a good time while we were staying there, recommended restaurants, places to go, and even drove us wherever we wanted to go, and picked us up after our meal out. We were welcomed warmly and taken care of super efficiently, honestly I cannot say enough good things about the staff here, they made our 18 hours in Houston super special, and they are one of the reason's we are thinking about coming back for a long weekend sometime. The only reason I haven't given 5 stars is because the hotel itself is looking a little 'tired', but I'm sure if the staff keep up the amazing work they'll have enough money to renovate soon enough. Unfortunately next time we come to Houston we won';t stay here because we'd like to check out the city, but this be the ONLY airport hotel I will recommend in Houston. Hi to Erin from Danny and Erika from Canada!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel enroute to Cancun for one night. Shuttle that collected us from the airport was nice and prompt and Erin (sorry if I got that wrong!) the driver was simply amazing, he really seemed to care that we had a good time while we were staying there, recommended restaurants, places to go, and even drove us wherever we wanted to go, and picked us up after our meal out. We were welcomed warmly and taken care of super efficiently, honestly I cannot say enough good things about the staff here, they made our 18 hours in Houston super special, and they are one of the reason's we are thinking about coming back for a long weekend sometime. The only reason I haven't given 5 stars is because the hotel itself is looking a little 'tired', but I'm sure if the staff keep up the amazing work they'll have enough money to renovate soon enough. Unfortunately next time we come to Houston we won';t stay here because we'd like to check out the city, but this be the ONLY airport hotel I will recommend in Houston. Hi to Erin from Danny and Erika from Canada!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r171524805-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1319,15 +2033,48 @@
     <t>Flight delayed.  Forced to stay overnight in Houston and rebooked for an early morning flight next day.  Small dollar voucher provided by airline not sufficient to stay at a "nice hotel" and for the 12 hours I'd be there, wasn't going to spring for a better hotel. It is what it is-a Holiday Inn Express.  No bells and whistles.  Comfortable bed But halls smelled a little of cigarette smoke.   And side of building I Was on had a bright light coming through window that was hard to block out .  A least coffee at 5:30 AM in lobby was good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r164528837-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>164528837</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>By Far Not Good</t>
+  </si>
+  <si>
+    <t>If you don't like insects, don't stay here. I stayed in a suite here and the room was full of bugs. The light fixture had at least 3 live bugs crawling in it not to mention the dead ones. Watch the bed, I found a small spider crawling across it. The bathroom had two live ones. The shower head didn't work as it should have and sprayed water everywhere. When we first entered the room we noticed the trash cans were not emptied, and full of garbage. The front desk sent someone up to fix the problems. The furniture is all mix and match, and badly worn. The elevator was dirty inside, as well as the hallway floors. When I checked out we asked the desk about the problems with the insects, and was told "well what do you expect, it's Texas" HUH? I guess I could have slept outdoors! I was also told by the front desk, and on line there was big truck parking in the back, do not try to drive in there! There is only enough parking for a few cars, and "NO" turnaround.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you don't like insects, don't stay here. I stayed in a suite here and the room was full of bugs. The light fixture had at least 3 live bugs crawling in it not to mention the dead ones. Watch the bed, I found a small spider crawling across it. The bathroom had two live ones. The shower head didn't work as it should have and sprayed water everywhere. When we first entered the room we noticed the trash cans were not emptied, and full of garbage. The front desk sent someone up to fix the problems. The furniture is all mix and match, and badly worn. The elevator was dirty inside, as well as the hallway floors. When I checked out we asked the desk about the problems with the insects, and was told "well what do you expect, it's Texas" HUH? I guess I could have slept outdoors! I was also told by the front desk, and on line there was big truck parking in the back, do not try to drive in there! There is only enough parking for a few cars, and "NO" turnaround.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r164447393-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>164447393</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Surprised by the space of the rooms</t>
+  </si>
+  <si>
+    <t>Got stuck in Houston due to storm delayed flights so while waiting in line at United to rebook, went online and made a reservation at HIE Airport East. Once I got out of the airport it was easy to find the hotel and check-in. Room reminded me of an Embassy Suite for has a separate sitting area divided from the bedroom by a central bathroom. Bed was comfortable, room was clean and price was reasonable. My only complaint was AC was set too low. I tried to adjust but even with assistance from Engineering, room temperature was closer to a Meat Locker than a hotel room. I would recommend this property to anyone traveling through Houston for a couple of days but make sure you get a room where you can adjust the temp!MoreShow less</t>
+  </si>
+  <si>
+    <t>Got stuck in Houston due to storm delayed flights so while waiting in line at United to rebook, went online and made a reservation at HIE Airport East. Once I got out of the airport it was easy to find the hotel and check-in. Room reminded me of an Embassy Suite for has a separate sitting area divided from the bedroom by a central bathroom. Bed was comfortable, room was clean and price was reasonable. My only complaint was AC was set too low. I tried to adjust but even with assistance from Engineering, room temperature was closer to a Meat Locker than a hotel room. I would recommend this property to anyone traveling through Houston for a couple of days but make sure you get a room where you can adjust the temp!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r164396175-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
     <t>164396175</t>
   </si>
   <si>
-    <t>06/18/2013</t>
-  </si>
-  <si>
     <t>Not an option for me</t>
   </si>
   <si>
@@ -1388,6 +2135,42 @@
     <t>I stayed 1 night at this hotel which has the most beautiful decor of any HIX I have ever seen around the world. Lovely lobby area, nice paintings- not the typical HIX art work, spotless carpets and walls in the hallway and room. This hotel is either new or newly renovated with mega dollars spent. Breakfast area was beautiful as well and clean, breakfast options typical for HIX. Some of the reviewers have the wrong hotel: there are only 3 floors, there is no row of restaurants nearby, there is no restaurant in the hotel.The woman at the desk in the evening was super helpful and friendly, the hotel van driver likewise.Only negatives I saw were a sofa with a broken leg in my room and a neglected fitness room (equipment needed repair).I wish other hotels in this price range were this beautiful!  If you have to stay a night at the IAH airport, this is the place. I was disgruntled upon arrival due to airline issues, this place cheered me up.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r161451232-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>161451232</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Good Airport Option</t>
+  </si>
+  <si>
+    <t>For some intangible reason, hotels located around airports always have the depressing vibe of "we know you don't want to stay HERE, but you are just because you're on your way somewhere else".  This place does its best to make you feel that you might actually want to be staying here, which is a welcome change.Another thing, I have no idea what the difference is between a "Holiday Inn" and a "Holiday Inn Express".  There is a full-fledged Holiday Inn on JFK (about same distance from the airport), and the only difference I can notice is that they have more breakfast options (at a cost) while this place has the typical HIexpress buffet setup of drowsy/hungover guests fumbling the communal offerings of scrambled eggs, sausage and cinnamon buns.Room quality is great.  My standard king-bed room felt more like a suite which had a detached living area from the bedroom (with TV 's in each).As far as location goes, I prefer this over the non-express Holiday Inn, as it is close to a strip of all the restaurants and big box stores you'll ever need.  MoreShow less</t>
+  </si>
+  <si>
+    <t>For some intangible reason, hotels located around airports always have the depressing vibe of "we know you don't want to stay HERE, but you are just because you're on your way somewhere else".  This place does its best to make you feel that you might actually want to be staying here, which is a welcome change.Another thing, I have no idea what the difference is between a "Holiday Inn" and a "Holiday Inn Express".  There is a full-fledged Holiday Inn on JFK (about same distance from the airport), and the only difference I can notice is that they have more breakfast options (at a cost) while this place has the typical HIexpress buffet setup of drowsy/hungover guests fumbling the communal offerings of scrambled eggs, sausage and cinnamon buns.Room quality is great.  My standard king-bed room felt more like a suite which had a detached living area from the bedroom (with TV 's in each).As far as location goes, I prefer this over the non-express Holiday Inn, as it is close to a strip of all the restaurants and big box stores you'll ever need.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r153193433-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>153193433</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Very Friendly Staff</t>
+  </si>
+  <si>
+    <t>We missed a flight and stayed here for 1 night compliments of United Airlines. The room was good not great. A little aged but clean. Our check-in was quick and staff was very courteous. We ate dinner and breakfast in their restaurant, which was very convenient and good. I would recommend for short stay. Free Airport shuttle was a definite plus and it runs every 30 minutes during peak times.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r149724497-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1448,6 +2231,57 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r143998053-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>143998053</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>Muy buena opcion para estadias cercanas al aeropuerto de Huston</t>
+  </si>
+  <si>
+    <t>Me tuve que hospedar en este hotel d3bido a que mi vuelo Huston-Las Vegas fue cancelado. Queda muy cerca del aeropuerto, tienen servicio de transporte propio y la atencion dl personal fue excelente, igual que las instalaciones y el precio ($140 por una noche en habitacion doble).  Lo recomiendo 100%I had to stay at this hotel because my fligt Huston-Las Vegas was cancelled and I couldn't get in another fligth. This hotel is nearby the airport and has shuttle service. The attention was great, same as the facillities and the price ($140.00 for a night in a double room). I rcomend it 100%</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r140357910-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>140357910</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Staff is Great!</t>
+  </si>
+  <si>
+    <t>Pros: The staff is very friendly and accomodating. I had a shuttle issue and the driver accompanied me in to talk to the desk clerk so it didn't happen to someone else. They both were very apologetic. I also had a minor maintenance problem and a very friendly housekeeper took care of it.  Due to my inconveniences, the clerk issued me a voucher for Priority Club points without me even asking. Close to airport - 3 minutes. 2 flat screen TVs - one in bedroom area and one in sitting area. Microwave, mini frig, coffee maker. Sofa bed, upholstered chair, coffee &amp; end tables. Sufficient number/locations of outlets. Good WiFi connection. Work desk. Full length mirror. Lots of storage. USA Today free to Priority Club members. Free shuttle to airport - runs every 30 minutes with reservation - must be in lobby 10 minutes before schedule. Very prompt.
+Cons: The bathroom doors open in toward the vanity - awkward. Had to request a bill when checking out at 5:30 AM
+Misc Comments: Foam pillows.  Free breakfast buffet included at 6:30-9:30 AM. 24 hour fitness center with 1 bike, 2 treadmills, stepper and multi-use weight machine. Located off lobby. Business center in lobby. Pool 6am-10pm towels provided. Delivery service available for food. Laundry valet M-F except holidays. Laundry machines $1 near elevator on 2nd &amp; 3rd floors. Ice, snacks, soaps, soda, ice cream on 1st &amp; 3rd floors.
+I would definately...Pros: The staff is very friendly and accomodating. I had a shuttle issue and the driver accompanied me in to talk to the desk clerk so it didn't happen to someone else. They both were very apologetic. I also had a minor maintenance problem and a very friendly housekeeper took care of it.  Due to my inconveniences, the clerk issued me a voucher for Priority Club points without me even asking. Close to airport - 3 minutes. 2 flat screen TVs - one in bedroom area and one in sitting area. Microwave, mini frig, coffee maker. Sofa bed, upholstered chair, coffee &amp; end tables. Sufficient number/locations of outlets. Good WiFi connection. Work desk. Full length mirror. Lots of storage. USA Today free to Priority Club members. Free shuttle to airport - runs every 30 minutes with reservation - must be in lobby 10 minutes before schedule. Very prompt.Cons: The bathroom doors open in toward the vanity - awkward. Had to request a bill when checking out at 5:30 AMMisc Comments: Foam pillows.  Free breakfast buffet included at 6:30-9:30 AM. 24 hour fitness center with 1 bike, 2 treadmills, stepper and multi-use weight machine. Located off lobby. Business center in lobby. Pool 6am-10pm towels provided. Delivery service available for food. Laundry valet M-F except holidays. Laundry machines $1 near elevator on 2nd &amp; 3rd floors. Ice, snacks, soaps, soda, ice cream on 1st &amp; 3rd floors.I would definately stay again for early AM flight departures.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>tonelocke, Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Pros: The staff is very friendly and accomodating. I had a shuttle issue and the driver accompanied me in to talk to the desk clerk so it didn't happen to someone else. They both were very apologetic. I also had a minor maintenance problem and a very friendly housekeeper took care of it.  Due to my inconveniences, the clerk issued me a voucher for Priority Club points without me even asking. Close to airport - 3 minutes. 2 flat screen TVs - one in bedroom area and one in sitting area. Microwave, mini frig, coffee maker. Sofa bed, upholstered chair, coffee &amp; end tables. Sufficient number/locations of outlets. Good WiFi connection. Work desk. Full length mirror. Lots of storage. USA Today free to Priority Club members. Free shuttle to airport - runs every 30 minutes with reservation - must be in lobby 10 minutes before schedule. Very prompt.
+Cons: The bathroom doors open in toward the vanity - awkward. Had to request a bill when checking out at 5:30 AM
+Misc Comments: Foam pillows.  Free breakfast buffet included at 6:30-9:30 AM. 24 hour fitness center with 1 bike, 2 treadmills, stepper and multi-use weight machine. Located off lobby. Business center in lobby. Pool 6am-10pm towels provided. Delivery service available for food. Laundry valet M-F except holidays. Laundry machines $1 near elevator on 2nd &amp; 3rd floors. Ice, snacks, soaps, soda, ice cream on 1st &amp; 3rd floors.
+I would definately...Pros: The staff is very friendly and accomodating. I had a shuttle issue and the driver accompanied me in to talk to the desk clerk so it didn't happen to someone else. They both were very apologetic. I also had a minor maintenance problem and a very friendly housekeeper took care of it.  Due to my inconveniences, the clerk issued me a voucher for Priority Club points without me even asking. Close to airport - 3 minutes. 2 flat screen TVs - one in bedroom area and one in sitting area. Microwave, mini frig, coffee maker. Sofa bed, upholstered chair, coffee &amp; end tables. Sufficient number/locations of outlets. Good WiFi connection. Work desk. Full length mirror. Lots of storage. USA Today free to Priority Club members. Free shuttle to airport - runs every 30 minutes with reservation - must be in lobby 10 minutes before schedule. Very prompt.Cons: The bathroom doors open in toward the vanity - awkward. Had to request a bill when checking out at 5:30 AMMisc Comments: Foam pillows.  Free breakfast buffet included at 6:30-9:30 AM. 24 hour fitness center with 1 bike, 2 treadmills, stepper and multi-use weight machine. Located off lobby. Business center in lobby. Pool 6am-10pm towels provided. Delivery service available for food. Laundry valet M-F except holidays. Laundry machines $1 near elevator on 2nd &amp; 3rd floors. Ice, snacks, soaps, soda, ice cream on 1st &amp; 3rd floors.I would definately stay again for early AM flight departures.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r140275749-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1463,15 +2297,6 @@
     <t>Staff is friendly, and the Meeting Space and Lobby are sophisticated and modern looking.Great for a corporate training, or any other small meeting.  I would recommend it to anyone in North Houston, as it is one of the nicer properties, and the staff seems to authentically care about your well being.MoreShow less</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
-    <t>tonelocke, Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded September 17, 2012</t>
-  </si>
-  <si>
-    <t>Responded September 17, 2012</t>
-  </si>
-  <si>
     <t>Staff is friendly, and the Meeting Space and Lobby are sophisticated and modern looking.Great for a corporate training, or any other small meeting.  I would recommend it to anyone in North Houston, as it is one of the nicer properties, and the staff seems to authentically care about your well being.More</t>
   </si>
   <si>
@@ -1520,6 +2345,51 @@
     <t>This is where we usually pick to stay when we fly out of IAH.  It's close to the airport, close to parking facilities and we've always had great service.  We stayed here the night before our flight and the night we returned because it was so late.  The rooms are always clean, and we've never had a problem here.  There are some maintenance issues, but nothing major.  We always sleep well here too.  The beds are very comfy!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r130473250-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>130473250</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>Need faster wifi</t>
+  </si>
+  <si>
+    <t>I don't normally stay at airport hotels but location was important this time. I was very pleased but shorted the overall score because the  internet was slow.MoreShow less</t>
+  </si>
+  <si>
+    <t>tonelocke, General Manager at Comfort Inn &amp; Suites IAH Bush Airport – East, responded to this reviewResponded May 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2012</t>
+  </si>
+  <si>
+    <t>I don't normally stay at airport hotels but location was important this time. I was very pleased but shorted the overall score because the  internet was slow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r127498153-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>127498153</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>stuck at airport stayed here</t>
+  </si>
+  <si>
+    <t>We had  an unexpected layover from Costa Rica in Houston called the hotel for price rate march 2012 was great for last minute booking $65, pick up at airport took a little longer maybe cause of the last minute booking. Driver was very friendly, check in was quick but the room was unexpecedtly  fantastic very  updated clean ,so not sure from the previous comments if it was outdated last year.  Check in was quick an easy checkout  he had our ready driver  ready to take us to an early flight 5:30am  to airport. Only complaint we just recieved our bill april 7 2012 and it was double booked, we were charged for 2 nights, maybe an honest mistake  ,so check your bills. . Request the manager to audit  your books before the  Texas attorney general does ,as this should have been corrected before we found it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We had  an unexpected layover from Costa Rica in Houston called the hotel for price rate march 2012 was great for last minute booking $65, pick up at airport took a little longer maybe cause of the last minute booking. Driver was very friendly, check in was quick but the room was unexpecedtly  fantastic very  updated clean ,so not sure from the previous comments if it was outdated last year.  Check in was quick an easy checkout  he had our ready driver  ready to take us to an early flight 5:30am  to airport. Only complaint we just recieved our bill april 7 2012 and it was double booked, we were charged for 2 nights, maybe an honest mistake  ,so check your bills. . Request the manager to audit  your books before the  Texas attorney general does ,as this should have been corrected before we found it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r126116964-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1580,6 +2450,50 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r125416715-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>125416715</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>Nice king suite, noisy, noisy, noisy.</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 weeks in February 2012 as I was working nearby.   
+Check-in was a breeze, very easy and very quick.
+The room was a king suite which consisted of a little area with tv, desk and sofa, a little kitchen and obviously a bathroom and bedroom.  Quite large room but it wasn't required for the purpose of my visit as I would just watch the television in bed instead of in the living area.  The bed was really, really comfy, comfiest I've probably slept in in a hotel.
+Free wireless which is always nice, although it was quite a poor connection it still worked reasonably fast, no complaints.
+There is a swimming pool which is quite small but I would've used it had the weather been better.
+Breakfast was good, lots of different coffees, tea, bacon, sausage, biscuits, cereals and fruits.  The cinnamon buns are very, very nice.
+The downside was the noise, obviously the airport is nearby and the planes fly quite late which was irritating but also if you have a room at the side of the hotel where the road is, this can be annoying.  I got used to it though so it wasn't a big problem.  Another downside was the front desk can go quite some time without being manned, this was frustrating as I was requiring quarters for the laundry.
+Very conveniently placed, there is a good mall nearby where you can...I stayed here for 3 weeks in February 2012 as I was working nearby.   Check-in was a breeze, very easy and very quick.The room was a king suite which consisted of a little area with tv, desk and sofa, a little kitchen and obviously a bathroom and bedroom.  Quite large room but it wasn't required for the purpose of my visit as I would just watch the television in bed instead of in the living area.  The bed was really, really comfy, comfiest I've probably slept in in a hotel.Free wireless which is always nice, although it was quite a poor connection it still worked reasonably fast, no complaints.There is a swimming pool which is quite small but I would've used it had the weather been better.Breakfast was good, lots of different coffees, tea, bacon, sausage, biscuits, cereals and fruits.  The cinnamon buns are very, very nice.The downside was the noise, obviously the airport is nearby and the planes fly quite late which was irritating but also if you have a room at the side of the hotel where the road is, this can be annoying.  I got used to it though so it wasn't a big problem.  Another downside was the front desk can go quite some time without being manned, this was frustrating as I was requiring quarters for the laundry.Very conveniently placed, there is a good mall nearby where you can get all your shopping needs, also a Walmart is 5 minutes away too.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 weeks in February 2012 as I was working nearby.   
+Check-in was a breeze, very easy and very quick.
+The room was a king suite which consisted of a little area with tv, desk and sofa, a little kitchen and obviously a bathroom and bedroom.  Quite large room but it wasn't required for the purpose of my visit as I would just watch the television in bed instead of in the living area.  The bed was really, really comfy, comfiest I've probably slept in in a hotel.
+Free wireless which is always nice, although it was quite a poor connection it still worked reasonably fast, no complaints.
+There is a swimming pool which is quite small but I would've used it had the weather been better.
+Breakfast was good, lots of different coffees, tea, bacon, sausage, biscuits, cereals and fruits.  The cinnamon buns are very, very nice.
+The downside was the noise, obviously the airport is nearby and the planes fly quite late which was irritating but also if you have a room at the side of the hotel where the road is, this can be annoying.  I got used to it though so it wasn't a big problem.  Another downside was the front desk can go quite some time without being manned, this was frustrating as I was requiring quarters for the laundry.
+Very conveniently placed, there is a good mall nearby where you can...I stayed here for 3 weeks in February 2012 as I was working nearby.   Check-in was a breeze, very easy and very quick.The room was a king suite which consisted of a little area with tv, desk and sofa, a little kitchen and obviously a bathroom and bedroom.  Quite large room but it wasn't required for the purpose of my visit as I would just watch the television in bed instead of in the living area.  The bed was really, really comfy, comfiest I've probably slept in in a hotel.Free wireless which is always nice, although it was quite a poor connection it still worked reasonably fast, no complaints.There is a swimming pool which is quite small but I would've used it had the weather been better.Breakfast was good, lots of different coffees, tea, bacon, sausage, biscuits, cereals and fruits.  The cinnamon buns are very, very nice.The downside was the noise, obviously the airport is nearby and the planes fly quite late which was irritating but also if you have a room at the side of the hotel where the road is, this can be annoying.  I got used to it though so it wasn't a big problem.  Another downside was the front desk can go quite some time without being manned, this was frustrating as I was requiring quarters for the laundry.Very conveniently placed, there is a good mall nearby where you can get all your shopping needs, also a Walmart is 5 minutes away too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r125396532-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>125396532</t>
+  </si>
+  <si>
+    <t>cozy hotel w/ friendly staff</t>
+  </si>
+  <si>
+    <t>spacious and clean rooms. since i was their with my kids they were able to have fun in the living room, watching their shows, while i relaxed in the bed room. the breakfast was plentiful with lots of varieties. they also had warm fresh cookies and popcorn. Staff was friendly and informative.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r124980174-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1637,6 +2551,39 @@
     <t>Worst experience both in service and room. Maybe the worst hotel I have ever stayed in.  Teenage girl at desk when I checked in..she was busy gabbing to her friend on the phone and lied to me that she was helping another guest. She was too lazy to try and learn my name so the 18 yo kep calling me honey. The room was nasty; lumpy bed, unclean carpet, tiny bathroom etc. I checked out early to catch a flight. Desk was unattended. I rang bell and woman came out from office...she was all creased from sleeping! Meanwhile front door unlocked :(. She couldnt find my name to check me out..turns out little miss gabby from the nit before had never bothered to check me in. I told her that she should give me night for free...she had the nerve to tell me that I would be charged for a no show.! Problem with this place that it is owned by a person or group of persons and they contract with a management company to run it. The people working there have no supervision or accountability. Avoid this place like the plague.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r119642057-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>119642057</t>
+  </si>
+  <si>
+    <t>10/23/2011</t>
+  </si>
+  <si>
+    <t>AVOID THIS HOTEL LIKE THE PLAGUE!</t>
+  </si>
+  <si>
+    <t>Moved to this hotel for our last night in the Humble area in order to be close to the airport for an early morning flight.  After our wonderful "digs" the night before we were in shock.  This hotel needs to be torn down and rebuilt.  SHAME ON HOLIDAY INN for allowing such a run down property!  Had to ring for a person to come to the front desk for check-in.  The elevator was NOT working at 2:30pm, but "a guy named "Tiny" was coming on duty at 3p and he could probably fix it", we were told.  Lobby appearance?  Lamps did not match, furniture was old &amp; tired.  We left to visit relatives and returned around 7:30pm.  When we were there earlier we were told by Catherine that, "Sure, I can pick you up at your car rental place; I do it for customers."  Well, another person (India) was on duty and he refused to do that; said they had a new person and to take the shuttle to the terminal and go E or C because it would be easier for the new driver. (We were flying out of A)  FINALLY, the driver showed up after a couple of calls back to the hotel.  My left leg won't lift as high as it once did since I turned 62 and I very nearly did not make it into the van, it was so high.  My husband asked them if...Moved to this hotel for our last night in the Humble area in order to be close to the airport for an early morning flight.  After our wonderful "digs" the night before we were in shock.  This hotel needs to be torn down and rebuilt.  SHAME ON HOLIDAY INN for allowing such a run down property!  Had to ring for a person to come to the front desk for check-in.  The elevator was NOT working at 2:30pm, but "a guy named "Tiny" was coming on duty at 3p and he could probably fix it", we were told.  Lobby appearance?  Lamps did not match, furniture was old &amp; tired.  We left to visit relatives and returned around 7:30pm.  When we were there earlier we were told by Catherine that, "Sure, I can pick you up at your car rental place; I do it for customers."  Well, another person (India) was on duty and he refused to do that; said they had a new person and to take the shuttle to the terminal and go E or C because it would be easier for the new driver. (We were flying out of A)  FINALLY, the driver showed up after a couple of calls back to the hotel.  My left leg won't lift as high as it once did since I turned 62 and I very nearly did not make it into the van, it was so high.  My husband asked them if the interior of the van was for children because it was so TINY and uncomfortable (Dodge).  When we returned to our room almost an HOUR LATER from when we left the hotel, I took a better look at our room.  HORRIBLE, HORRIBLE, HORRIBLE.  This is NOT a Non-Smoking Property and there was a Smoker's Room across from us and the hallway reeked of CIGARETTE SMOKE!  The room was in such shabby condition I was glad we were staying FREE with our Priority Club Points and NOT paying for it!  Plaster had peeled off the wall in chunks, furniture needed to be burned, towels were almost threadbare; I could even see THROUGH the bath mat in one place!  When we went to bed I thought I must be laying on top of an old, thin blanket full of "pills".  I got up and turned the light on and looked and it was the SHEET!!!  It was so OLD and full of "pills" everywhere that I felt like bugs were on me all night.  I WILL NEVER RETURN TO THIS DILAPIDATED PROPERTY!  Oh, we were NOT recognized as Priority Club Members when we checked in!  This cheap hotel does NOT offer cookies in the afternoon and there is no little "gift package" for P.C. Members!  DUMP-O.  DO NOT STAY ON WILL CLAYTON PARKWAY!  GO TO JFK BLVD to nice hotels!!!!  YUKMoreShow less</t>
+  </si>
+  <si>
+    <t>Moved to this hotel for our last night in the Humble area in order to be close to the airport for an early morning flight.  After our wonderful "digs" the night before we were in shock.  This hotel needs to be torn down and rebuilt.  SHAME ON HOLIDAY INN for allowing such a run down property!  Had to ring for a person to come to the front desk for check-in.  The elevator was NOT working at 2:30pm, but "a guy named "Tiny" was coming on duty at 3p and he could probably fix it", we were told.  Lobby appearance?  Lamps did not match, furniture was old &amp; tired.  We left to visit relatives and returned around 7:30pm.  When we were there earlier we were told by Catherine that, "Sure, I can pick you up at your car rental place; I do it for customers."  Well, another person (India) was on duty and he refused to do that; said they had a new person and to take the shuttle to the terminal and go E or C because it would be easier for the new driver. (We were flying out of A)  FINALLY, the driver showed up after a couple of calls back to the hotel.  My left leg won't lift as high as it once did since I turned 62 and I very nearly did not make it into the van, it was so high.  My husband asked them if...Moved to this hotel for our last night in the Humble area in order to be close to the airport for an early morning flight.  After our wonderful "digs" the night before we were in shock.  This hotel needs to be torn down and rebuilt.  SHAME ON HOLIDAY INN for allowing such a run down property!  Had to ring for a person to come to the front desk for check-in.  The elevator was NOT working at 2:30pm, but "a guy named "Tiny" was coming on duty at 3p and he could probably fix it", we were told.  Lobby appearance?  Lamps did not match, furniture was old &amp; tired.  We left to visit relatives and returned around 7:30pm.  When we were there earlier we were told by Catherine that, "Sure, I can pick you up at your car rental place; I do it for customers."  Well, another person (India) was on duty and he refused to do that; said they had a new person and to take the shuttle to the terminal and go E or C because it would be easier for the new driver. (We were flying out of A)  FINALLY, the driver showed up after a couple of calls back to the hotel.  My left leg won't lift as high as it once did since I turned 62 and I very nearly did not make it into the van, it was so high.  My husband asked them if the interior of the van was for children because it was so TINY and uncomfortable (Dodge).  When we returned to our room almost an HOUR LATER from when we left the hotel, I took a better look at our room.  HORRIBLE, HORRIBLE, HORRIBLE.  This is NOT a Non-Smoking Property and there was a Smoker's Room across from us and the hallway reeked of CIGARETTE SMOKE!  The room was in such shabby condition I was glad we were staying FREE with our Priority Club Points and NOT paying for it!  Plaster had peeled off the wall in chunks, furniture needed to be burned, towels were almost threadbare; I could even see THROUGH the bath mat in one place!  When we went to bed I thought I must be laying on top of an old, thin blanket full of "pills".  I got up and turned the light on and looked and it was the SHEET!!!  It was so OLD and full of "pills" everywhere that I felt like bugs were on me all night.  I WILL NEVER RETURN TO THIS DILAPIDATED PROPERTY!  Oh, we were NOT recognized as Priority Club Members when we checked in!  This cheap hotel does NOT offer cookies in the afternoon and there is no little "gift package" for P.C. Members!  DUMP-O.  DO NOT STAY ON WILL CLAYTON PARKWAY!  GO TO JFK BLVD to nice hotels!!!!  YUKMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r119220138-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>119220138</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Airport Hotel</t>
+  </si>
+  <si>
+    <t>Alright place to stay while traveling. They got the airport business so they don't make much of an effort. Hotel needs some work and new linens, the ones I slept on were showing signs of age.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r116561227-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
   </si>
   <si>
@@ -1689,6 +2636,42 @@
   </si>
   <si>
     <t>Booked this at 12:30am for that night.  Everyone was very cooperative and nice.  In fact, when I walked into the hotel to check in, the staff person handed me the telephone and said "your husband's on the phone".  Just like home.  Left for a flight the next morning and had a great night's sleep.  Can't go wrong with this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r100669851-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>100669851</t>
+  </si>
+  <si>
+    <t>03/18/2011</t>
+  </si>
+  <si>
+    <t>Great location, great value</t>
+  </si>
+  <si>
+    <t>I stayed here the night prior to an early morning flight out of Intercontinental Airport.  The location is great!  It was so easy to get to the airport.  The suite was clean, comfortable, and the staff was great.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r57084704-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>57084704</t>
+  </si>
+  <si>
+    <t>02/25/2010</t>
+  </si>
+  <si>
+    <t>Much too loud, adjacent to Will Clayton Parkway.</t>
+  </si>
+  <si>
+    <t>Although the hotel had few cars (and I assume guests), we were given a room on the parkway side. Couldn't sleep at all with cars zooming by all night. There are other hotels in this area. I would stay in any of these before I went back to this one. Perhaps we were given this room because we had government rates, but it was an awful experience.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r56197298-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
@@ -1711,9 +2694,6 @@
 Next time I need...I arrived early in the morning after a 15 hour flight from Africa and was looking for a place to shower, go to the gym and check e/amils while waiting for a flight in the mid afternoon.I originally called some other hotels that had  a higher Trip Adviser rating but they wanted the full overnight rate even though I was checking out in the afternoon and they could re-rent my room. So I tried the Holiday Inn Express and was glad I did. Not only did the mamanger give me a great rate but they sent the shuttle to pick me up within ten minutes and both Jose and Stephanie, the manager were so helpful.I arrived after breakfast was over so can´t comment.My room was a suite room with kitchen  opposite the maid´s laundry room but still very quiet. Lots of space with a bedroom area with TV, a living room area with sofas and TV and a cooking area. The bathroom is a bit small with a small shower inside a mini tub. iThe room was a bit old but spotless. Wifi was fast and free. The gym was so so--most of the equipment is old and broken. The pool is tiny and not in use in winter.They held my luggage until I returned from my trip a few days later even though I wasn´t staying with them upon my return.Next time I need a few hours rest or an early start for the airport, I´m staying here. This place isn´t fancy, but it is well managed and the staff are kindness itself.MoreShow less</t>
   </si>
   <si>
-    <t>February 2010</t>
-  </si>
-  <si>
     <t>I arrived early in the morning after a 15 hour flight from Africa and was looking for a place to shower, go to the gym and check e/amils while waiting for a flight in the mid afternoon.
 I originally called some other hotels that had  a higher Trip Adviser rating but they wanted the full overnight rate even though I was checking out in the afternoon and they could re-rent my room. So I tried the Holiday Inn Express and was glad I did. Not only did the mamanger give me a great rate but they sent the shuttle to pick me up within ten minutes and both Jose and Stephanie, the manager were so helpful.
 I arrived after breakfast was over so can´t comment.
@@ -1762,6 +2742,48 @@
   </si>
   <si>
     <t>I had an 8 hour lay over after taking a red eye flight from California. Rather than hanging around in the Houston airport I decided to google the closest hotels to the airport so I could check-in and sleep. The marriott was the closest but they wanted $200.00 for the day. I came accross the Holiday Inn express and was a bit reluctant as the Holiday Inn where I live is pretty shabby. Against my better judgement, I went ahead and gave them a call and they were able to work out a price deal for me and check me in at 6:00am when I arrived from the airport. It's  a really small hotel but the staff is very nice and friendly (shuttle driver &amp; front desk agent Pemi?). The bed was the most comfortable one I had slept in for my entire 2 week vacation. They provide an airport shuttle every 30 minutes, complimentary breakfast, and walmart is a hop and a skip away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r34049765-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>34049765</t>
+  </si>
+  <si>
+    <t>07/06/2009</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay very much</t>
+  </si>
+  <si>
+    <t>My husband and I were able to get away from the kids for a night.  We wanted to stay close by but still feel like we "got away".  So we stayed one night in this hotel.  We originally booked a jacuzzi suite which we understood would be a separate bath tub in the room.  When we called to verify the reservations the woman at the front desk informed me it was just a jetted tub.  This upset us at first but we were locked in at a discounted rate through advance purchase and could not cancel our reservation.  However, at check in the woman remembered us and apologized profusely for the mix-up.  She treated us very kindly and gave an additional discount.  The room we stayed in was very clean and very quiet.  We really felt relaxed and we enjoyed the stay very much.  The hotel is decorated beautifully.  The breakfast was very good.  It had alot of choices and it was well stocked.  The coffee was wonderful!  I would recommend this to anyone and everyone.  I hope to visit again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>My husband and I were able to get away from the kids for a night.  We wanted to stay close by but still feel like we "got away".  So we stayed one night in this hotel.  We originally booked a jacuzzi suite which we understood would be a separate bath tub in the room.  When we called to verify the reservations the woman at the front desk informed me it was just a jetted tub.  This upset us at first but we were locked in at a discounted rate through advance purchase and could not cancel our reservation.  However, at check in the woman remembered us and apologized profusely for the mix-up.  She treated us very kindly and gave an additional discount.  The room we stayed in was very clean and very quiet.  We really felt relaxed and we enjoyed the stay very much.  The hotel is decorated beautifully.  The breakfast was very good.  It had alot of choices and it was well stocked.  The coffee was wonderful!  I would recommend this to anyone and everyone.  I hope to visit again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r27833537-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>27833537</t>
+  </si>
+  <si>
+    <t>04/11/2009</t>
+  </si>
+  <si>
+    <t>Great Airport Overnight Stay Before Cruise</t>
+  </si>
+  <si>
+    <t>We selected this hotel in Houston for an overnight stay when flying into George Bush Intercontinental Airport for our cruise out of Galveston the next day because it offers a complimentary airport shuttle and hot breakfast, and is within walking distance to several fast-foods (Sonic, yes!!!).  We reserved two rooms at a decent price that included kitchens to give us extra space since we had three people in each room.  There was also a sitting room and 2 TVs.  The beds were SO comfortable! The staff at this hotel is to be commended for their courtesy and professionalism.  Our airport shuttle driver, Reginald, was such a pleasant, happy person and he offered to drive guests anywhere they liked, including to restaurants for dinner.  We chose to walk to Sonic and he drove over upon our arrival to let us know he also provides security!  What a guy.  We carried our dinner back to the hotel and ate in the nice dining area where breakfast is served. Upon check-in, the gentleman at the registration desk was also very pleasant and professional and gave us a gift bag for being Priority Club members...I'm sorry to say I didn't get his name. The only thing I can ding this hotel on is the size of the bedrooms that contain two queen beds.  There was no room to get out of each of the sides of the beds next to the walls - you...We selected this hotel in Houston for an overnight stay when flying into George Bush Intercontinental Airport for our cruise out of Galveston the next day because it offers a complimentary airport shuttle and hot breakfast, and is within walking distance to several fast-foods (Sonic, yes!!!).  We reserved two rooms at a decent price that included kitchens to give us extra space since we had three people in each room.  There was also a sitting room and 2 TVs.  The beds were SO comfortable! The staff at this hotel is to be commended for their courtesy and professionalism.  Our airport shuttle driver, Reginald, was such a pleasant, happy person and he offered to drive guests anywhere they liked, including to restaurants for dinner.  We chose to walk to Sonic and he drove over upon our arrival to let us know he also provides security!  What a guy.  We carried our dinner back to the hotel and ate in the nice dining area where breakfast is served. Upon check-in, the gentleman at the registration desk was also very pleasant and professional and gave us a gift bag for being Priority Club members...I'm sorry to say I didn't get his name. The only thing I can ding this hotel on is the size of the bedrooms that contain two queen beds.  There was no room to get out of each of the sides of the beds next to the walls - you had to get out at the bottom of the bed!  The complimentary hot breakfast was just okay, but saved us money and time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>We selected this hotel in Houston for an overnight stay when flying into George Bush Intercontinental Airport for our cruise out of Galveston the next day because it offers a complimentary airport shuttle and hot breakfast, and is within walking distance to several fast-foods (Sonic, yes!!!).  We reserved two rooms at a decent price that included kitchens to give us extra space since we had three people in each room.  There was also a sitting room and 2 TVs.  The beds were SO comfortable! The staff at this hotel is to be commended for their courtesy and professionalism.  Our airport shuttle driver, Reginald, was such a pleasant, happy person and he offered to drive guests anywhere they liked, including to restaurants for dinner.  We chose to walk to Sonic and he drove over upon our arrival to let us know he also provides security!  What a guy.  We carried our dinner back to the hotel and ate in the nice dining area where breakfast is served. Upon check-in, the gentleman at the registration desk was also very pleasant and professional and gave us a gift bag for being Priority Club members...I'm sorry to say I didn't get his name. The only thing I can ding this hotel on is the size of the bedrooms that contain two queen beds.  There was no room to get out of each of the sides of the beds next to the walls - you...We selected this hotel in Houston for an overnight stay when flying into George Bush Intercontinental Airport for our cruise out of Galveston the next day because it offers a complimentary airport shuttle and hot breakfast, and is within walking distance to several fast-foods (Sonic, yes!!!).  We reserved two rooms at a decent price that included kitchens to give us extra space since we had three people in each room.  There was also a sitting room and 2 TVs.  The beds were SO comfortable! The staff at this hotel is to be commended for their courtesy and professionalism.  Our airport shuttle driver, Reginald, was such a pleasant, happy person and he offered to drive guests anywhere they liked, including to restaurants for dinner.  We chose to walk to Sonic and he drove over upon our arrival to let us know he also provides security!  What a guy.  We carried our dinner back to the hotel and ate in the nice dining area where breakfast is served. Upon check-in, the gentleman at the registration desk was also very pleasant and professional and gave us a gift bag for being Priority Club members...I'm sorry to say I didn't get his name. The only thing I can ding this hotel on is the size of the bedrooms that contain two queen beds.  There was no room to get out of each of the sides of the beds next to the walls - you had to get out at the bottom of the bed!  The complimentary hot breakfast was just okay, but saved us money and time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d247107-r22877506-Comfort_Inn_Suites_IAH_Bush_Airport_East-Humble_Texas.html</t>
@@ -2358,14 +3380,14 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -2413,14 +3435,10 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -2449,38 +3467,40 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
@@ -2494,7 +3514,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -2510,34 +3530,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2551,7 +3571,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2567,52 +3587,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -2628,56 +3648,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2693,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2702,22 +3714,22 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
@@ -2731,14 +3743,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" t="s">
-        <v>100</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -2754,7 +3762,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2763,22 +3771,26 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2788,14 +3800,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -2811,7 +3819,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2820,25 +3828,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2850,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -2872,7 +3880,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2881,47 +3889,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -2937,7 +3945,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2946,49 +3954,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -3004,7 +4012,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -3013,43 +4021,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -3065,7 +4077,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3074,25 +4086,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3104,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -3126,7 +4138,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3135,47 +4147,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="s">
-        <v>156</v>
-      </c>
-      <c r="O15" t="s">
-        <v>60</v>
-      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3191,7 +4195,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3200,25 +4204,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3230,13 +4234,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="X16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -3252,7 +4256,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3261,25 +4265,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3291,13 +4295,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -3313,7 +4317,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3322,43 +4326,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -3374,7 +4382,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3383,32 +4391,36 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -3419,7 +4431,7 @@
         <v>181</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -3435,52 +4447,58 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
         <v>190</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="Y20" t="s">
         <v>191</v>
-      </c>
-      <c r="J20" t="s">
-        <v>192</v>
-      </c>
-      <c r="K20" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>195</v>
-      </c>
-      <c r="O20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>196</v>
-      </c>
-      <c r="X20" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21">
@@ -3496,58 +4514,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>197</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
         <v>199</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="Y21" t="s">
         <v>200</v>
-      </c>
-      <c r="J21" t="s">
-        <v>201</v>
-      </c>
-      <c r="K21" t="s">
-        <v>202</v>
-      </c>
-      <c r="L21" t="s">
-        <v>203</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>204</v>
-      </c>
-      <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
-      <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>140</v>
-      </c>
-      <c r="X21" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -3563,7 +4575,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3572,49 +4584,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="X22" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
@@ -3630,52 +4642,58 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
         <v>212</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>213</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
         <v>214</v>
       </c>
-      <c r="K23" t="s">
-        <v>215</v>
-      </c>
-      <c r="L23" t="s">
-        <v>216</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>217</v>
-      </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="X23" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
@@ -3691,56 +4709,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>219</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>220</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>221</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>222</v>
       </c>
-      <c r="L24" t="s">
-        <v>223</v>
-      </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
         <v>224</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>225</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="25">
@@ -3756,41 +4770,45 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>227</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>228</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>229</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>230</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>231</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>217</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
@@ -3838,31 +4856,31 @@
         <v>239</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>198</v>
+      </c>
+      <c r="X26" t="s">
+        <v>199</v>
+      </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -3878,40 +4896,42 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
         <v>242</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>243</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>244</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>245</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>246</v>
       </c>
-      <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>240</v>
-      </c>
       <c r="O27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3964,24 +4984,20 @@
         <v>254</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
@@ -4029,31 +5045,31 @@
         <v>262</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
         <v>263</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
       <c r="Y29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
@@ -4069,7 +5085,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4078,45 +5094,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
         <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>270</v>
+      </c>
+      <c r="X30" t="s">
+        <v>271</v>
+      </c>
       <c r="Y30" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
@@ -4132,7 +5146,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4141,45 +5155,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
         <v>270</v>
       </c>
-      <c r="J31" t="s">
+      <c r="X31" t="s">
         <v>271</v>
       </c>
-      <c r="K31" t="s">
-        <v>272</v>
-      </c>
-      <c r="L31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>263</v>
-      </c>
-      <c r="O31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
-      <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
@@ -4195,7 +5207,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4204,45 +5216,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" t="s">
+        <v>271</v>
+      </c>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
@@ -4258,7 +5274,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4267,25 +5283,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
+        <v>291</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>285</v>
       </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>286</v>
-      </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4296,10 +5312,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
@@ -4315,7 +5335,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4324,47 +5344,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
@@ -4380,7 +5396,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4389,28 +5405,30 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
       <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
@@ -4422,10 +5440,14 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>198</v>
+      </c>
+      <c r="X35" t="s">
+        <v>199</v>
+      </c>
       <c r="Y35" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
@@ -4441,7 +5463,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4450,43 +5472,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>307</v>
+        <v>198</v>
       </c>
       <c r="X36" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
@@ -4502,7 +5530,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4511,49 +5539,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>315</v>
+        <v>198</v>
       </c>
       <c r="X37" t="s">
-        <v>316</v>
+        <v>199</v>
       </c>
       <c r="Y37" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38">
@@ -4569,7 +5591,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4578,43 +5600,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="X38" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Y38" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
@@ -4630,7 +5656,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4639,45 +5665,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>198</v>
+      </c>
+      <c r="X39" t="s">
+        <v>199</v>
+      </c>
       <c r="Y39" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
@@ -4693,7 +5717,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4702,39 +5726,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="J40" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+      <c r="N40" t="s">
+        <v>336</v>
+      </c>
+      <c r="O40" t="s">
+        <v>103</v>
+      </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="X40" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Y40" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41">
@@ -4750,7 +5782,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4759,53 +5791,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J41" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>3</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="X41" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
@@ -4821,7 +5843,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4830,43 +5852,47 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="J42" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K42" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>356</v>
+        <v>198</v>
       </c>
       <c r="X42" t="s">
-        <v>357</v>
+        <v>199</v>
       </c>
       <c r="Y42" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43">
@@ -4882,62 +5908,58 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
         <v>359</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>360</v>
-      </c>
-      <c r="J43" t="s">
-        <v>361</v>
-      </c>
-      <c r="K43" t="s">
-        <v>362</v>
-      </c>
-      <c r="L43" t="s">
-        <v>363</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>364</v>
-      </c>
       <c r="O43" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>365</v>
+        <v>198</v>
       </c>
       <c r="X43" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y43" t="s">
         <v>366</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="44">
@@ -4953,44 +5975,38 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
         <v>368</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>369</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>370</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>371</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>372</v>
       </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>373</v>
-      </c>
       <c r="O44" t="s">
-        <v>79</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
         <v>5</v>
       </c>
@@ -5004,7 +6020,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45">
@@ -5020,19 +6036,19 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
         <v>375</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>376</v>
-      </c>
-      <c r="J45" t="s">
-        <v>370</v>
       </c>
       <c r="K45" t="s">
         <v>377</v>
@@ -5041,26 +6057,20 @@
         <v>378</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -5068,10 +6078,14 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>379</v>
+      </c>
+      <c r="X45" t="s">
+        <v>380</v>
+      </c>
       <c r="Y45" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46">
@@ -5087,7 +6101,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5096,39 +6110,47 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J46" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K46" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>388</v>
+      </c>
       <c r="Y46" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47">
@@ -5144,7 +6166,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5153,53 +6175,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="O47" t="s">
-        <v>139</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>390</v>
+        <v>198</v>
       </c>
       <c r="X47" t="s">
-        <v>391</v>
+        <v>199</v>
       </c>
       <c r="Y47" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48">
@@ -5215,7 +6231,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5224,49 +6240,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J48" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>403</v>
+      </c>
+      <c r="X48" t="s">
+        <v>404</v>
+      </c>
       <c r="Y48" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49">
@@ -5282,7 +6292,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5291,39 +6301,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="J49" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s">
+        <v>409</v>
+      </c>
+      <c r="L49" t="s">
+        <v>410</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
         <v>402</v>
       </c>
-      <c r="L49" t="s">
-        <v>403</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>398</v>
-      </c>
       <c r="O49" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50">
@@ -5339,7 +6353,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5348,53 +6362,45 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="J50" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="K50" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>410</v>
-      </c>
-      <c r="X50" t="s">
-        <v>411</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51">
@@ -5410,7 +6416,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5419,35 +6425,31 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J51" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K51" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
         <v>5</v>
       </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
         <v>5</v>
       </c>
@@ -5458,12 +6460,8 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>419</v>
-      </c>
-      <c r="X51" t="s">
-        <v>420</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
         <v>421</v>
       </c>
@@ -5508,14 +6506,18 @@
         <v>427</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
@@ -5563,41 +6565,33 @@
         <v>435</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="O53" t="s">
         <v>53</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
         <v>4</v>
       </c>
-      <c r="S53" t="n">
-        <v>2</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>428</v>
-      </c>
-      <c r="X53" t="s">
-        <v>429</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54">
@@ -5613,25 +6607,25 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>436</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>437</v>
+      </c>
+      <c r="J54" t="s">
         <v>438</v>
       </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>439</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>440</v>
-      </c>
-      <c r="K54" t="s">
-        <v>441</v>
-      </c>
-      <c r="L54" t="s">
-        <v>442</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5640,17 +6634,13 @@
         <v>427</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
         <v>5</v>
       </c>
@@ -5661,14 +6651,10 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>443</v>
-      </c>
-      <c r="X54" t="s">
-        <v>444</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55">
@@ -5684,58 +6670,48 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>441</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>442</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+      <c r="K55" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" t="s">
+        <v>445</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
         <v>446</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
-        <v>447</v>
-      </c>
-      <c r="J55" t="s">
-        <v>448</v>
-      </c>
-      <c r="K55" t="s">
-        <v>449</v>
-      </c>
-      <c r="L55" t="s">
-        <v>450</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="O55" t="s">
+        <v>103</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>451</v>
-      </c>
-      <c r="X55" t="s">
-        <v>452</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56">
@@ -5751,7 +6727,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5760,53 +6736,47 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J56" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K56" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L56" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="O56" t="s">
         <v>53</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="X56" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="Y56" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57">
@@ -5822,7 +6792,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5831,45 +6801,39 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="J57" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K57" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L57" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>446</v>
+      </c>
+      <c r="O57" t="s">
+        <v>113</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58">
@@ -5885,7 +6849,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5894,47 +6858,43 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J58" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K58" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L58" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="P58" t="s"/>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>2</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>466</v>
+      </c>
+      <c r="X58" t="s">
+        <v>467</v>
+      </c>
       <c r="Y58" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59">
@@ -5950,7 +6910,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5959,35 +6919,29 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J59" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K59" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L59" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
         <v>5</v>
       </c>
@@ -5998,14 +6952,10 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>480</v>
-      </c>
-      <c r="X59" t="s">
-        <v>481</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60">
@@ -6021,7 +6971,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6030,25 +6980,25 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J60" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K60" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="O60" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6060,13 +7010,13 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="X60" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="Y60" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61">
@@ -6082,7 +7032,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6091,53 +7041,49 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J61" t="s">
         <v>485</v>
       </c>
       <c r="K61" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="L61" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="O61" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s"/>
       <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="X61" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="Y61" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62">
@@ -6153,7 +7099,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6162,49 +7108,43 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="J62" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K62" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L62" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
-      </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
       <c r="P62" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>3</v>
-      </c>
-      <c r="R62" t="n">
-        <v>4</v>
-      </c>
-      <c r="S62" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>503</v>
-      </c>
-      <c r="X62" t="s">
-        <v>504</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63">
@@ -6220,7 +7160,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6229,49 +7169,45 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="J63" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K63" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="L63" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
-      <c r="P63" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>452</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
       <c r="R63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>503</v>
-      </c>
-      <c r="X63" t="s">
-        <v>504</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64">
@@ -6287,7 +7223,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6296,49 +7232,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="J64" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="K64" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="L64" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>507</v>
+      </c>
+      <c r="X64" t="s">
+        <v>508</v>
+      </c>
       <c r="Y64" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65">
@@ -6354,7 +7284,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6363,38 +7293,34 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="J65" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="K65" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L65" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="O65" t="s">
         <v>53</v>
       </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="n">
         <v>5</v>
       </c>
       <c r="R65" t="n">
         <v>5</v>
       </c>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -6405,7 +7331,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66">
@@ -6421,58 +7347,48 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
+        <v>517</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>518</v>
+      </c>
+      <c r="J66" t="s">
+        <v>519</v>
+      </c>
+      <c r="K66" t="s">
+        <v>520</v>
+      </c>
+      <c r="L66" t="s">
+        <v>521</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>522</v>
+      </c>
+      <c r="X66" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y66" t="s">
         <v>524</v>
-      </c>
-      <c r="G66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" t="s">
-        <v>525</v>
-      </c>
-      <c r="J66" t="s">
-        <v>526</v>
-      </c>
-      <c r="K66" t="s">
-        <v>527</v>
-      </c>
-      <c r="L66" t="s">
-        <v>528</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2</v>
-      </c>
-      <c r="N66" t="s">
-        <v>529</v>
-      </c>
-      <c r="O66" t="s">
-        <v>79</v>
-      </c>
-      <c r="P66" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1</v>
-      </c>
-      <c r="R66" t="n">
-        <v>3</v>
-      </c>
-      <c r="S66" t="n">
-        <v>2</v>
-      </c>
-      <c r="T66" t="s"/>
-      <c r="U66" t="n">
-        <v>4</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="67">
@@ -6488,7 +7404,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6497,41 +7413,35 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="J67" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K67" t="s">
-        <v>534</v>
+        <v>62</v>
       </c>
       <c r="L67" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
         <v>529</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
       <c r="Q67" t="n">
-        <v>1</v>
-      </c>
-      <c r="R67" t="n">
-        <v>3</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6539,7 +7449,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68">
@@ -6555,7 +7465,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6564,25 +7474,25 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="J68" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="K68" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="L68" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6602,7 +7512,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69">
@@ -6618,7 +7528,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6627,45 +7537,53 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="J69" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="K69" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L69" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
       <c r="S69" t="n">
         <v>3</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>540</v>
+      </c>
+      <c r="X69" t="s">
+        <v>541</v>
+      </c>
       <c r="Y69" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70">
@@ -6681,7 +7599,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6690,25 +7608,25 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="J70" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K70" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="L70" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70" t="s">
         <v>548</v>
       </c>
       <c r="O70" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6719,10 +7637,14 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
+      <c r="W70" t="s">
+        <v>549</v>
+      </c>
+      <c r="X70" t="s">
+        <v>550</v>
+      </c>
       <c r="Y70" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="71">
@@ -6738,40 +7660,40 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
+        <v>552</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>553</v>
+      </c>
+      <c r="J71" t="s">
+        <v>554</v>
+      </c>
+      <c r="K71" t="s">
         <v>555</v>
       </c>
-      <c r="G71" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" t="s">
-        <v>47</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="L71" t="s">
         <v>556</v>
       </c>
-      <c r="J71" t="s">
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
         <v>557</v>
       </c>
-      <c r="K71" t="s">
-        <v>558</v>
-      </c>
-      <c r="L71" t="s">
-        <v>559</v>
-      </c>
-      <c r="M71" t="n">
-        <v>4</v>
-      </c>
-      <c r="N71" t="s">
-        <v>560</v>
-      </c>
       <c r="O71" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R71" t="n">
         <v>5</v>
@@ -6786,10 +7708,14 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
+      <c r="W71" t="s">
+        <v>558</v>
+      </c>
+      <c r="X71" t="s">
+        <v>559</v>
+      </c>
       <c r="Y71" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72">
@@ -6805,40 +7731,40 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
+        <v>561</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
         <v>562</v>
       </c>
-      <c r="G72" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>563</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>564</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>565</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
         <v>566</v>
       </c>
-      <c r="M72" t="n">
-        <v>5</v>
-      </c>
-      <c r="N72" t="s">
-        <v>567</v>
-      </c>
       <c r="O72" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R72" t="n">
         <v>5</v>
@@ -6853,10 +7779,14 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
+      <c r="W72" t="s">
+        <v>567</v>
+      </c>
+      <c r="X72" t="s">
+        <v>568</v>
+      </c>
       <c r="Y72" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73">
@@ -6872,7 +7802,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6881,25 +7811,25 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J73" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K73" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L73" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="O73" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6914,14 +7844,20 @@
         <v>5</v>
       </c>
       <c r="T73" t="s"/>
-      <c r="U73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
+      <c r="W73" t="s">
+        <v>575</v>
+      </c>
+      <c r="X73" t="s">
+        <v>576</v>
+      </c>
       <c r="Y73" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="74">
@@ -6937,7 +7873,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -6946,25 +7882,25 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J74" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L74" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6973,10 +7909,10 @@
         <v>4</v>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T74" t="s"/>
       <c r="U74" t="n">
@@ -6988,7 +7924,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75">
@@ -7004,7 +7940,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7013,10 +7949,10 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J75" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="K75" t="s">
         <v>586</v>
@@ -7025,23 +7961,29 @@
         <v>587</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
-      </c>
-      <c r="N75" t="s"/>
-      <c r="O75" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>588</v>
+      </c>
+      <c r="O75" t="s">
+        <v>103</v>
+      </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
-      </c>
-      <c r="R75" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
       <c r="S75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -7049,7 +7991,7 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="76">
@@ -7086,10 +8028,14 @@
         <v>593</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="s"/>
-      <c r="O76" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>566</v>
+      </c>
+      <c r="O76" t="s">
+        <v>103</v>
+      </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
       <c r="R76" t="s"/>
@@ -7105,6 +8051,3330 @@
         <v>593</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>594</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>595</v>
+      </c>
+      <c r="J77" t="s">
+        <v>596</v>
+      </c>
+      <c r="K77" t="s">
+        <v>597</v>
+      </c>
+      <c r="L77" t="s">
+        <v>598</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>599</v>
+      </c>
+      <c r="O77" t="s">
+        <v>103</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>600</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>601</v>
+      </c>
+      <c r="J78" t="s">
+        <v>602</v>
+      </c>
+      <c r="K78" t="s">
+        <v>603</v>
+      </c>
+      <c r="L78" t="s">
+        <v>604</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>588</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>605</v>
+      </c>
+      <c r="X78" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>608</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>609</v>
+      </c>
+      <c r="J79" t="s">
+        <v>610</v>
+      </c>
+      <c r="K79" t="s">
+        <v>611</v>
+      </c>
+      <c r="L79" t="s">
+        <v>612</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>588</v>
+      </c>
+      <c r="O79" t="s">
+        <v>197</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>613</v>
+      </c>
+      <c r="X79" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>616</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>617</v>
+      </c>
+      <c r="J80" t="s">
+        <v>618</v>
+      </c>
+      <c r="K80" t="s">
+        <v>619</v>
+      </c>
+      <c r="L80" t="s">
+        <v>620</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>621</v>
+      </c>
+      <c r="O80" t="s">
+        <v>65</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>622</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>623</v>
+      </c>
+      <c r="J81" t="s">
+        <v>624</v>
+      </c>
+      <c r="K81" t="s">
+        <v>625</v>
+      </c>
+      <c r="L81" t="s">
+        <v>626</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>621</v>
+      </c>
+      <c r="O81" t="s">
+        <v>103</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>627</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>628</v>
+      </c>
+      <c r="J82" t="s">
+        <v>629</v>
+      </c>
+      <c r="K82" t="s">
+        <v>630</v>
+      </c>
+      <c r="L82" t="s">
+        <v>631</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>599</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>632</v>
+      </c>
+      <c r="X82" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>635</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>636</v>
+      </c>
+      <c r="J83" t="s">
+        <v>637</v>
+      </c>
+      <c r="K83" t="s">
+        <v>638</v>
+      </c>
+      <c r="L83" t="s">
+        <v>639</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>640</v>
+      </c>
+      <c r="O83" t="s">
+        <v>103</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>632</v>
+      </c>
+      <c r="X83" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>642</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>643</v>
+      </c>
+      <c r="J84" t="s">
+        <v>644</v>
+      </c>
+      <c r="K84" t="s">
+        <v>645</v>
+      </c>
+      <c r="L84" t="s">
+        <v>646</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>647</v>
+      </c>
+      <c r="O84" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>648</v>
+      </c>
+      <c r="X84" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>651</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>652</v>
+      </c>
+      <c r="J85" t="s">
+        <v>653</v>
+      </c>
+      <c r="K85" t="s">
+        <v>654</v>
+      </c>
+      <c r="L85" t="s">
+        <v>655</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>656</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>657</v>
+      </c>
+      <c r="X85" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>660</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>661</v>
+      </c>
+      <c r="J86" t="s">
+        <v>662</v>
+      </c>
+      <c r="K86" t="s">
+        <v>663</v>
+      </c>
+      <c r="L86" t="s">
+        <v>664</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>665</v>
+      </c>
+      <c r="O86" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>666</v>
+      </c>
+      <c r="X86" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>669</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>670</v>
+      </c>
+      <c r="J87" t="s">
+        <v>671</v>
+      </c>
+      <c r="K87" t="s">
+        <v>672</v>
+      </c>
+      <c r="L87" t="s">
+        <v>673</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>665</v>
+      </c>
+      <c r="O87" t="s">
+        <v>65</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>666</v>
+      </c>
+      <c r="X87" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>675</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>676</v>
+      </c>
+      <c r="J88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K88" t="s">
+        <v>678</v>
+      </c>
+      <c r="L88" t="s">
+        <v>679</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>665</v>
+      </c>
+      <c r="O88" t="s">
+        <v>197</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>666</v>
+      </c>
+      <c r="X88" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>681</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>682</v>
+      </c>
+      <c r="J89" t="s">
+        <v>677</v>
+      </c>
+      <c r="K89" t="s">
+        <v>683</v>
+      </c>
+      <c r="L89" t="s">
+        <v>684</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>685</v>
+      </c>
+      <c r="O89" t="s">
+        <v>65</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>666</v>
+      </c>
+      <c r="X89" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>687</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>688</v>
+      </c>
+      <c r="J90" t="s">
+        <v>689</v>
+      </c>
+      <c r="K90" t="s">
+        <v>690</v>
+      </c>
+      <c r="L90" t="s">
+        <v>691</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>665</v>
+      </c>
+      <c r="O90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>692</v>
+      </c>
+      <c r="X90" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>695</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>696</v>
+      </c>
+      <c r="J91" t="s">
+        <v>697</v>
+      </c>
+      <c r="K91" t="s">
+        <v>698</v>
+      </c>
+      <c r="L91" t="s">
+        <v>699</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>700</v>
+      </c>
+      <c r="X91" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>703</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>704</v>
+      </c>
+      <c r="J92" t="s">
+        <v>705</v>
+      </c>
+      <c r="K92" t="s">
+        <v>706</v>
+      </c>
+      <c r="L92" t="s">
+        <v>707</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>700</v>
+      </c>
+      <c r="X92" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>709</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>710</v>
+      </c>
+      <c r="J93" t="s">
+        <v>711</v>
+      </c>
+      <c r="K93" t="s">
+        <v>712</v>
+      </c>
+      <c r="L93" t="s">
+        <v>713</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>714</v>
+      </c>
+      <c r="O93" t="s">
+        <v>103</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>715</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>716</v>
+      </c>
+      <c r="J94" t="s">
+        <v>717</v>
+      </c>
+      <c r="K94" t="s">
+        <v>718</v>
+      </c>
+      <c r="L94" t="s">
+        <v>719</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>720</v>
+      </c>
+      <c r="O94" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>721</v>
+      </c>
+      <c r="X94" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>724</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>725</v>
+      </c>
+      <c r="J95" t="s">
+        <v>726</v>
+      </c>
+      <c r="K95" t="s">
+        <v>727</v>
+      </c>
+      <c r="L95" t="s">
+        <v>728</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>729</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>730</v>
+      </c>
+      <c r="J96" t="s">
+        <v>731</v>
+      </c>
+      <c r="K96" t="s">
+        <v>732</v>
+      </c>
+      <c r="L96" t="s">
+        <v>733</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>734</v>
+      </c>
+      <c r="O96" t="s">
+        <v>103</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>735</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>736</v>
+      </c>
+      <c r="J97" t="s">
+        <v>737</v>
+      </c>
+      <c r="K97" t="s">
+        <v>738</v>
+      </c>
+      <c r="L97" t="s">
+        <v>739</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>740</v>
+      </c>
+      <c r="O97" t="s">
+        <v>65</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>741</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>742</v>
+      </c>
+      <c r="J98" t="s">
+        <v>743</v>
+      </c>
+      <c r="K98" t="s">
+        <v>744</v>
+      </c>
+      <c r="L98" t="s">
+        <v>745</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>746</v>
+      </c>
+      <c r="O98" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>747</v>
+      </c>
+      <c r="X98" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>750</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>751</v>
+      </c>
+      <c r="J99" t="s">
+        <v>752</v>
+      </c>
+      <c r="K99" t="s">
+        <v>753</v>
+      </c>
+      <c r="L99" t="s">
+        <v>754</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>746</v>
+      </c>
+      <c r="O99" t="s">
+        <v>65</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>747</v>
+      </c>
+      <c r="X99" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>756</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>757</v>
+      </c>
+      <c r="J100" t="s">
+        <v>758</v>
+      </c>
+      <c r="K100" t="s">
+        <v>759</v>
+      </c>
+      <c r="L100" t="s">
+        <v>760</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>761</v>
+      </c>
+      <c r="O100" t="s">
+        <v>197</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>762</v>
+      </c>
+      <c r="X100" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>765</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>766</v>
+      </c>
+      <c r="J101" t="s">
+        <v>758</v>
+      </c>
+      <c r="K101" t="s">
+        <v>767</v>
+      </c>
+      <c r="L101" t="s">
+        <v>768</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>769</v>
+      </c>
+      <c r="O101" t="s">
+        <v>103</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>747</v>
+      </c>
+      <c r="X101" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>771</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>772</v>
+      </c>
+      <c r="J102" t="s">
+        <v>773</v>
+      </c>
+      <c r="K102" t="s">
+        <v>774</v>
+      </c>
+      <c r="L102" t="s">
+        <v>775</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>776</v>
+      </c>
+      <c r="X102" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>779</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>780</v>
+      </c>
+      <c r="J103" t="s">
+        <v>781</v>
+      </c>
+      <c r="K103" t="s">
+        <v>782</v>
+      </c>
+      <c r="L103" t="s">
+        <v>783</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>784</v>
+      </c>
+      <c r="O103" t="s">
+        <v>103</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>786</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>787</v>
+      </c>
+      <c r="J104" t="s">
+        <v>788</v>
+      </c>
+      <c r="K104" t="s">
+        <v>789</v>
+      </c>
+      <c r="L104" t="s">
+        <v>790</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>791</v>
+      </c>
+      <c r="X104" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>794</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>795</v>
+      </c>
+      <c r="J105" t="s">
+        <v>796</v>
+      </c>
+      <c r="K105" t="s">
+        <v>797</v>
+      </c>
+      <c r="L105" t="s">
+        <v>798</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>791</v>
+      </c>
+      <c r="X105" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>800</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>801</v>
+      </c>
+      <c r="J106" t="s">
+        <v>802</v>
+      </c>
+      <c r="K106" t="s">
+        <v>803</v>
+      </c>
+      <c r="L106" t="s">
+        <v>804</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>805</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>806</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>807</v>
+      </c>
+      <c r="J107" t="s">
+        <v>808</v>
+      </c>
+      <c r="K107" t="s">
+        <v>809</v>
+      </c>
+      <c r="L107" t="s">
+        <v>810</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>805</v>
+      </c>
+      <c r="O107" t="s">
+        <v>65</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>812</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>813</v>
+      </c>
+      <c r="J108" t="s">
+        <v>808</v>
+      </c>
+      <c r="K108" t="s">
+        <v>814</v>
+      </c>
+      <c r="L108" t="s">
+        <v>815</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>805</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>816</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>817</v>
+      </c>
+      <c r="J109" t="s">
+        <v>818</v>
+      </c>
+      <c r="K109" t="s">
+        <v>819</v>
+      </c>
+      <c r="L109" t="s">
+        <v>820</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>821</v>
+      </c>
+      <c r="O109" t="s">
+        <v>65</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>822</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>823</v>
+      </c>
+      <c r="J110" t="s">
+        <v>824</v>
+      </c>
+      <c r="K110" t="s">
+        <v>825</v>
+      </c>
+      <c r="L110" t="s">
+        <v>826</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s">
+        <v>827</v>
+      </c>
+      <c r="O110" t="s">
+        <v>103</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>829</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>830</v>
+      </c>
+      <c r="J111" t="s">
+        <v>831</v>
+      </c>
+      <c r="K111" t="s">
+        <v>832</v>
+      </c>
+      <c r="L111" t="s">
+        <v>833</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>827</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>835</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>836</v>
+      </c>
+      <c r="J112" t="s">
+        <v>837</v>
+      </c>
+      <c r="K112" t="s">
+        <v>838</v>
+      </c>
+      <c r="L112" t="s">
+        <v>839</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>827</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>841</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>842</v>
+      </c>
+      <c r="J113" t="s">
+        <v>843</v>
+      </c>
+      <c r="K113" t="s">
+        <v>844</v>
+      </c>
+      <c r="L113" t="s">
+        <v>845</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>846</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>847</v>
+      </c>
+      <c r="J114" t="s">
+        <v>848</v>
+      </c>
+      <c r="K114" t="s">
+        <v>849</v>
+      </c>
+      <c r="L114" t="s">
+        <v>850</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>851</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>852</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>853</v>
+      </c>
+      <c r="J115" t="s">
+        <v>854</v>
+      </c>
+      <c r="K115" t="s">
+        <v>855</v>
+      </c>
+      <c r="L115" t="s">
+        <v>856</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>857</v>
+      </c>
+      <c r="O115" t="s">
+        <v>65</v>
+      </c>
+      <c r="P115" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="n">
+        <v>3</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>859</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>860</v>
+      </c>
+      <c r="J116" t="s">
+        <v>861</v>
+      </c>
+      <c r="K116" t="s">
+        <v>862</v>
+      </c>
+      <c r="L116" t="s">
+        <v>863</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>857</v>
+      </c>
+      <c r="O116" t="s">
+        <v>197</v>
+      </c>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>864</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>865</v>
+      </c>
+      <c r="J117" t="s">
+        <v>866</v>
+      </c>
+      <c r="K117" t="s">
+        <v>867</v>
+      </c>
+      <c r="L117" t="s">
+        <v>868</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>869</v>
+      </c>
+      <c r="O117" t="s">
+        <v>113</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>870</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>871</v>
+      </c>
+      <c r="J118" t="s">
+        <v>872</v>
+      </c>
+      <c r="K118" t="s">
+        <v>873</v>
+      </c>
+      <c r="L118" t="s">
+        <v>874</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="s">
+        <v>875</v>
+      </c>
+      <c r="O118" t="s">
+        <v>103</v>
+      </c>
+      <c r="P118" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>3</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>4</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>876</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>877</v>
+      </c>
+      <c r="J119" t="s">
+        <v>878</v>
+      </c>
+      <c r="K119" t="s">
+        <v>879</v>
+      </c>
+      <c r="L119" t="s">
+        <v>880</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s">
+        <v>875</v>
+      </c>
+      <c r="O119" t="s">
+        <v>197</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>5</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>882</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>883</v>
+      </c>
+      <c r="J120" t="s">
+        <v>884</v>
+      </c>
+      <c r="K120" t="s">
+        <v>885</v>
+      </c>
+      <c r="L120" t="s">
+        <v>886</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>887</v>
+      </c>
+      <c r="O120" t="s">
+        <v>103</v>
+      </c>
+      <c r="P120" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>889</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>890</v>
+      </c>
+      <c r="J121" t="s">
+        <v>891</v>
+      </c>
+      <c r="K121" t="s">
+        <v>892</v>
+      </c>
+      <c r="L121" t="s">
+        <v>893</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="s">
+        <v>894</v>
+      </c>
+      <c r="O121" t="s">
+        <v>113</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>5</v>
+      </c>
+      <c r="S121" t="n">
+        <v>5</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>896</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>897</v>
+      </c>
+      <c r="J122" t="s">
+        <v>898</v>
+      </c>
+      <c r="K122" t="s">
+        <v>899</v>
+      </c>
+      <c r="L122" t="s">
+        <v>900</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" t="s">
+        <v>901</v>
+      </c>
+      <c r="O122" t="s">
+        <v>103</v>
+      </c>
+      <c r="P122" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>903</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>904</v>
+      </c>
+      <c r="J123" t="s">
+        <v>905</v>
+      </c>
+      <c r="K123" t="s">
+        <v>906</v>
+      </c>
+      <c r="L123" t="s">
+        <v>907</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="s">
+        <v>908</v>
+      </c>
+      <c r="O123" t="s">
+        <v>53</v>
+      </c>
+      <c r="P123" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>4</v>
+      </c>
+      <c r="R123" t="n">
+        <v>4</v>
+      </c>
+      <c r="S123" t="n">
+        <v>4</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>5</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>910</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>911</v>
+      </c>
+      <c r="J124" t="s">
+        <v>912</v>
+      </c>
+      <c r="K124" t="s">
+        <v>913</v>
+      </c>
+      <c r="L124" t="s">
+        <v>914</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4</v>
+      </c>
+      <c r="N124" t="s">
+        <v>915</v>
+      </c>
+      <c r="O124" t="s">
+        <v>65</v>
+      </c>
+      <c r="P124" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>4</v>
+      </c>
+      <c r="R124" t="n">
+        <v>3</v>
+      </c>
+      <c r="S124" t="n">
+        <v>4</v>
+      </c>
+      <c r="T124" t="s"/>
+      <c r="U124" t="n">
+        <v>5</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B125" t="s"/>
+      <c r="C125" t="s"/>
+      <c r="D125" t="n">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" t="s">
+        <v>917</v>
+      </c>
+      <c r="G125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" t="s">
+        <v>918</v>
+      </c>
+      <c r="J125" t="s">
+        <v>919</v>
+      </c>
+      <c r="K125" t="s">
+        <v>920</v>
+      </c>
+      <c r="L125" t="s">
+        <v>921</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="s"/>
+      <c r="O125" t="s"/>
+      <c r="P125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>2</v>
+      </c>
+      <c r="R125" t="s"/>
+      <c r="S125" t="n">
+        <v>3</v>
+      </c>
+      <c r="T125" t="s"/>
+      <c r="U125" t="n">
+        <v>1</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="s"/>
+      <c r="X125" t="s"/>
+      <c r="Y125" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B126" t="s"/>
+      <c r="C126" t="s"/>
+      <c r="D126" t="n">
+        <v>125</v>
+      </c>
+      <c r="E126" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" t="s">
+        <v>923</v>
+      </c>
+      <c r="G126" t="s">
+        <v>46</v>
+      </c>
+      <c r="H126" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" t="s">
+        <v>924</v>
+      </c>
+      <c r="J126" t="s">
+        <v>925</v>
+      </c>
+      <c r="K126" t="s">
+        <v>926</v>
+      </c>
+      <c r="L126" t="s">
+        <v>927</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s"/>
+      <c r="O126" t="s"/>
+      <c r="P126" t="s"/>
+      <c r="Q126" t="s"/>
+      <c r="R126" t="s"/>
+      <c r="S126" t="s"/>
+      <c r="T126" t="s"/>
+      <c r="U126" t="s"/>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s"/>
+      <c r="X126" t="s"/>
+      <c r="Y126" t="s">
+        <v>927</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>